--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T317"/>
+  <dimension ref="A1:T326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -12115,25 +12115,25 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N147" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O147" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P147" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12142,11 +12142,11 @@
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S147" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T147" t="n">
         <v>10</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44273</v>
+        <v>44413</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -12195,41 +12195,41 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N148" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O148" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P148" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S148" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T148" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149">
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -12280,20 +12280,20 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="N149" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O149" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P149" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T149" t="n">
         <v>10</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -12364,20 +12364,20 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N150" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O150" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P150" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -12386,10 +12386,10 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="T150" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151">
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -12444,7 +12444,7 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N151" t="n">
         <v>5000</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44400</v>
+        <v>44413</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -12520,11 +12520,11 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N152" t="n">
         <v>7000</v>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -12546,10 +12546,10 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="T152" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153">
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44400</v>
+        <v>44413</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -12595,25 +12595,25 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="N153" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O153" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P153" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12622,11 +12622,11 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S153" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T153" t="n">
         <v>10</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44400</v>
+        <v>44413</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -12675,25 +12675,25 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N154" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O154" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P154" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12702,11 +12702,11 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S154" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T154" t="n">
         <v>10</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44400</v>
+        <v>44413</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -12760,20 +12760,20 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="N155" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O155" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P155" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T155" t="n">
         <v>10</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44400</v>
+        <v>44273</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -12844,16 +12844,16 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N156" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O156" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P156" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12862,11 +12862,11 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S156" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T156" t="n">
         <v>10</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44400</v>
+        <v>44273</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -12924,16 +12924,16 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N157" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O157" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P157" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12942,11 +12942,11 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S157" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T157" t="n">
         <v>10</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44390</v>
+        <v>44377</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -13004,7 +13004,7 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N158" t="n">
         <v>7000</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44390</v>
+        <v>44377</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -13084,7 +13084,7 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N159" t="n">
         <v>6000</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44390</v>
+        <v>44377</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -13164,7 +13164,7 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N160" t="n">
         <v>5000</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44321</v>
+        <v>44400</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -13235,25 +13235,25 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N161" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O161" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P161" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13262,11 +13262,11 @@
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S161" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T161" t="n">
         <v>10</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44383</v>
+        <v>44400</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N162" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O162" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P162" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T162" t="n">
         <v>10</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44383</v>
+        <v>44400</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M163" t="n">
         <v>80</v>
       </c>
       <c r="N163" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O163" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P163" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T163" t="n">
         <v>10</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44383</v>
+        <v>44400</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -13475,25 +13475,25 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N164" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O164" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P164" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13502,11 +13502,11 @@
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S164" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T164" t="n">
         <v>10</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44354</v>
+        <v>44400</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -13555,25 +13555,25 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N165" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O165" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P165" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13582,11 +13582,11 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S165" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T165" t="n">
         <v>10</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44354</v>
+        <v>44400</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -13635,41 +13635,41 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N166" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O166" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P166" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S166" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T166" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167">
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44354</v>
+        <v>44390</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -13715,16 +13715,16 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="N167" t="n">
         <v>7000</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44354</v>
+        <v>44390</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -13795,7 +13795,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -13807,17 +13807,17 @@
         <v>87</v>
       </c>
       <c r="N168" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="O168" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="P168" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R168" t="inlineStr">
@@ -13826,10 +13826,10 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>733</v>
+        <v>600</v>
       </c>
       <c r="T168" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169">
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44354</v>
+        <v>44390</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -13875,7 +13875,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -13887,17 +13887,17 @@
         <v>80</v>
       </c>
       <c r="N169" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="O169" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P169" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R169" t="inlineStr">
@@ -13906,10 +13906,10 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="T169" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170">
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44354</v>
+        <v>44321</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -13955,25 +13955,25 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="N170" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O170" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P170" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13982,11 +13982,11 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S170" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T170" t="n">
         <v>10</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -14044,20 +14044,20 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N171" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O171" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P171" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -14066,10 +14066,10 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T171" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -14124,16 +14124,16 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N172" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O172" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P172" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T172" t="n">
         <v>10</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -14200,24 +14200,24 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N173" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O173" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="P173" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -14226,10 +14226,10 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>733</v>
+        <v>500</v>
       </c>
       <c r="T173" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174">
@@ -14275,25 +14275,25 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N174" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O174" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P174" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T174" t="n">
         <v>10</v>
@@ -14355,25 +14355,25 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M175" t="n">
         <v>85</v>
       </c>
       <c r="N175" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O175" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P175" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T175" t="n">
         <v>15</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44412</v>
+        <v>44354</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -14435,16 +14435,16 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N176" t="n">
         <v>7000</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44412</v>
+        <v>44354</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -14524,20 +14524,20 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N177" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="O177" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="P177" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -14546,10 +14546,10 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="T177" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178">
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44412</v>
+        <v>44354</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -14595,7 +14595,7 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
@@ -14604,20 +14604,20 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N178" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O178" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P178" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
@@ -14626,10 +14626,10 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T178" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44412</v>
+        <v>44354</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -14675,7 +14675,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -14684,7 +14684,7 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="N179" t="n">
         <v>8000</v>
@@ -14702,7 +14702,7 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S179" t="n">
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44412</v>
+        <v>44354</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -14755,41 +14755,41 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M180" t="n">
         <v>67</v>
       </c>
       <c r="N180" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O180" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P180" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S180" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T180" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181">
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44412</v>
+        <v>44354</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -14835,25 +14835,25 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N181" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O181" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P181" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14862,11 +14862,11 @@
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S181" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T181" t="n">
         <v>10</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44336</v>
+        <v>44354</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -14915,29 +14915,29 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N182" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O182" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P182" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -14946,10 +14946,10 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T182" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183">
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44336</v>
+        <v>44354</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -14995,25 +14995,25 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M183" t="n">
         <v>87</v>
       </c>
       <c r="N183" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O183" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P183" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T183" t="n">
         <v>10</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44336</v>
+        <v>44354</v>
       </c>
       <c r="E184" t="n">
         <v>5</v>
@@ -15075,7 +15075,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -15084,20 +15084,20 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N184" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O184" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P184" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
@@ -15106,10 +15106,10 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T184" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -15167,17 +15167,17 @@
         <v>75</v>
       </c>
       <c r="N185" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O185" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P185" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R185" t="inlineStr">
@@ -15186,10 +15186,10 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T185" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186">
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E186" t="n">
         <v>5</v>
@@ -15244,20 +15244,20 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="N186" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O186" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P186" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -15266,10 +15266,10 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T186" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187">
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E187" t="n">
         <v>5</v>
@@ -15324,20 +15324,20 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N187" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O187" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P187" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R187" t="inlineStr">
@@ -15346,10 +15346,10 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T187" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188">
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44371</v>
+        <v>44412</v>
       </c>
       <c r="E188" t="n">
         <v>5</v>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -15404,16 +15404,16 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N188" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O188" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P188" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15422,11 +15422,11 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S188" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T188" t="n">
         <v>10</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44371</v>
+        <v>44412</v>
       </c>
       <c r="E189" t="n">
         <v>5</v>
@@ -15475,7 +15475,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -15487,13 +15487,13 @@
         <v>67</v>
       </c>
       <c r="N189" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O189" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P189" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15502,11 +15502,11 @@
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S189" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T189" t="n">
         <v>10</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44371</v>
+        <v>44412</v>
       </c>
       <c r="E190" t="n">
         <v>5</v>
@@ -15555,7 +15555,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -15564,16 +15564,16 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N190" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O190" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P190" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15582,11 +15582,11 @@
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S190" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T190" t="n">
         <v>10</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E191" t="n">
         <v>5</v>
@@ -15635,7 +15635,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -15647,13 +15647,13 @@
         <v>85</v>
       </c>
       <c r="N191" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O191" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P191" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T191" t="n">
         <v>10</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E192" t="n">
         <v>5</v>
@@ -15715,29 +15715,29 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N192" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O192" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P192" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
@@ -15746,10 +15746,10 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T192" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193">
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E193" t="n">
         <v>5</v>
@@ -15795,16 +15795,16 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N193" t="n">
         <v>6000</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E194" t="n">
         <v>5</v>
@@ -15880,20 +15880,20 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M194" t="n">
         <v>75</v>
       </c>
       <c r="N194" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O194" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P194" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T194" t="n">
         <v>15</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E195" t="n">
         <v>5</v>
@@ -15960,24 +15960,24 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N195" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O195" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P195" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
@@ -15986,10 +15986,10 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T195" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196">
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -16044,16 +16044,16 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N196" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O196" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P196" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T196" t="n">
         <v>15</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E197" t="n">
         <v>5</v>
@@ -16115,16 +16115,16 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N197" t="n">
         <v>7000</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44320</v>
+        <v>44371</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -16204,16 +16204,16 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N198" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O198" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P198" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16222,11 +16222,11 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T198" t="n">
         <v>10</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E199" t="n">
         <v>5</v>
@@ -16280,20 +16280,20 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N199" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O199" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P199" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T199" t="n">
         <v>10</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -16355,25 +16355,25 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N200" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O200" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P200" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T200" t="n">
         <v>10</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
@@ -16435,29 +16435,29 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M201" t="n">
         <v>70</v>
       </c>
       <c r="N201" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O201" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P201" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R201" t="inlineStr">
@@ -16466,10 +16466,10 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T201" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202">
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E202" t="n">
         <v>5</v>
@@ -16520,20 +16520,20 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N202" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O202" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P202" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T202" t="n">
         <v>10</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
@@ -16600,20 +16600,20 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N203" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O203" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P203" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T203" t="n">
         <v>15</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
@@ -16680,20 +16680,20 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N204" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O204" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P204" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T204" t="n">
         <v>10</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -16760,20 +16760,20 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M205" t="n">
         <v>68</v>
       </c>
       <c r="N205" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O205" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P205" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="T205" t="n">
         <v>15</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44364</v>
+        <v>44238</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N206" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O206" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P206" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T206" t="n">
         <v>10</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
@@ -16915,41 +16915,41 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N207" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O207" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P207" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S207" t="n">
-        <v>533</v>
+        <v>1000</v>
       </c>
       <c r="T207" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208">
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -17000,20 +17000,20 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N208" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O208" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P208" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T208" t="n">
         <v>10</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N209" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O209" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P209" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T209" t="n">
         <v>10</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E210" t="n">
         <v>5</v>
@@ -17155,25 +17155,25 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N210" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O210" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P210" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T210" t="n">
         <v>10</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N211" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O211" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P211" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T211" t="n">
         <v>10</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -17320,24 +17320,24 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N212" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O212" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P212" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R212" t="inlineStr">
@@ -17346,10 +17346,10 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T212" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213">
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E213" t="n">
         <v>5</v>
@@ -17395,25 +17395,25 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="N213" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O213" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P213" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17422,11 +17422,11 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S213" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T213" t="n">
         <v>10</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -17475,7 +17475,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -17484,32 +17484,32 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N214" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O214" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P214" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S214" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T214" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215">
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -17564,16 +17564,16 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N215" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O215" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P215" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17582,11 +17582,11 @@
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S215" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T215" t="n">
         <v>10</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44327</v>
+        <v>44364</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -17640,24 +17640,24 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N216" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O216" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P216" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R216" t="inlineStr">
@@ -17666,10 +17666,10 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>900</v>
+        <v>533</v>
       </c>
       <c r="T216" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="217">
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44327</v>
+        <v>44405</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -17715,7 +17715,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -17724,16 +17724,16 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N217" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O217" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P217" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T217" t="n">
         <v>10</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44327</v>
+        <v>44405</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -17795,7 +17795,7 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -17804,16 +17804,16 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N218" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O218" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P218" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T218" t="n">
         <v>10</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44330</v>
+        <v>44405</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="N219" t="n">
         <v>7000</v>
       </c>
       <c r="O219" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P219" t="n">
-        <v>7456</v>
+        <v>7000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>746</v>
+        <v>700</v>
       </c>
       <c r="T219" t="n">
         <v>10</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44330</v>
+        <v>44405</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -17960,11 +17960,11 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="N220" t="n">
         <v>6000</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44391</v>
+        <v>44405</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -18035,25 +18035,25 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N221" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O221" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P221" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T221" t="n">
         <v>10</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44391</v>
+        <v>44405</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -18115,25 +18115,25 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M222" t="n">
         <v>65</v>
       </c>
       <c r="N222" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O222" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P222" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18142,11 +18142,11 @@
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S222" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T222" t="n">
         <v>10</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44391</v>
+        <v>44405</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -18195,25 +18195,25 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N223" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O223" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P223" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18222,11 +18222,11 @@
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S223" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T223" t="n">
         <v>10</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44391</v>
+        <v>44405</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -18275,25 +18275,25 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N224" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O224" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P224" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18302,11 +18302,11 @@
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S224" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T224" t="n">
         <v>10</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44391</v>
+        <v>44327</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -18360,20 +18360,20 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N225" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O225" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P225" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T225" t="n">
         <v>10</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44391</v>
+        <v>44327</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -18440,20 +18440,20 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N226" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O226" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P226" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T226" t="n">
         <v>10</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44351</v>
+        <v>44327</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -18520,20 +18520,20 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="N227" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O227" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P227" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T227" t="n">
         <v>10</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="N228" t="n">
         <v>7000</v>
       </c>
       <c r="O228" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P228" t="n">
-        <v>7000</v>
+        <v>7456</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>700</v>
+        <v>746</v>
       </c>
       <c r="T228" t="n">
         <v>10</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -18684,7 +18684,7 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N229" t="n">
         <v>6000</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -18764,16 +18764,16 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N230" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O230" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P230" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T230" t="n">
         <v>10</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="N231" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O231" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P231" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T231" t="n">
         <v>10</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N232" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O232" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P232" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T232" t="n">
         <v>10</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -19007,13 +19007,13 @@
         <v>75</v>
       </c>
       <c r="N233" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O233" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P233" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T233" t="n">
         <v>10</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -19080,24 +19080,24 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N234" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O234" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P234" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R234" t="inlineStr">
@@ -19106,10 +19106,10 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T234" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235">
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N235" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O235" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P235" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T235" t="n">
         <v>10</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -19240,24 +19240,24 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N236" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O236" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P236" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R236" t="inlineStr">
@@ -19266,10 +19266,10 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T236" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237">
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -19320,20 +19320,20 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N237" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O237" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P237" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T237" t="n">
         <v>10</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44358</v>
+        <v>44351</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -19395,25 +19395,25 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N238" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O238" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P238" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T238" t="n">
         <v>10</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -19480,20 +19480,20 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N239" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O239" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P239" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T239" t="n">
         <v>10</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -19555,25 +19555,25 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="N240" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O240" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P240" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T240" t="n">
         <v>10</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -19635,25 +19635,25 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N241" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O241" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P241" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T241" t="n">
         <v>10</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -19720,20 +19720,20 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N242" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O242" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P242" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T242" t="n">
         <v>10</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44389</v>
+        <v>44350</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -19795,7 +19795,7 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -19804,20 +19804,20 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N243" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O243" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P243" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R243" t="inlineStr">
@@ -19826,10 +19826,10 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T243" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244">
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44389</v>
+        <v>44350</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -19875,7 +19875,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -19884,16 +19884,16 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="N244" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O244" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P244" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T244" t="n">
         <v>10</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44389</v>
+        <v>44350</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -19955,29 +19955,29 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="N245" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O245" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P245" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R245" t="inlineStr">
@@ -19986,10 +19986,10 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T245" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246">
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44389</v>
+        <v>44350</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="N246" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O246" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P246" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T246" t="n">
         <v>10</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -20115,7 +20115,7 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="N247" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O247" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P247" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T247" t="n">
         <v>10</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -20204,16 +20204,16 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N248" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O248" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P248" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T248" t="n">
         <v>10</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -20284,16 +20284,16 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N249" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O249" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P249" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T249" t="n">
         <v>10</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N250" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O250" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P250" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T250" t="n">
         <v>10</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -20447,13 +20447,13 @@
         <v>80</v>
       </c>
       <c r="N251" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O251" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P251" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T251" t="n">
         <v>10</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -20515,7 +20515,7 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N252" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O252" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P252" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20542,11 +20542,11 @@
       </c>
       <c r="R252" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S252" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T252" t="n">
         <v>10</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -20595,7 +20595,7 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="N253" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O253" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P253" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20622,11 +20622,11 @@
       </c>
       <c r="R253" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S253" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T253" t="n">
         <v>10</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -20675,7 +20675,7 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="N254" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O254" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P254" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20702,11 +20702,11 @@
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S254" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T254" t="n">
         <v>10</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -20755,16 +20755,16 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N255" t="n">
         <v>7000</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -20835,16 +20835,16 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="N256" t="n">
         <v>6000</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44245</v>
+        <v>44389</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -20915,25 +20915,25 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N257" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O257" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P257" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T257" t="n">
         <v>10</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -21004,7 +21004,7 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N258" t="n">
         <v>7000</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -21084,7 +21084,7 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N259" t="n">
         <v>6000</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -21164,7 +21164,7 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N260" t="n">
         <v>5000</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44161</v>
+        <v>44399</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N261" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O261" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P261" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21262,11 +21262,11 @@
       </c>
       <c r="R261" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S261" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T261" t="n">
         <v>10</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44161</v>
+        <v>44399</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -21327,13 +21327,13 @@
         <v>70</v>
       </c>
       <c r="N262" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O262" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P262" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21342,11 +21342,11 @@
       </c>
       <c r="R262" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S262" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T262" t="n">
         <v>10</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44161</v>
+        <v>44399</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N263" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O263" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P263" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21422,11 +21422,11 @@
       </c>
       <c r="R263" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S263" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T263" t="n">
         <v>10</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -21480,24 +21480,24 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N264" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O264" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P264" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R264" t="inlineStr">
@@ -21506,10 +21506,10 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>933</v>
+        <v>700</v>
       </c>
       <c r="T264" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265">
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -21560,24 +21560,24 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N265" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O265" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P265" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
@@ -21586,10 +21586,10 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T265" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266">
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44159</v>
+        <v>44245</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -21640,24 +21640,24 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N266" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O266" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P266" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R266" t="inlineStr">
@@ -21666,10 +21666,10 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T266" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267">
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44333</v>
+        <v>44369</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N267" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O267" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P267" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T267" t="n">
         <v>10</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44333</v>
+        <v>44369</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N268" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O268" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P268" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T268" t="n">
         <v>10</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44333</v>
+        <v>44369</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -21884,16 +21884,16 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N269" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O269" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P269" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T269" t="n">
         <v>10</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44344</v>
+        <v>44161</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N270" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O270" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P270" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T270" t="n">
         <v>10</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44344</v>
+        <v>44161</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -22035,7 +22035,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N271" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O271" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P271" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T271" t="n">
         <v>10</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44344</v>
+        <v>44161</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N272" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O272" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P272" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T272" t="n">
         <v>10</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44272</v>
+        <v>44159</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -22200,36 +22200,36 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N273" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O273" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P273" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S273" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T273" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274">
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44370</v>
+        <v>44159</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -22275,29 +22275,29 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N274" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O274" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P274" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R274" t="inlineStr">
@@ -22306,10 +22306,10 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T274" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275">
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44370</v>
+        <v>44159</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -22355,29 +22355,29 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N275" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O275" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P275" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -22386,10 +22386,10 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T275" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276">
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44370</v>
+        <v>44333</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -22440,20 +22440,20 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N276" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O276" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P276" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T276" t="n">
         <v>10</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -22520,20 +22520,20 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
         <v>80</v>
       </c>
       <c r="N277" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O277" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P277" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T277" t="n">
         <v>10</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -22600,20 +22600,20 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N278" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O278" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P278" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T278" t="n">
         <v>10</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44326</v>
+        <v>44344</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -22675,25 +22675,25 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N279" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O279" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P279" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T279" t="n">
         <v>10</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44382</v>
+        <v>44344</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -22755,16 +22755,16 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N280" t="n">
         <v>7000</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44382</v>
+        <v>44344</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -22835,29 +22835,29 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N281" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O281" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P281" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R281" t="inlineStr">
@@ -22869,7 +22869,7 @@
         <v>600</v>
       </c>
       <c r="T281" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282">
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44382</v>
+        <v>44272</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -22915,7 +22915,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="N282" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O282" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P282" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22942,11 +22942,11 @@
       </c>
       <c r="R282" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S282" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T282" t="n">
         <v>10</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -23000,24 +23000,24 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="N283" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O283" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P283" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R283" t="inlineStr">
@@ -23026,10 +23026,10 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T283" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284">
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -23080,20 +23080,20 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="N284" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O284" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P284" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T284" t="n">
         <v>10</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44382</v>
+        <v>44370</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -23164,20 +23164,20 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N285" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O285" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P285" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R285" t="inlineStr">
@@ -23186,10 +23186,10 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="T285" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286">
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44398</v>
+        <v>44326</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N286" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O286" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P286" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T286" t="n">
         <v>10</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44398</v>
+        <v>44326</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N287" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O287" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P287" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T287" t="n">
         <v>10</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44398</v>
+        <v>44326</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N288" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O288" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P288" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T288" t="n">
         <v>10</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -23475,7 +23475,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N289" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O289" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P289" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23502,11 +23502,11 @@
       </c>
       <c r="R289" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S289" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T289" t="n">
         <v>10</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -23555,41 +23555,41 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N290" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O290" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P290" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S290" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T290" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="291">
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -23635,16 +23635,16 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="N291" t="n">
         <v>6000</v>
@@ -23662,7 +23662,7 @@
       </c>
       <c r="R291" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S291" t="n">
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44270</v>
+        <v>44382</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -23715,7 +23715,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -23724,7 +23724,7 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N292" t="n">
         <v>8000</v>
@@ -23737,19 +23737,19 @@
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S292" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T292" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="293">
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44270</v>
+        <v>44382</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -23795,7 +23795,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -23804,16 +23804,16 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N293" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O293" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P293" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23822,11 +23822,11 @@
       </c>
       <c r="R293" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S293" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T293" t="n">
         <v>10</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44355</v>
+        <v>44382</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -23875,29 +23875,29 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N294" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O294" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P294" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
@@ -23906,10 +23906,10 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="T294" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -23955,16 +23955,16 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N295" t="n">
         <v>7000</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -24035,16 +24035,16 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N296" t="n">
         <v>6000</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -24120,24 +24120,24 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N297" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O297" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P297" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R297" t="inlineStr">
@@ -24146,10 +24146,10 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T297" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298">
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -24195,41 +24195,41 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N298" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O298" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P298" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S298" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T298" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299">
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -24275,41 +24275,41 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N299" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O299" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P299" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R299" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S299" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T299" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300">
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44343</v>
+        <v>44398</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -24355,25 +24355,25 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="N300" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O300" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P300" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24382,11 +24382,11 @@
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S300" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T300" t="n">
         <v>10</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44343</v>
+        <v>44270</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -24435,7 +24435,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N301" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O301" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P301" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24462,11 +24462,11 @@
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S301" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T301" t="n">
         <v>10</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44343</v>
+        <v>44270</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -24515,7 +24515,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N302" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O302" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P302" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24542,11 +24542,11 @@
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S302" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T302" t="n">
         <v>10</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -24595,7 +24595,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -24604,7 +24604,7 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N303" t="n">
         <v>8000</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -24675,7 +24675,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -24684,7 +24684,7 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N304" t="n">
         <v>7000</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E305" t="n">
         <v>5</v>
@@ -24755,7 +24755,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -24764,7 +24764,7 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N305" t="n">
         <v>6000</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44376</v>
+        <v>44355</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -24844,20 +24844,20 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N306" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O306" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P306" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R306" t="inlineStr">
@@ -24866,10 +24866,10 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T306" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="307">
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44376</v>
+        <v>44355</v>
       </c>
       <c r="E307" t="n">
         <v>5</v>
@@ -24920,20 +24920,20 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="N307" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O307" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P307" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="T307" t="n">
         <v>15</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44376</v>
+        <v>44355</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -25000,24 +25000,24 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N308" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O308" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P308" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R308" t="inlineStr">
@@ -25026,10 +25026,10 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T308" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="309">
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -25075,29 +25075,29 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="N309" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O309" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P309" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R309" t="inlineStr">
@@ -25106,10 +25106,10 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T309" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310">
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E310" t="n">
         <v>5</v>
@@ -25155,25 +25155,25 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N310" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O310" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P310" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T310" t="n">
         <v>10</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E311" t="n">
         <v>5</v>
@@ -25235,7 +25235,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -25244,20 +25244,20 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N311" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O311" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P311" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
@@ -25266,10 +25266,10 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T311" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312">
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44334</v>
+        <v>44343</v>
       </c>
       <c r="E312" t="n">
         <v>5</v>
@@ -25324,7 +25324,7 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N312" t="n">
         <v>8000</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44334</v>
+        <v>44343</v>
       </c>
       <c r="E313" t="n">
         <v>5</v>
@@ -25404,7 +25404,7 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N313" t="n">
         <v>7000</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44334</v>
+        <v>44343</v>
       </c>
       <c r="E314" t="n">
         <v>5</v>
@@ -25484,7 +25484,7 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N314" t="n">
         <v>6000</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44168</v>
+        <v>44376</v>
       </c>
       <c r="E315" t="n">
         <v>5</v>
@@ -25555,7 +25555,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="N315" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O315" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P315" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T315" t="n">
         <v>10</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44168</v>
+        <v>44376</v>
       </c>
       <c r="E316" t="n">
         <v>5</v>
@@ -25635,29 +25635,29 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="N316" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O316" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P316" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R316" t="inlineStr">
@@ -25666,10 +25666,10 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>900</v>
+        <v>667</v>
       </c>
       <c r="T316" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317">
@@ -25687,68 +25687,788 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E317" t="n">
+        <v>5</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G317" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M317" t="n">
+        <v>80</v>
+      </c>
+      <c r="N317" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O317" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P317" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S317" t="n">
+        <v>600</v>
+      </c>
+      <c r="T317" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>3</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D318" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E318" t="n">
+        <v>5</v>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G318" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M318" t="n">
+        <v>75</v>
+      </c>
+      <c r="N318" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O318" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P318" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S318" t="n">
+        <v>600</v>
+      </c>
+      <c r="T318" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>3</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D319" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E319" t="n">
+        <v>5</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G319" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M319" t="n">
+        <v>80</v>
+      </c>
+      <c r="N319" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O319" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P319" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S319" t="n">
+        <v>500</v>
+      </c>
+      <c r="T319" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>3</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D320" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E320" t="n">
+        <v>5</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G320" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M320" t="n">
+        <v>70</v>
+      </c>
+      <c r="N320" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O320" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P320" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="R320" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S320" t="n">
+        <v>467</v>
+      </c>
+      <c r="T320" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>3</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D321" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E321" t="n">
+        <v>5</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G321" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M321" t="n">
+        <v>75</v>
+      </c>
+      <c r="N321" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O321" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P321" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R321" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S321" t="n">
+        <v>800</v>
+      </c>
+      <c r="T321" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>3</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D322" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E322" t="n">
+        <v>5</v>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G322" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M322" t="n">
+        <v>85</v>
+      </c>
+      <c r="N322" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O322" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P322" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S322" t="n">
+        <v>700</v>
+      </c>
+      <c r="T322" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>3</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D323" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E323" t="n">
+        <v>5</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G323" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M323" t="n">
+        <v>60</v>
+      </c>
+      <c r="N323" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O323" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P323" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S323" t="n">
+        <v>600</v>
+      </c>
+      <c r="T323" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>3</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D324" s="2" t="n">
         <v>44168</v>
       </c>
-      <c r="E317" t="n">
-        <v>5</v>
-      </c>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G317" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I317" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J317" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K317" t="inlineStr">
+      <c r="E324" t="n">
+        <v>5</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G324" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K324" t="inlineStr">
         <is>
           <t>Murcott</t>
         </is>
       </c>
-      <c r="L317" t="inlineStr">
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M324" t="n">
+        <v>45</v>
+      </c>
+      <c r="N324" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O324" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P324" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R324" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S324" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T324" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>3</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D325" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E325" t="n">
+        <v>5</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G325" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M325" t="n">
+        <v>50</v>
+      </c>
+      <c r="N325" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O325" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P325" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q325" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R325" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S325" t="n">
+        <v>900</v>
+      </c>
+      <c r="T325" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>3</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D326" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E326" t="n">
+        <v>5</v>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G326" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I326" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L326" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M317" t="n">
+      <c r="M326" t="n">
         <v>47</v>
       </c>
-      <c r="N317" t="n">
+      <c r="N326" t="n">
         <v>8000</v>
       </c>
-      <c r="O317" t="n">
+      <c r="O326" t="n">
         <v>8000</v>
       </c>
-      <c r="P317" t="n">
+      <c r="P326" t="n">
         <v>8000</v>
       </c>
-      <c r="Q317" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R317" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="S317" t="n">
+      <c r="Q326" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S326" t="n">
         <v>800</v>
       </c>
-      <c r="T317" t="n">
+      <c r="T326" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T404"/>
+  <dimension ref="A1:T407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44327</v>
+        <v>44438</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -22195,7 +22195,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N273" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O273" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P273" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T273" t="n">
         <v>10</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44327</v>
+        <v>44438</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -22275,7 +22275,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="N274" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O274" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P274" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T274" t="n">
         <v>10</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44327</v>
+        <v>44438</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -22355,7 +22355,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="N275" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O275" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P275" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T275" t="n">
         <v>10</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -22440,20 +22440,20 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="N276" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O276" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P276" t="n">
-        <v>7456</v>
+        <v>9000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>746</v>
+        <v>900</v>
       </c>
       <c r="T276" t="n">
         <v>10</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44330</v>
+        <v>44327</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -22520,20 +22520,20 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N277" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O277" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P277" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T277" t="n">
         <v>10</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44391</v>
+        <v>44327</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -22595,16 +22595,16 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N278" t="n">
         <v>7000</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="N279" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O279" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P279" t="n">
-        <v>6000</v>
+        <v>7456</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>600</v>
+        <v>746</v>
       </c>
       <c r="T279" t="n">
         <v>10</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N280" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O280" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P280" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T280" t="n">
         <v>10</v>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -22844,7 +22844,7 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N281" t="n">
         <v>7000</v>
@@ -22915,7 +22915,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -22924,7 +22924,7 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N282" t="n">
         <v>6000</v>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23004,7 +23004,7 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N283" t="n">
         <v>5000</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N284" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O284" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P284" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T284" t="n">
         <v>10</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -23167,13 +23167,13 @@
         <v>80</v>
       </c>
       <c r="N285" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O285" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P285" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T285" t="n">
         <v>10</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -23247,13 +23247,13 @@
         <v>70</v>
       </c>
       <c r="N286" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O286" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P286" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T286" t="n">
         <v>10</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -23315,7 +23315,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -23324,7 +23324,7 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N287" t="n">
         <v>8000</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -23395,7 +23395,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -23404,7 +23404,7 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N288" t="n">
         <v>7000</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -23475,7 +23475,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -23484,7 +23484,7 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N289" t="n">
         <v>6000</v>
@@ -23555,7 +23555,7 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -23564,7 +23564,7 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N290" t="n">
         <v>8000</v>
@@ -23635,29 +23635,29 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="N291" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O291" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P291" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R291" t="inlineStr">
@@ -23666,10 +23666,10 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T291" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292">
@@ -23715,25 +23715,25 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M292" t="n">
         <v>80</v>
       </c>
       <c r="N292" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O292" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P292" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T292" t="n">
         <v>10</v>
@@ -23800,24 +23800,24 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N293" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O293" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P293" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
@@ -23826,10 +23826,10 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T293" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294">
@@ -23880,24 +23880,24 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N294" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O294" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P294" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R294" t="inlineStr">
@@ -23906,10 +23906,10 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T294" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -23955,7 +23955,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -23964,7 +23964,7 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N295" t="n">
         <v>7000</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -24035,29 +24035,29 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N296" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O296" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P296" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R296" t="inlineStr">
@@ -24066,10 +24066,10 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T296" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="297">
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -24120,20 +24120,20 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N297" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O297" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P297" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T297" t="n">
         <v>10</v>
@@ -24195,7 +24195,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -24204,7 +24204,7 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N298" t="n">
         <v>7000</v>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N299" t="n">
         <v>6000</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N300" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O300" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P300" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T300" t="n">
         <v>10</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -24435,7 +24435,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="N301" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O301" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P301" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T301" t="n">
         <v>10</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -24515,7 +24515,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="N302" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O302" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P302" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T302" t="n">
         <v>10</v>
@@ -24595,7 +24595,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -24604,7 +24604,7 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N303" t="n">
         <v>7000</v>
@@ -24675,7 +24675,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -24684,7 +24684,7 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="N304" t="n">
         <v>6000</v>
@@ -24755,7 +24755,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -24764,7 +24764,7 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="N305" t="n">
         <v>5000</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E307" t="n">
         <v>5</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -25075,7 +25075,7 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N309" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O309" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P309" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25102,11 +25102,11 @@
       </c>
       <c r="R309" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S309" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T309" t="n">
         <v>10</v>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N310" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O310" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P310" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25182,11 +25182,11 @@
       </c>
       <c r="R310" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S310" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T310" t="n">
         <v>10</v>
@@ -25235,7 +25235,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -25244,16 +25244,16 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N311" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O311" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P311" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25262,11 +25262,11 @@
       </c>
       <c r="R311" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S311" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T311" t="n">
         <v>10</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E312" t="n">
         <v>5</v>
@@ -25320,20 +25320,20 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N312" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O312" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P312" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25342,11 +25342,11 @@
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S312" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T312" t="n">
         <v>10</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E313" t="n">
         <v>5</v>
@@ -25400,20 +25400,20 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N313" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O313" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P313" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25422,11 +25422,11 @@
       </c>
       <c r="R313" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S313" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T313" t="n">
         <v>10</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44417</v>
+        <v>44399</v>
       </c>
       <c r="E314" t="n">
         <v>5</v>
@@ -25475,25 +25475,25 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N314" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O314" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P314" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25502,11 +25502,11 @@
       </c>
       <c r="R314" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S314" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T314" t="n">
         <v>10</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44417</v>
+        <v>44251</v>
       </c>
       <c r="E315" t="n">
         <v>5</v>
@@ -25555,7 +25555,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="N315" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O315" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P315" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T315" t="n">
         <v>10</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44417</v>
+        <v>44251</v>
       </c>
       <c r="E316" t="n">
         <v>5</v>
@@ -25635,7 +25635,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N316" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O316" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P316" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T316" t="n">
         <v>10</v>
@@ -25715,7 +25715,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N317" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O317" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P317" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T317" t="n">
         <v>10</v>
@@ -25795,7 +25795,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N318" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O318" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P318" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T318" t="n">
         <v>10</v>
@@ -25875,7 +25875,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -25887,13 +25887,13 @@
         <v>80</v>
       </c>
       <c r="N319" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O319" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P319" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T319" t="n">
         <v>10</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E320" t="n">
         <v>5</v>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="N320" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O320" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P320" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T320" t="n">
         <v>10</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E321" t="n">
         <v>5</v>
@@ -26035,29 +26035,29 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N321" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O321" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P321" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R321" t="inlineStr">
@@ -26066,10 +26066,10 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T321" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322">
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E322" t="n">
         <v>5</v>
@@ -26115,16 +26115,16 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="N322" t="n">
         <v>6000</v>
@@ -26200,24 +26200,24 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="N323" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O323" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P323" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R323" t="inlineStr">
@@ -26226,10 +26226,10 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T323" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324">
@@ -26280,24 +26280,24 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N324" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O324" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P324" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R324" t="inlineStr">
@@ -26306,10 +26306,10 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T324" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="325">
@@ -26360,24 +26360,24 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N325" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O325" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P325" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R325" t="inlineStr">
@@ -26386,10 +26386,10 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T325" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326">
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E326" t="n">
         <v>5</v>
@@ -26440,24 +26440,24 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N326" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O326" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P326" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R326" t="inlineStr">
@@ -26466,10 +26466,10 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T326" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327">
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E327" t="n">
         <v>5</v>
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N327" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O327" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P327" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T327" t="n">
         <v>10</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E328" t="n">
         <v>5</v>
@@ -26607,17 +26607,17 @@
         <v>60</v>
       </c>
       <c r="N328" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O328" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P328" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R328" t="inlineStr">
@@ -26626,10 +26626,10 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T328" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="329">
@@ -26675,7 +26675,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -26684,7 +26684,7 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N329" t="n">
         <v>7000</v>
@@ -26755,7 +26755,7 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
@@ -26764,7 +26764,7 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N330" t="n">
         <v>6000</v>
@@ -26835,7 +26835,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -26844,7 +26844,7 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N331" t="n">
         <v>5000</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44245</v>
+        <v>44420</v>
       </c>
       <c r="E332" t="n">
         <v>5</v>
@@ -26920,7 +26920,7 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M332" t="n">
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44369</v>
+        <v>44420</v>
       </c>
       <c r="E333" t="n">
         <v>5</v>
@@ -26995,25 +26995,25 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N333" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O333" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P333" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T333" t="n">
         <v>10</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44369</v>
+        <v>44420</v>
       </c>
       <c r="E334" t="n">
         <v>5</v>
@@ -27075,25 +27075,25 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N334" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O334" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P334" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T334" t="n">
         <v>10</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44369</v>
+        <v>44245</v>
       </c>
       <c r="E335" t="n">
         <v>5</v>
@@ -27155,25 +27155,25 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N335" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O335" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P335" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T335" t="n">
         <v>10</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E336" t="n">
         <v>5</v>
@@ -27235,7 +27235,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -27247,13 +27247,13 @@
         <v>67</v>
       </c>
       <c r="N336" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O336" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P336" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T336" t="n">
         <v>10</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E337" t="n">
         <v>5</v>
@@ -27315,7 +27315,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -27327,13 +27327,13 @@
         <v>70</v>
       </c>
       <c r="N337" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O337" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P337" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T337" t="n">
         <v>10</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E338" t="n">
         <v>5</v>
@@ -27395,7 +27395,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N338" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O338" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P338" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T338" t="n">
         <v>10</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="E339" t="n">
         <v>5</v>
@@ -27484,20 +27484,20 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N339" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="O339" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="P339" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
@@ -27506,10 +27506,10 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>933</v>
+        <v>900</v>
       </c>
       <c r="T339" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340">
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="E340" t="n">
         <v>5</v>
@@ -27564,20 +27564,20 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N340" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O340" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P340" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
@@ -27586,10 +27586,10 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>867</v>
+        <v>800</v>
       </c>
       <c r="T340" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341">
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="E341" t="n">
         <v>5</v>
@@ -27644,20 +27644,20 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N341" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O341" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P341" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R341" t="inlineStr">
@@ -27666,10 +27666,10 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T341" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="342">
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E342" t="n">
         <v>5</v>
@@ -27715,7 +27715,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -27724,20 +27724,20 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N342" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O342" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P342" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R342" t="inlineStr">
@@ -27746,10 +27746,10 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>800</v>
+        <v>933</v>
       </c>
       <c r="T342" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="343">
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E343" t="n">
         <v>5</v>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -27804,20 +27804,20 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N343" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O343" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="P343" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
@@ -27826,10 +27826,10 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>700</v>
+        <v>867</v>
       </c>
       <c r="T343" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="344">
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E344" t="n">
         <v>5</v>
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27884,20 +27884,20 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N344" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O344" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P344" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R344" t="inlineStr">
@@ -27906,10 +27906,10 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T344" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="345">
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44433</v>
+        <v>44333</v>
       </c>
       <c r="E345" t="n">
         <v>5</v>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N345" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O345" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P345" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T345" t="n">
         <v>10</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44433</v>
+        <v>44333</v>
       </c>
       <c r="E346" t="n">
         <v>5</v>
@@ -28035,7 +28035,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
@@ -28047,13 +28047,13 @@
         <v>80</v>
       </c>
       <c r="N346" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O346" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P346" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T346" t="n">
         <v>10</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44433</v>
+        <v>44333</v>
       </c>
       <c r="E347" t="n">
         <v>5</v>
@@ -28115,7 +28115,7 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
@@ -28127,13 +28127,13 @@
         <v>70</v>
       </c>
       <c r="N347" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O347" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P347" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T347" t="n">
         <v>10</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44344</v>
+        <v>44433</v>
       </c>
       <c r="E348" t="n">
         <v>5</v>
@@ -28195,7 +28195,7 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N348" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O348" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P348" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T348" t="n">
         <v>10</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44344</v>
+        <v>44433</v>
       </c>
       <c r="E349" t="n">
         <v>5</v>
@@ -28275,7 +28275,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N349" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O349" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P349" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T349" t="n">
         <v>10</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44344</v>
+        <v>44433</v>
       </c>
       <c r="E350" t="n">
         <v>5</v>
@@ -28355,7 +28355,7 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N350" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O350" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P350" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T350" t="n">
         <v>10</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44272</v>
+        <v>44344</v>
       </c>
       <c r="E351" t="n">
         <v>5</v>
@@ -28435,16 +28435,16 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N351" t="n">
         <v>8000</v>
@@ -28462,7 +28462,7 @@
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S351" t="n">
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44370</v>
+        <v>44344</v>
       </c>
       <c r="E352" t="n">
         <v>5</v>
@@ -28515,12 +28515,12 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M352" t="n">
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44370</v>
+        <v>44344</v>
       </c>
       <c r="E353" t="n">
         <v>5</v>
@@ -28595,16 +28595,16 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N353" t="n">
         <v>6000</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E354" t="n">
         <v>5</v>
@@ -28675,25 +28675,25 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="N354" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O354" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P354" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28702,11 +28702,11 @@
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S354" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T354" t="n">
         <v>10</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E355" t="n">
         <v>5</v>
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N355" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O355" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P355" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T355" t="n">
         <v>10</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E356" t="n">
         <v>5</v>
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N356" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O356" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P356" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T356" t="n">
         <v>10</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E357" t="n">
         <v>5</v>
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N357" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O357" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P357" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T357" t="n">
         <v>10</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E358" t="n">
         <v>5</v>
@@ -29004,16 +29004,16 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N358" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O358" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P358" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T358" t="n">
         <v>10</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E359" t="n">
         <v>5</v>
@@ -29080,24 +29080,24 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N359" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O359" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P359" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R359" t="inlineStr">
@@ -29106,10 +29106,10 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T359" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="360">
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E360" t="n">
         <v>5</v>
@@ -29160,20 +29160,20 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N360" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O360" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P360" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T360" t="n">
         <v>10</v>
@@ -29240,24 +29240,24 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="N361" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O361" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P361" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R361" t="inlineStr">
@@ -29266,10 +29266,10 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T361" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="362">
@@ -29320,24 +29320,24 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N362" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O362" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P362" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R362" t="inlineStr">
@@ -29346,10 +29346,10 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T362" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="363">
@@ -29400,24 +29400,24 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N363" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O363" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P363" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R363" t="inlineStr">
@@ -29426,10 +29426,10 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T363" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364">
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E364" t="n">
         <v>5</v>
@@ -29480,24 +29480,24 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N364" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O364" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P364" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R364" t="inlineStr">
@@ -29506,10 +29506,10 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T364" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="365">
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E365" t="n">
         <v>5</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N365" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O365" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P365" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T365" t="n">
         <v>10</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E366" t="n">
         <v>5</v>
@@ -29644,20 +29644,20 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N366" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O366" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P366" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R366" t="inlineStr">
@@ -29666,10 +29666,10 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T366" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="367">
@@ -29715,7 +29715,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N367" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O367" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P367" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29742,11 +29742,11 @@
       </c>
       <c r="R367" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S367" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T367" t="n">
         <v>10</v>
@@ -29795,7 +29795,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -29807,13 +29807,13 @@
         <v>70</v>
       </c>
       <c r="N368" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O368" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P368" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29822,11 +29822,11 @@
       </c>
       <c r="R368" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S368" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T368" t="n">
         <v>10</v>
@@ -29875,7 +29875,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -29884,16 +29884,16 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N369" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O369" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P369" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29902,11 +29902,11 @@
       </c>
       <c r="R369" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S369" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T369" t="n">
         <v>10</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E370" t="n">
         <v>5</v>
@@ -29960,11 +29960,11 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="N370" t="n">
         <v>8000</v>
@@ -29982,7 +29982,7 @@
       </c>
       <c r="R370" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S370" t="n">
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E371" t="n">
         <v>5</v>
@@ -30040,11 +30040,11 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N371" t="n">
         <v>7000</v>
@@ -30062,7 +30062,7 @@
       </c>
       <c r="R371" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S371" t="n">
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E372" t="n">
         <v>5</v>
@@ -30115,25 +30115,25 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N372" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O372" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P372" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30142,11 +30142,11 @@
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S372" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T372" t="n">
         <v>10</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E373" t="n">
         <v>5</v>
@@ -30195,7 +30195,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N373" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O373" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P373" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30222,11 +30222,11 @@
       </c>
       <c r="R373" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S373" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T373" t="n">
         <v>10</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E374" t="n">
         <v>5</v>
@@ -30275,7 +30275,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N374" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O374" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P374" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30302,11 +30302,11 @@
       </c>
       <c r="R374" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S374" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T374" t="n">
         <v>10</v>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -30364,20 +30364,20 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N375" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O375" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P375" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R375" t="inlineStr">
@@ -30389,7 +30389,7 @@
         <v>800</v>
       </c>
       <c r="T375" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="376">
@@ -30435,7 +30435,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -30444,20 +30444,20 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N376" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O376" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P376" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
@@ -30466,10 +30466,10 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="T376" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377">
@@ -30515,7 +30515,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -30524,20 +30524,20 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N377" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O377" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P377" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R377" t="inlineStr">
@@ -30546,10 +30546,10 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T377" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378">
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E378" t="n">
         <v>5</v>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30604,20 +30604,20 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="N378" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O378" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P378" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
@@ -30629,7 +30629,7 @@
         <v>800</v>
       </c>
       <c r="T378" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="379">
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E379" t="n">
         <v>5</v>
@@ -30675,7 +30675,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -30684,20 +30684,20 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N379" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O379" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P379" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
@@ -30706,10 +30706,10 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="T379" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="380">
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E380" t="n">
         <v>5</v>
@@ -30755,7 +30755,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
@@ -30764,20 +30764,20 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N380" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O380" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P380" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
@@ -30786,10 +30786,10 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T380" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="381">
@@ -30835,7 +30835,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -30844,7 +30844,7 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="N381" t="n">
         <v>8000</v>
@@ -30915,7 +30915,7 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
@@ -30924,7 +30924,7 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N382" t="n">
         <v>7000</v>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
@@ -31004,7 +31004,7 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N383" t="n">
         <v>6000</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E384" t="n">
         <v>5</v>
@@ -31084,16 +31084,16 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N384" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O384" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P384" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T384" t="n">
         <v>10</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E385" t="n">
         <v>5</v>
@@ -31160,24 +31160,24 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="N385" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O385" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P385" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
@@ -31186,10 +31186,10 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T385" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="386">
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E386" t="n">
         <v>5</v>
@@ -31240,11 +31240,11 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N386" t="n">
         <v>6000</v>
@@ -31320,24 +31320,24 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M387" t="n">
         <v>75</v>
       </c>
       <c r="N387" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O387" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P387" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
@@ -31346,10 +31346,10 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T387" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="388">
@@ -31400,24 +31400,24 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N388" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O388" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P388" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
@@ -31426,10 +31426,10 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T388" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="389">
@@ -31480,24 +31480,24 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N389" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O389" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P389" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
@@ -31506,10 +31506,10 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T389" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="390">
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E390" t="n">
         <v>5</v>
@@ -31560,24 +31560,24 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M390" t="n">
         <v>75</v>
       </c>
       <c r="N390" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O390" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P390" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
@@ -31586,10 +31586,10 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T390" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="391">
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E391" t="n">
         <v>5</v>
@@ -31640,20 +31640,20 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N391" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O391" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P391" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T391" t="n">
         <v>10</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E392" t="n">
         <v>5</v>
@@ -31724,20 +31724,20 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N392" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O392" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P392" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R392" t="inlineStr">
@@ -31746,10 +31746,10 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>600</v>
+        <v>467</v>
       </c>
       <c r="T392" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="393">
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E393" t="n">
         <v>5</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="N393" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O393" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P393" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T393" t="n">
         <v>10</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E394" t="n">
         <v>5</v>
@@ -31875,7 +31875,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -31884,16 +31884,16 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N394" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O394" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P394" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T394" t="n">
         <v>10</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E395" t="n">
         <v>5</v>
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="N395" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O395" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P395" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T395" t="n">
         <v>10</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E396" t="n">
         <v>5</v>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -32044,16 +32044,16 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="N396" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O396" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P396" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T396" t="n">
         <v>10</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E397" t="n">
         <v>5</v>
@@ -32115,7 +32115,7 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
@@ -32124,16 +32124,16 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N397" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O397" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P397" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T397" t="n">
         <v>10</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E398" t="n">
         <v>5</v>
@@ -32195,7 +32195,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -32204,16 +32204,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N398" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O398" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P398" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T398" t="n">
         <v>10</v>
@@ -32275,7 +32275,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -32284,16 +32284,16 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N399" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O399" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P399" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T399" t="n">
         <v>10</v>
@@ -32355,7 +32355,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N400" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O400" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P400" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T400" t="n">
         <v>10</v>
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32444,16 +32444,16 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N401" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O401" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P401" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T401" t="n">
         <v>10</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E402" t="n">
         <v>5</v>
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N402" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O402" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P402" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T402" t="n">
         <v>10</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E403" t="n">
         <v>5</v>
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N403" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O403" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P403" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T403" t="n">
         <v>10</v>
@@ -32647,68 +32647,308 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E404" t="n">
+        <v>5</v>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G404" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I404" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M404" t="n">
+        <v>60</v>
+      </c>
+      <c r="N404" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O404" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P404" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q404" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R404" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S404" t="n">
+        <v>600</v>
+      </c>
+      <c r="T404" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>3</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D405" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E404" t="n">
-        <v>5</v>
-      </c>
-      <c r="F404" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G404" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I404" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J404" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K404" t="inlineStr">
+      <c r="E405" t="n">
+        <v>5</v>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G405" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I405" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
         <is>
           <t>Murcott</t>
         </is>
       </c>
-      <c r="L404" t="inlineStr">
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M405" t="n">
+        <v>85</v>
+      </c>
+      <c r="N405" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O405" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P405" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q405" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R405" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S405" t="n">
+        <v>700</v>
+      </c>
+      <c r="T405" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>3</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D406" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E406" t="n">
+        <v>5</v>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G406" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I406" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M406" t="n">
+        <v>87</v>
+      </c>
+      <c r="N406" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O406" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P406" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q406" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R406" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S406" t="n">
+        <v>600</v>
+      </c>
+      <c r="T406" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>3</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D407" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E407" t="n">
+        <v>5</v>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G407" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I407" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M404" t="n">
+      <c r="M407" t="n">
         <v>80</v>
       </c>
-      <c r="N404" t="n">
+      <c r="N407" t="n">
         <v>5000</v>
       </c>
-      <c r="O404" t="n">
+      <c r="O407" t="n">
         <v>5000</v>
       </c>
-      <c r="P404" t="n">
+      <c r="P407" t="n">
         <v>5000</v>
       </c>
-      <c r="Q404" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R404" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="S404" t="n">
+      <c r="Q407" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R407" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S407" t="n">
         <v>500</v>
       </c>
-      <c r="T404" t="n">
+      <c r="T407" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T419"/>
+  <dimension ref="A1:T422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44259</v>
+        <v>44447</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -18680,20 +18680,20 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N229" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O229" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P229" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18702,11 +18702,11 @@
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S229" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="T229" t="n">
         <v>10</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44259</v>
+        <v>44447</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -18760,20 +18760,20 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N230" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O230" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P230" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18782,11 +18782,11 @@
       </c>
       <c r="R230" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S230" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T230" t="n">
         <v>10</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44392</v>
+        <v>44447</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -18835,25 +18835,25 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N231" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O231" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P231" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T231" t="n">
         <v>10</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44392</v>
+        <v>44259</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -18915,41 +18915,41 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N232" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O232" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="P232" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R232" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S232" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="T232" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233">
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44392</v>
+        <v>44259</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -18995,16 +18995,16 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N233" t="n">
         <v>6000</v>
@@ -19022,7 +19022,7 @@
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S233" t="n">
@@ -19080,24 +19080,24 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N234" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O234" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P234" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R234" t="inlineStr">
@@ -19106,10 +19106,10 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T234" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235">
@@ -19160,24 +19160,24 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N235" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O235" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P235" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R235" t="inlineStr">
@@ -19186,10 +19186,10 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T235" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236">
@@ -19240,24 +19240,24 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="N236" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O236" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P236" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R236" t="inlineStr">
@@ -19266,10 +19266,10 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T236" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237">
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44362</v>
+        <v>44392</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -19320,24 +19320,24 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N237" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O237" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P237" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R237" t="inlineStr">
@@ -19346,10 +19346,10 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T237" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238">
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44362</v>
+        <v>44392</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -19400,20 +19400,20 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N238" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O238" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P238" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T238" t="n">
         <v>10</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44362</v>
+        <v>44392</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -19484,20 +19484,20 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N239" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O239" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P239" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R239" t="inlineStr">
@@ -19506,10 +19506,10 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T239" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -19555,16 +19555,16 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N240" t="n">
         <v>7000</v>
@@ -19577,7 +19577,7 @@
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -19635,16 +19635,16 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N241" t="n">
         <v>6000</v>
@@ -19657,7 +19657,7 @@
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R241" t="inlineStr">
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -19720,20 +19720,20 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M242" t="n">
         <v>75</v>
       </c>
       <c r="N242" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O242" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P242" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T242" t="n">
         <v>10</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44384</v>
+        <v>44249</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -19795,7 +19795,7 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -19804,20 +19804,20 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N243" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O243" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P243" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R243" t="inlineStr">
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T243" t="n">
         <v>10</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44384</v>
+        <v>44249</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -19875,7 +19875,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -19884,20 +19884,20 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N244" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O244" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P244" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R244" t="inlineStr">
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T244" t="n">
         <v>10</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -19955,7 +19955,7 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="N245" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O245" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P245" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T245" t="n">
         <v>10</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -20035,7 +20035,7 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N246" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O246" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P246" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T246" t="n">
         <v>10</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -20115,7 +20115,7 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="N247" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O247" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P247" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T247" t="n">
         <v>10</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -20195,16 +20195,16 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="N248" t="n">
         <v>10000</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -20275,16 +20275,16 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="N249" t="n">
         <v>9000</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44272</v>
+        <v>44168</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -20360,11 +20360,11 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N250" t="n">
         <v>8000</v>
@@ -20382,7 +20382,7 @@
       </c>
       <c r="R250" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S250" t="n">
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44365</v>
+        <v>44322</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="N251" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O251" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P251" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T251" t="n">
         <v>10</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44365</v>
+        <v>44322</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N252" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O252" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P252" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T252" t="n">
         <v>10</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44365</v>
+        <v>44272</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -20595,25 +20595,25 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="N253" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O253" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P253" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20622,11 +20622,11 @@
       </c>
       <c r="R253" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S253" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T253" t="n">
         <v>10</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -20675,29 +20675,29 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="N254" t="n">
         <v>7000</v>
       </c>
       <c r="O254" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="P254" t="n">
-        <v>7265</v>
+        <v>7000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R254" t="inlineStr">
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>726</v>
+        <v>700</v>
       </c>
       <c r="T254" t="n">
         <v>10</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -20755,16 +20755,16 @@
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N255" t="n">
         <v>6000</v>
@@ -20777,7 +20777,7 @@
       </c>
       <c r="Q255" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R255" t="inlineStr">
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -20835,25 +20835,25 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N256" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O256" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P256" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T256" t="n">
         <v>10</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -20915,29 +20915,29 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="N257" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O257" t="n">
-        <v>6000</v>
+        <v>7500</v>
       </c>
       <c r="P257" t="n">
-        <v>6000</v>
+        <v>7265</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R257" t="inlineStr">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>600</v>
+        <v>726</v>
       </c>
       <c r="T257" t="n">
         <v>10</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -20995,29 +20995,29 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N258" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O258" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P258" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R258" t="inlineStr">
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T258" t="n">
         <v>10</v>
@@ -21075,7 +21075,7 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
@@ -21084,7 +21084,7 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N259" t="n">
         <v>7000</v>
@@ -21155,7 +21155,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -21164,7 +21164,7 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N260" t="n">
         <v>6000</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -21235,7 +21235,7 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N261" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O261" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P261" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T261" t="n">
         <v>10</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -21315,7 +21315,7 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N262" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O262" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P262" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T262" t="n">
         <v>10</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N263" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O263" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P263" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T263" t="n">
         <v>10</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -21475,7 +21475,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -21484,7 +21484,7 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N264" t="n">
         <v>7000</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -21555,29 +21555,29 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N265" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O265" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P265" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R265" t="inlineStr">
@@ -21589,7 +21589,7 @@
         <v>600</v>
       </c>
       <c r="T265" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266">
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -21635,25 +21635,25 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N266" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O266" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P266" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T266" t="n">
         <v>10</v>
@@ -21720,24 +21720,24 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N267" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O267" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P267" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
@@ -21746,10 +21746,10 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T267" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268">
@@ -21800,24 +21800,24 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N268" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O268" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P268" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
@@ -21826,10 +21826,10 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T268" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="269">
@@ -21880,24 +21880,24 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="N269" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O269" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P269" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
@@ -21906,10 +21906,10 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T269" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -21955,7 +21955,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -21964,32 +21964,32 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N270" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O270" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P270" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="T270" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271">
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44335</v>
+        <v>44397</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -22040,20 +22040,20 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N271" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O271" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P271" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T271" t="n">
         <v>10</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44335</v>
+        <v>44397</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -22120,11 +22120,11 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N272" t="n">
         <v>7000</v>
@@ -22137,7 +22137,7 @@
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
@@ -22146,10 +22146,10 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="T272" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273">
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -22195,25 +22195,25 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N273" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O273" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P273" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22222,11 +22222,11 @@
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S273" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T273" t="n">
         <v>10</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N274" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O274" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P274" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T274" t="n">
         <v>10</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N275" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O275" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P275" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T275" t="n">
         <v>10</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N276" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O276" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P276" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T276" t="n">
         <v>10</v>
@@ -22515,7 +22515,7 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -22524,7 +22524,7 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N277" t="n">
         <v>7000</v>
@@ -22595,7 +22595,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -22604,7 +22604,7 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N278" t="n">
         <v>6000</v>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -22684,7 +22684,7 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N279" t="n">
         <v>5000</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -22764,7 +22764,7 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="N280" t="n">
         <v>7000</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -22844,7 +22844,7 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="N281" t="n">
         <v>6000</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -22915,7 +22915,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -22924,7 +22924,7 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N282" t="n">
         <v>5000</v>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N283" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O283" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P283" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T283" t="n">
         <v>10</v>
@@ -23075,7 +23075,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -23087,13 +23087,13 @@
         <v>58</v>
       </c>
       <c r="N284" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O284" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P284" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T284" t="n">
         <v>10</v>
@@ -23155,7 +23155,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -23164,16 +23164,16 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N285" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O285" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P285" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T285" t="n">
         <v>10</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -23235,29 +23235,29 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N286" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O286" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P286" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R286" t="inlineStr">
@@ -23266,10 +23266,10 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T286" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287">
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -23315,29 +23315,29 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N287" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O287" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P287" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R287" t="inlineStr">
@@ -23346,10 +23346,10 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>833</v>
+        <v>700</v>
       </c>
       <c r="T287" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288">
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -23400,20 +23400,20 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N288" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O288" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P288" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T288" t="n">
         <v>10</v>
@@ -23475,7 +23475,7 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
@@ -23484,7 +23484,7 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="N289" t="n">
         <v>6000</v>
@@ -23497,7 +23497,7 @@
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
@@ -23506,10 +23506,10 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T289" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290">
@@ -23555,7 +23555,7 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -23564,7 +23564,7 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N290" t="n">
         <v>5000</v>
@@ -23577,7 +23577,7 @@
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
@@ -23586,10 +23586,10 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="T290" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="291">
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -23635,7 +23635,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -23715,7 +23715,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -23724,7 +23724,7 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N292" t="n">
         <v>6000</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -23795,7 +23795,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -23804,7 +23804,7 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N293" t="n">
         <v>5000</v>
@@ -23875,7 +23875,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N294" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O294" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P294" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23902,11 +23902,11 @@
       </c>
       <c r="R294" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S294" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T294" t="n">
         <v>10</v>
@@ -23955,7 +23955,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -23967,13 +23967,13 @@
         <v>70</v>
       </c>
       <c r="N295" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O295" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P295" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23982,11 +23982,11 @@
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S295" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T295" t="n">
         <v>10</v>
@@ -24035,7 +24035,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -24044,16 +24044,16 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N296" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O296" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P296" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24062,11 +24062,11 @@
       </c>
       <c r="R296" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S296" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T296" t="n">
         <v>10</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -24115,7 +24115,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N297" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O297" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P297" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24142,11 +24142,11 @@
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S297" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T297" t="n">
         <v>10</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -24195,7 +24195,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -24204,16 +24204,16 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N298" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O298" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P298" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24222,11 +24222,11 @@
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S298" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T298" t="n">
         <v>10</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N299" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O299" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P299" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24302,11 +24302,11 @@
       </c>
       <c r="R299" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S299" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T299" t="n">
         <v>10</v>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -24364,7 +24364,7 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N300" t="n">
         <v>7000</v>
@@ -24435,7 +24435,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -24444,7 +24444,7 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N301" t="n">
         <v>6000</v>
@@ -24515,7 +24515,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -24524,7 +24524,7 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N302" t="n">
         <v>5000</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -24595,7 +24595,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -24604,16 +24604,16 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N303" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O303" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P303" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T303" t="n">
         <v>10</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -24675,7 +24675,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N304" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O304" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P304" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T304" t="n">
         <v>10</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E305" t="n">
         <v>5</v>
@@ -24755,7 +24755,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -24764,16 +24764,16 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N305" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O305" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P305" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T305" t="n">
         <v>10</v>
@@ -24835,25 +24835,25 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="N306" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O306" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P306" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T306" t="n">
         <v>10</v>
@@ -24915,25 +24915,25 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N307" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O307" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P307" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T307" t="n">
         <v>10</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -24995,25 +24995,25 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N308" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O308" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P308" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="T308" t="n">
         <v>10</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44427</v>
+        <v>44348</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -25080,11 +25080,11 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N309" t="n">
         <v>7000</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44427</v>
+        <v>44348</v>
       </c>
       <c r="E310" t="n">
         <v>5</v>
@@ -25160,11 +25160,11 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="N310" t="n">
         <v>6000</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44427</v>
+        <v>44263</v>
       </c>
       <c r="E311" t="n">
         <v>5</v>
@@ -25235,25 +25235,25 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N311" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="O311" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="P311" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T311" t="n">
         <v>10</v>
@@ -25315,7 +25315,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -25324,7 +25324,7 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N312" t="n">
         <v>7000</v>
@@ -25395,7 +25395,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -25404,7 +25404,7 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N313" t="n">
         <v>6000</v>
@@ -25475,7 +25475,7 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -25484,7 +25484,7 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N314" t="n">
         <v>5000</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E315" t="n">
         <v>5</v>
@@ -25555,7 +25555,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N315" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O315" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P315" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T315" t="n">
         <v>10</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E316" t="n">
         <v>5</v>
@@ -25635,7 +25635,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -25647,13 +25647,13 @@
         <v>70</v>
       </c>
       <c r="N316" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O316" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P316" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T316" t="n">
         <v>10</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E317" t="n">
         <v>5</v>
@@ -25715,7 +25715,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N317" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O317" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P317" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T317" t="n">
         <v>10</v>
@@ -25795,7 +25795,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -25804,7 +25804,7 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N318" t="n">
         <v>8000</v>
@@ -25875,7 +25875,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -25884,7 +25884,7 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N319" t="n">
         <v>7000</v>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -25964,7 +25964,7 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="N320" t="n">
         <v>6000</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E321" t="n">
         <v>5</v>
@@ -26035,25 +26035,25 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N321" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O321" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P321" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T321" t="n">
         <v>10</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E322" t="n">
         <v>5</v>
@@ -26115,25 +26115,25 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="N322" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O322" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P322" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T322" t="n">
         <v>10</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E323" t="n">
         <v>5</v>
@@ -26200,20 +26200,20 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="N323" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O323" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P323" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T323" t="n">
         <v>10</v>
@@ -26275,7 +26275,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -26284,7 +26284,7 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N324" t="n">
         <v>6000</v>
@@ -26355,7 +26355,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -26364,7 +26364,7 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="N325" t="n">
         <v>5000</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44417</v>
+        <v>44414</v>
       </c>
       <c r="E326" t="n">
         <v>5</v>
@@ -26444,7 +26444,7 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N326" t="n">
         <v>7000</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44417</v>
+        <v>44414</v>
       </c>
       <c r="E327" t="n">
         <v>5</v>
@@ -26524,7 +26524,7 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N327" t="n">
         <v>6000</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44417</v>
+        <v>44414</v>
       </c>
       <c r="E328" t="n">
         <v>5</v>
@@ -26604,7 +26604,7 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N328" t="n">
         <v>5000</v>
@@ -26675,7 +26675,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N329" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O329" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P329" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T329" t="n">
         <v>10</v>
@@ -26755,7 +26755,7 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N330" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O330" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P330" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T330" t="n">
         <v>10</v>
@@ -26835,7 +26835,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -26847,13 +26847,13 @@
         <v>80</v>
       </c>
       <c r="N331" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O331" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P331" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T331" t="n">
         <v>10</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E332" t="n">
         <v>5</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="N332" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O332" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P332" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T332" t="n">
         <v>10</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E333" t="n">
         <v>5</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="N333" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O333" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P333" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T333" t="n">
         <v>10</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E334" t="n">
         <v>5</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N334" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O334" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P334" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T334" t="n">
         <v>10</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E335" t="n">
         <v>5</v>
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N335" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O335" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P335" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T335" t="n">
         <v>10</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E336" t="n">
         <v>5</v>
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="N336" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O336" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P336" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T336" t="n">
         <v>10</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E337" t="n">
         <v>5</v>
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N337" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O337" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P337" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T337" t="n">
         <v>10</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E338" t="n">
         <v>5</v>
@@ -27395,7 +27395,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N338" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O338" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P338" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T338" t="n">
         <v>10</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E339" t="n">
         <v>5</v>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N339" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O339" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P339" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T339" t="n">
         <v>10</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E340" t="n">
         <v>5</v>
@@ -27555,7 +27555,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N340" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O340" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P340" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T340" t="n">
         <v>10</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E341" t="n">
         <v>5</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N341" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O341" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P341" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T341" t="n">
         <v>10</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E342" t="n">
         <v>5</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N342" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O342" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P342" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T342" t="n">
         <v>10</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E343" t="n">
         <v>5</v>
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N343" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O343" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P343" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T343" t="n">
         <v>10</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44273</v>
+        <v>44369</v>
       </c>
       <c r="E344" t="n">
         <v>5</v>
@@ -27875,25 +27875,25 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N344" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O344" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P344" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27902,11 +27902,11 @@
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S344" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T344" t="n">
         <v>10</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44273</v>
+        <v>44369</v>
       </c>
       <c r="E345" t="n">
         <v>5</v>
@@ -27955,25 +27955,25 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N345" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O345" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P345" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27982,11 +27982,11 @@
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S345" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T345" t="n">
         <v>10</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44342</v>
+        <v>44369</v>
       </c>
       <c r="E346" t="n">
         <v>5</v>
@@ -28035,25 +28035,25 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N346" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O346" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P346" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T346" t="n">
         <v>10</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E347" t="n">
         <v>5</v>
@@ -28115,7 +28115,7 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N347" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O347" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P347" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28142,11 +28142,11 @@
       </c>
       <c r="R347" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S347" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T347" t="n">
         <v>10</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E348" t="n">
         <v>5</v>
@@ -28195,7 +28195,7 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N348" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O348" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P348" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28222,11 +28222,11 @@
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S348" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T348" t="n">
         <v>10</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E349" t="n">
         <v>5</v>
@@ -28275,7 +28275,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -28287,13 +28287,13 @@
         <v>80</v>
       </c>
       <c r="N349" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O349" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P349" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T349" t="n">
         <v>10</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E350" t="n">
         <v>5</v>
@@ -28355,7 +28355,7 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="N350" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O350" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P350" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T350" t="n">
         <v>10</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E351" t="n">
         <v>5</v>
@@ -28435,7 +28435,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -28444,16 +28444,16 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="N351" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O351" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P351" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T351" t="n">
         <v>10</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44391</v>
+        <v>44379</v>
       </c>
       <c r="E352" t="n">
         <v>5</v>
@@ -28515,7 +28515,7 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
@@ -28524,7 +28524,7 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N352" t="n">
         <v>7000</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44391</v>
+        <v>44379</v>
       </c>
       <c r="E353" t="n">
         <v>5</v>
@@ -28595,7 +28595,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -28604,7 +28604,7 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="N353" t="n">
         <v>6000</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44391</v>
+        <v>44379</v>
       </c>
       <c r="E354" t="n">
         <v>5</v>
@@ -28675,7 +28675,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -28684,7 +28684,7 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="N354" t="n">
         <v>5000</v>
@@ -28755,7 +28755,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -28764,7 +28764,7 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N355" t="n">
         <v>7000</v>
@@ -28835,7 +28835,7 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
@@ -28844,7 +28844,7 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N356" t="n">
         <v>6000</v>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
@@ -28924,7 +28924,7 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N357" t="n">
         <v>5000</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E358" t="n">
         <v>5</v>
@@ -28995,7 +28995,7 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -29004,16 +29004,16 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N358" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O358" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P358" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T358" t="n">
         <v>10</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E359" t="n">
         <v>5</v>
@@ -29075,7 +29075,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N359" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O359" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P359" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T359" t="n">
         <v>10</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E360" t="n">
         <v>5</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N360" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O360" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P360" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T360" t="n">
         <v>10</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E361" t="n">
         <v>5</v>
@@ -29235,7 +29235,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -29244,16 +29244,16 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N361" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O361" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P361" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T361" t="n">
         <v>10</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E362" t="n">
         <v>5</v>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29327,13 +29327,13 @@
         <v>87</v>
       </c>
       <c r="N362" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O362" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P362" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T362" t="n">
         <v>10</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E363" t="n">
         <v>5</v>
@@ -29395,7 +29395,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N363" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O363" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P363" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T363" t="n">
         <v>10</v>
@@ -29475,7 +29475,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -29484,16 +29484,16 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N364" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O364" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P364" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29502,11 +29502,11 @@
       </c>
       <c r="R364" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S364" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T364" t="n">
         <v>10</v>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="N365" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O365" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P365" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29582,11 +29582,11 @@
       </c>
       <c r="R365" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S365" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T365" t="n">
         <v>10</v>
@@ -29635,7 +29635,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N366" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O366" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P366" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29662,11 +29662,11 @@
       </c>
       <c r="R366" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S366" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T366" t="n">
         <v>10</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E367" t="n">
         <v>5</v>
@@ -29715,7 +29715,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -29724,7 +29724,7 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="N367" t="n">
         <v>8000</v>
@@ -29742,7 +29742,7 @@
       </c>
       <c r="R367" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S367" t="n">
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E368" t="n">
         <v>5</v>
@@ -29795,7 +29795,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -29804,7 +29804,7 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="N368" t="n">
         <v>7000</v>
@@ -29822,7 +29822,7 @@
       </c>
       <c r="R368" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S368" t="n">
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E369" t="n">
         <v>5</v>
@@ -29875,7 +29875,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -29884,7 +29884,7 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N369" t="n">
         <v>6000</v>
@@ -29902,7 +29902,7 @@
       </c>
       <c r="R369" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S369" t="n">
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E370" t="n">
         <v>5</v>
@@ -29955,7 +29955,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -29964,16 +29964,16 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N370" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O370" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P370" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T370" t="n">
         <v>10</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E371" t="n">
         <v>5</v>
@@ -30035,7 +30035,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -30044,16 +30044,16 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N371" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O371" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P371" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T371" t="n">
         <v>10</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E372" t="n">
         <v>5</v>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="N372" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O372" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P372" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T372" t="n">
         <v>10</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E373" t="n">
         <v>5</v>
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N373" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O373" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P373" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T373" t="n">
         <v>10</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E374" t="n">
         <v>5</v>
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N374" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O374" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P374" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T374" t="n">
         <v>10</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="N375" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O375" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P375" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T375" t="n">
         <v>10</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E376" t="n">
         <v>5</v>
@@ -30440,11 +30440,11 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N376" t="n">
         <v>7000</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E377" t="n">
         <v>5</v>
@@ -30520,11 +30520,11 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="N377" t="n">
         <v>6000</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E378" t="n">
         <v>5</v>
@@ -30600,20 +30600,20 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N378" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O378" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P378" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T378" t="n">
         <v>10</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E379" t="n">
         <v>5</v>
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N379" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O379" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P379" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T379" t="n">
         <v>10</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E380" t="n">
         <v>5</v>
@@ -30764,16 +30764,16 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N380" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O380" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P380" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T380" t="n">
         <v>10</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E381" t="n">
         <v>5</v>
@@ -30844,7 +30844,7 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N381" t="n">
         <v>7000</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E382" t="n">
         <v>5</v>
@@ -30924,7 +30924,7 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N382" t="n">
         <v>6000</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E383" t="n">
         <v>5</v>
@@ -31004,7 +31004,7 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N383" t="n">
         <v>5000</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E384" t="n">
         <v>5</v>
@@ -31075,7 +31075,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -31084,7 +31084,7 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N384" t="n">
         <v>7000</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E385" t="n">
         <v>5</v>
@@ -31155,7 +31155,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
@@ -31164,7 +31164,7 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N385" t="n">
         <v>6000</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E386" t="n">
         <v>5</v>
@@ -31235,29 +31235,29 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="N386" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O386" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P386" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
@@ -31266,10 +31266,10 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T386" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="387">
@@ -31320,20 +31320,20 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N387" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O387" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P387" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T387" t="n">
         <v>10</v>
@@ -31400,24 +31400,24 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N388" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O388" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P388" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
@@ -31426,10 +31426,10 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>833</v>
+        <v>600</v>
       </c>
       <c r="T388" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389">
@@ -31475,29 +31475,29 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>377</v>
+        <v>57</v>
       </c>
       <c r="N389" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O389" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P389" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
@@ -31506,10 +31506,10 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T389" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="390">
@@ -31555,25 +31555,25 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>409</v>
+        <v>60</v>
       </c>
       <c r="N390" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O390" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P390" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T390" t="n">
         <v>10</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,7 +31644,7 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="N391" t="n">
         <v>5000</v>
@@ -31657,7 +31657,7 @@
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
@@ -31666,10 +31666,10 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="T391" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="392">
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E392" t="n">
         <v>5</v>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31724,20 +31724,20 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>60</v>
+        <v>377</v>
       </c>
       <c r="N392" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O392" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P392" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R392" t="inlineStr">
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T392" t="n">
         <v>10</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E393" t="n">
         <v>5</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31804,20 +31804,20 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>67</v>
+        <v>409</v>
       </c>
       <c r="N393" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O393" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P393" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T393" t="n">
         <v>10</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E394" t="n">
         <v>5</v>
@@ -31875,7 +31875,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -31884,20 +31884,20 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="N394" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O394" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P394" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T394" t="n">
         <v>10</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E395" t="n">
         <v>5</v>
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -31964,20 +31964,20 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N395" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O395" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P395" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R395" t="inlineStr">
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T395" t="n">
         <v>10</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E396" t="n">
         <v>5</v>
@@ -32035,29 +32035,29 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="N396" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O396" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P396" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
@@ -32066,10 +32066,10 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T396" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="397">
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E397" t="n">
         <v>5</v>
@@ -32115,29 +32115,29 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N397" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O397" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P397" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T397" t="n">
         <v>10</v>
@@ -32200,24 +32200,24 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M398" t="n">
         <v>75</v>
       </c>
       <c r="N398" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O398" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P398" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
@@ -32226,10 +32226,10 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T398" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="399">
@@ -32280,24 +32280,24 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N399" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O399" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P399" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
@@ -32306,10 +32306,10 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T399" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="400">
@@ -32360,24 +32360,24 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N400" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O400" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P400" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
@@ -32386,10 +32386,10 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T400" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="401">
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E401" t="n">
         <v>5</v>
@@ -32440,24 +32440,24 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M401" t="n">
         <v>75</v>
       </c>
       <c r="N401" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O401" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P401" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
@@ -32466,10 +32466,10 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T401" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="402">
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E402" t="n">
         <v>5</v>
@@ -32520,20 +32520,20 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N402" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O402" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P402" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T402" t="n">
         <v>10</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E403" t="n">
         <v>5</v>
@@ -32604,20 +32604,20 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N403" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O403" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P403" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
@@ -32626,10 +32626,10 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T403" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="404">
@@ -32675,7 +32675,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N404" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O404" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P404" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32702,11 +32702,11 @@
       </c>
       <c r="R404" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S404" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T404" t="n">
         <v>10</v>
@@ -32755,7 +32755,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -32764,16 +32764,16 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N405" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O405" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P405" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32782,11 +32782,11 @@
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S405" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T405" t="n">
         <v>10</v>
@@ -32835,7 +32835,7 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N406" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O406" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P406" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32862,11 +32862,11 @@
       </c>
       <c r="R406" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S406" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T406" t="n">
         <v>10</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44238</v>
+        <v>44412</v>
       </c>
       <c r="E407" t="n">
         <v>5</v>
@@ -32915,25 +32915,25 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="N407" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O407" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P407" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32942,11 +32942,11 @@
       </c>
       <c r="R407" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S407" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T407" t="n">
         <v>10</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44399</v>
+        <v>44412</v>
       </c>
       <c r="E408" t="n">
         <v>5</v>
@@ -32995,16 +32995,16 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N408" t="n">
         <v>7000</v>
@@ -33022,7 +33022,7 @@
       </c>
       <c r="R408" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S408" t="n">
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44399</v>
+        <v>44412</v>
       </c>
       <c r="E409" t="n">
         <v>5</v>
@@ -33075,16 +33075,16 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N409" t="n">
         <v>6000</v>
@@ -33102,7 +33102,7 @@
       </c>
       <c r="R409" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S409" t="n">
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E410" t="n">
         <v>5</v>
@@ -33160,20 +33160,20 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N410" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O410" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P410" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T410" t="n">
         <v>10</v>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33244,16 +33244,16 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N411" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O411" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P411" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33262,11 +33262,11 @@
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S411" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T411" t="n">
         <v>10</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N412" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O412" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P412" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33342,11 +33342,11 @@
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S412" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T412" t="n">
         <v>10</v>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N413" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O413" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P413" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33422,11 +33422,11 @@
       </c>
       <c r="R413" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S413" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T413" t="n">
         <v>10</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E414" t="n">
         <v>5</v>
@@ -33475,7 +33475,7 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -33484,16 +33484,16 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N414" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O414" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P414" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33502,11 +33502,11 @@
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S414" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T414" t="n">
         <v>10</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E415" t="n">
         <v>5</v>
@@ -33555,7 +33555,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -33564,16 +33564,16 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N415" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O415" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P415" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33582,11 +33582,11 @@
       </c>
       <c r="R415" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S415" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T415" t="n">
         <v>10</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E416" t="n">
         <v>5</v>
@@ -33635,7 +33635,7 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N416" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O416" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P416" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33662,11 +33662,11 @@
       </c>
       <c r="R416" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S416" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T416" t="n">
         <v>10</v>
@@ -33715,7 +33715,7 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N417" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O417" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P417" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33742,11 +33742,11 @@
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S417" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T417" t="n">
         <v>10</v>
@@ -33795,7 +33795,7 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N418" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O418" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P418" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33822,11 +33822,11 @@
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S418" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T418" t="n">
         <v>10</v>
@@ -33875,40 +33875,280 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M419" t="n">
+        <v>80</v>
+      </c>
+      <c r="N419" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O419" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P419" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q419" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R419" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S419" t="n">
+        <v>500</v>
+      </c>
+      <c r="T419" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>3</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D420" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E420" t="n">
+        <v>5</v>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G420" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I420" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
           <t>Murcott</t>
         </is>
       </c>
-      <c r="L419" t="inlineStr">
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M420" t="n">
+        <v>56</v>
+      </c>
+      <c r="N420" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O420" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P420" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q420" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R420" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S420" t="n">
+        <v>800</v>
+      </c>
+      <c r="T420" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>3</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D421" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E421" t="n">
+        <v>5</v>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G421" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I421" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M421" t="n">
+        <v>67</v>
+      </c>
+      <c r="N421" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O421" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P421" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q421" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R421" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S421" t="n">
+        <v>700</v>
+      </c>
+      <c r="T421" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>3</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D422" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E422" t="n">
+        <v>5</v>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G422" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I422" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L422" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M419" t="n">
+      <c r="M422" t="n">
         <v>60</v>
       </c>
-      <c r="N419" t="n">
+      <c r="N422" t="n">
         <v>6000</v>
       </c>
-      <c r="O419" t="n">
+      <c r="O422" t="n">
         <v>6000</v>
       </c>
-      <c r="P419" t="n">
+      <c r="P422" t="n">
         <v>6000</v>
       </c>
-      <c r="Q419" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R419" t="inlineStr">
+      <c r="Q422" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R422" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S419" t="n">
+      <c r="S422" t="n">
         <v>600</v>
       </c>
-      <c r="T419" t="n">
+      <c r="T422" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T422"/>
+  <dimension ref="A1:T428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E410" t="n">
         <v>5</v>
@@ -33155,25 +33155,25 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M410" t="n">
         <v>90</v>
       </c>
       <c r="N410" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O410" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P410" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T410" t="n">
         <v>10</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E411" t="n">
         <v>5</v>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33244,20 +33244,20 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N411" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O411" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P411" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
@@ -33266,10 +33266,10 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T411" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="412">
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E412" t="n">
         <v>5</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N412" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O412" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P412" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T412" t="n">
         <v>10</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E413" t="n">
         <v>5</v>
@@ -33395,29 +33395,29 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M413" t="n">
         <v>80</v>
       </c>
       <c r="N413" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O413" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P413" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
@@ -33426,10 +33426,10 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T413" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="414">
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E414" t="n">
         <v>5</v>
@@ -33480,20 +33480,20 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N414" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O414" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P414" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33502,11 +33502,11 @@
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S414" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T414" t="n">
         <v>10</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E415" t="n">
         <v>5</v>
@@ -33560,36 +33560,36 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N415" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O415" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P415" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S415" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T415" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="416">
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E416" t="n">
         <v>5</v>
@@ -33635,25 +33635,25 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N416" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O416" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P416" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33662,11 +33662,11 @@
       </c>
       <c r="R416" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S416" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T416" t="n">
         <v>10</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E417" t="n">
         <v>5</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E418" t="n">
         <v>5</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E419" t="n">
         <v>5</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E420" t="n">
         <v>5</v>
@@ -33964,7 +33964,7 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N420" t="n">
         <v>8000</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E421" t="n">
         <v>5</v>
@@ -34044,7 +34044,7 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N421" t="n">
         <v>7000</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E422" t="n">
         <v>5</v>
@@ -34124,7 +34124,7 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N422" t="n">
         <v>6000</v>
@@ -34149,6 +34149,486 @@
         <v>600</v>
       </c>
       <c r="T422" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>3</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D423" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E423" t="n">
+        <v>5</v>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G423" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I423" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M423" t="n">
+        <v>85</v>
+      </c>
+      <c r="N423" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O423" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P423" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q423" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R423" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S423" t="n">
+        <v>700</v>
+      </c>
+      <c r="T423" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>3</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D424" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E424" t="n">
+        <v>5</v>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G424" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I424" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M424" t="n">
+        <v>87</v>
+      </c>
+      <c r="N424" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O424" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P424" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q424" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R424" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S424" t="n">
+        <v>600</v>
+      </c>
+      <c r="T424" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>3</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D425" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E425" t="n">
+        <v>5</v>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G425" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I425" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M425" t="n">
+        <v>80</v>
+      </c>
+      <c r="N425" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O425" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P425" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R425" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S425" t="n">
+        <v>500</v>
+      </c>
+      <c r="T425" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>3</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D426" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E426" t="n">
+        <v>5</v>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G426" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I426" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M426" t="n">
+        <v>56</v>
+      </c>
+      <c r="N426" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O426" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P426" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q426" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R426" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S426" t="n">
+        <v>800</v>
+      </c>
+      <c r="T426" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>3</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D427" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E427" t="n">
+        <v>5</v>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G427" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I427" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M427" t="n">
+        <v>67</v>
+      </c>
+      <c r="N427" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O427" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P427" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q427" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R427" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S427" t="n">
+        <v>700</v>
+      </c>
+      <c r="T427" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>3</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D428" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E428" t="n">
+        <v>5</v>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G428" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I428" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M428" t="n">
+        <v>60</v>
+      </c>
+      <c r="N428" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O428" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P428" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q428" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R428" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S428" t="n">
+        <v>600</v>
+      </c>
+      <c r="T428" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T428"/>
+  <dimension ref="A1:T431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E373" t="n">
         <v>5</v>
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N373" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O373" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P373" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T373" t="n">
         <v>10</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E374" t="n">
         <v>5</v>
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N374" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O374" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P374" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T374" t="n">
         <v>10</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="N375" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O375" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P375" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T375" t="n">
         <v>10</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E376" t="n">
         <v>5</v>
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N376" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O376" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P376" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T376" t="n">
         <v>10</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E377" t="n">
         <v>5</v>
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N377" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O377" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P377" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T377" t="n">
         <v>10</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E378" t="n">
         <v>5</v>
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="N378" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O378" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P378" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T378" t="n">
         <v>10</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E379" t="n">
         <v>5</v>
@@ -30680,11 +30680,11 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N379" t="n">
         <v>7000</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E380" t="n">
         <v>5</v>
@@ -30760,11 +30760,11 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="N380" t="n">
         <v>6000</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E381" t="n">
         <v>5</v>
@@ -30840,20 +30840,20 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N381" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O381" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P381" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T381" t="n">
         <v>10</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E382" t="n">
         <v>5</v>
@@ -30924,16 +30924,16 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N382" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O382" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P382" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T382" t="n">
         <v>10</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E383" t="n">
         <v>5</v>
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N383" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O383" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P383" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T383" t="n">
         <v>10</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E384" t="n">
         <v>5</v>
@@ -31084,7 +31084,7 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N384" t="n">
         <v>7000</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E385" t="n">
         <v>5</v>
@@ -31164,7 +31164,7 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N385" t="n">
         <v>6000</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E386" t="n">
         <v>5</v>
@@ -31244,7 +31244,7 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N386" t="n">
         <v>5000</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E387" t="n">
         <v>5</v>
@@ -31315,7 +31315,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
@@ -31324,7 +31324,7 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N387" t="n">
         <v>7000</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E388" t="n">
         <v>5</v>
@@ -31395,7 +31395,7 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
@@ -31404,7 +31404,7 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N388" t="n">
         <v>6000</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E389" t="n">
         <v>5</v>
@@ -31475,29 +31475,29 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="N389" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O389" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P389" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
@@ -31506,10 +31506,10 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T389" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="390">
@@ -31560,20 +31560,20 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N390" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O390" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P390" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T390" t="n">
         <v>10</v>
@@ -31640,24 +31640,24 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N391" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O391" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P391" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
@@ -31666,10 +31666,10 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>833</v>
+        <v>600</v>
       </c>
       <c r="T391" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="392">
@@ -31715,29 +31715,29 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>377</v>
+        <v>57</v>
       </c>
       <c r="N392" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O392" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P392" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R392" t="inlineStr">
@@ -31746,10 +31746,10 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T392" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="393">
@@ -31795,25 +31795,25 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>409</v>
+        <v>60</v>
       </c>
       <c r="N393" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O393" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P393" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T393" t="n">
         <v>10</v>
@@ -31875,7 +31875,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -31884,7 +31884,7 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="N394" t="n">
         <v>5000</v>
@@ -31897,7 +31897,7 @@
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
@@ -31906,10 +31906,10 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="T394" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="395">
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E395" t="n">
         <v>5</v>
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -31964,20 +31964,20 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>60</v>
+        <v>377</v>
       </c>
       <c r="N395" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O395" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P395" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R395" t="inlineStr">
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T395" t="n">
         <v>10</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E396" t="n">
         <v>5</v>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -32044,20 +32044,20 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>67</v>
+        <v>409</v>
       </c>
       <c r="N396" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O396" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P396" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T396" t="n">
         <v>10</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E397" t="n">
         <v>5</v>
@@ -32115,7 +32115,7 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
@@ -32124,20 +32124,20 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="N397" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O397" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P397" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T397" t="n">
         <v>10</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E398" t="n">
         <v>5</v>
@@ -32195,7 +32195,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -32204,20 +32204,20 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N398" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O398" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P398" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T398" t="n">
         <v>10</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E399" t="n">
         <v>5</v>
@@ -32275,29 +32275,29 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="N399" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O399" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P399" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
@@ -32306,10 +32306,10 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T399" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="400">
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E400" t="n">
         <v>5</v>
@@ -32355,29 +32355,29 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N400" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O400" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P400" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T400" t="n">
         <v>10</v>
@@ -32440,24 +32440,24 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M401" t="n">
         <v>75</v>
       </c>
       <c r="N401" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O401" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P401" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
@@ -32466,10 +32466,10 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T401" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402">
@@ -32520,24 +32520,24 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N402" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O402" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P402" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
@@ -32546,10 +32546,10 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T402" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="403">
@@ -32600,24 +32600,24 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N403" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O403" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P403" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
@@ -32626,10 +32626,10 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T403" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="404">
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E404" t="n">
         <v>5</v>
@@ -32680,24 +32680,24 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M404" t="n">
         <v>75</v>
       </c>
       <c r="N404" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O404" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P404" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
@@ -32706,10 +32706,10 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T404" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="405">
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E405" t="n">
         <v>5</v>
@@ -32760,20 +32760,20 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N405" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O405" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P405" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T405" t="n">
         <v>10</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E406" t="n">
         <v>5</v>
@@ -32844,20 +32844,20 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N406" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O406" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P406" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
@@ -32866,10 +32866,10 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T406" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="407">
@@ -32915,7 +32915,7 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N407" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O407" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P407" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32942,11 +32942,11 @@
       </c>
       <c r="R407" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S407" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T407" t="n">
         <v>10</v>
@@ -32995,7 +32995,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N408" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O408" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P408" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33022,11 +33022,11 @@
       </c>
       <c r="R408" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S408" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T408" t="n">
         <v>10</v>
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N409" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O409" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P409" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33102,11 +33102,11 @@
       </c>
       <c r="R409" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S409" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T409" t="n">
         <v>10</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E410" t="n">
         <v>5</v>
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="N410" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O410" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P410" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33182,11 +33182,11 @@
       </c>
       <c r="R410" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S410" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T410" t="n">
         <v>10</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E411" t="n">
         <v>5</v>
@@ -33240,36 +33240,36 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N411" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O411" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P411" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S411" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T411" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="412">
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E412" t="n">
         <v>5</v>
@@ -33320,20 +33320,20 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="N412" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O412" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P412" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33342,11 +33342,11 @@
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S412" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T412" t="n">
         <v>10</v>
@@ -33400,24 +33400,24 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N413" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O413" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P413" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
@@ -33426,10 +33426,10 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T413" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="414">
@@ -33480,24 +33480,24 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N414" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O414" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P414" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
@@ -33506,10 +33506,10 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="T414" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="415">
@@ -33560,24 +33560,24 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="N415" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O415" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P415" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
@@ -33586,10 +33586,10 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T415" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="416">
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E416" t="n">
         <v>5</v>
@@ -33635,7 +33635,7 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
@@ -33644,7 +33644,7 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N416" t="n">
         <v>7000</v>
@@ -33657,7 +33657,7 @@
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
@@ -33666,10 +33666,10 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="T416" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="417">
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E417" t="n">
         <v>5</v>
@@ -33715,25 +33715,25 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N417" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O417" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P417" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T417" t="n">
         <v>10</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E418" t="n">
         <v>5</v>
@@ -33795,16 +33795,16 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N418" t="n">
         <v>6000</v>
@@ -33817,7 +33817,7 @@
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
@@ -33826,10 +33826,10 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T418" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="419">
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E419" t="n">
         <v>5</v>
@@ -33880,20 +33880,20 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N419" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O419" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P419" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T419" t="n">
         <v>10</v>
@@ -33955,7 +33955,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N420" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O420" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P420" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33982,11 +33982,11 @@
       </c>
       <c r="R420" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S420" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T420" t="n">
         <v>10</v>
@@ -34035,7 +34035,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N421" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O421" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P421" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34062,11 +34062,11 @@
       </c>
       <c r="R421" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S421" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T421" t="n">
         <v>10</v>
@@ -34115,7 +34115,7 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N422" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O422" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P422" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34142,11 +34142,11 @@
       </c>
       <c r="R422" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S422" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T422" t="n">
         <v>10</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E423" t="n">
         <v>5</v>
@@ -34195,7 +34195,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N423" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O423" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P423" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34222,11 +34222,11 @@
       </c>
       <c r="R423" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S423" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T423" t="n">
         <v>10</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E424" t="n">
         <v>5</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N424" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O424" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P424" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34302,11 +34302,11 @@
       </c>
       <c r="R424" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S424" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T424" t="n">
         <v>10</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E425" t="n">
         <v>5</v>
@@ -34355,7 +34355,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -34364,16 +34364,16 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N425" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O425" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P425" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34382,11 +34382,11 @@
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S425" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T425" t="n">
         <v>10</v>
@@ -34435,7 +34435,7 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
@@ -34444,16 +34444,16 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N426" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O426" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P426" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34462,11 +34462,11 @@
       </c>
       <c r="R426" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S426" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T426" t="n">
         <v>10</v>
@@ -34515,7 +34515,7 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
@@ -34524,16 +34524,16 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N427" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O427" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P427" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34542,11 +34542,11 @@
       </c>
       <c r="R427" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S427" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T427" t="n">
         <v>10</v>
@@ -34595,40 +34595,280 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M428" t="n">
+        <v>80</v>
+      </c>
+      <c r="N428" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O428" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P428" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q428" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R428" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S428" t="n">
+        <v>500</v>
+      </c>
+      <c r="T428" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>3</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D429" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E429" t="n">
+        <v>5</v>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G429" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I429" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
           <t>Murcott</t>
         </is>
       </c>
-      <c r="L428" t="inlineStr">
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M429" t="n">
+        <v>56</v>
+      </c>
+      <c r="N429" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O429" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P429" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q429" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R429" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S429" t="n">
+        <v>800</v>
+      </c>
+      <c r="T429" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>3</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D430" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E430" t="n">
+        <v>5</v>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G430" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I430" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M430" t="n">
+        <v>67</v>
+      </c>
+      <c r="N430" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O430" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P430" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q430" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R430" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S430" t="n">
+        <v>700</v>
+      </c>
+      <c r="T430" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>3</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D431" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E431" t="n">
+        <v>5</v>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G431" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I431" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L431" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M428" t="n">
+      <c r="M431" t="n">
         <v>60</v>
       </c>
-      <c r="N428" t="n">
+      <c r="N431" t="n">
         <v>6000</v>
       </c>
-      <c r="O428" t="n">
+      <c r="O431" t="n">
         <v>6000</v>
       </c>
-      <c r="P428" t="n">
+      <c r="P431" t="n">
         <v>6000</v>
       </c>
-      <c r="Q428" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R428" t="inlineStr">
+      <c r="Q431" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R431" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S428" t="n">
+      <c r="S431" t="n">
         <v>600</v>
       </c>
-      <c r="T428" t="n">
+      <c r="T431" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T431"/>
+  <dimension ref="A1:T434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -21075,16 +21075,16 @@
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N259" t="n">
         <v>7000</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -21155,16 +21155,16 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="N260" t="n">
         <v>6000</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -21235,25 +21235,25 @@
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="N261" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O261" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P261" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T261" t="n">
         <v>10</v>
@@ -21315,7 +21315,7 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
@@ -21324,7 +21324,7 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N262" t="n">
         <v>7000</v>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -21404,7 +21404,7 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N263" t="n">
         <v>6000</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -21475,7 +21475,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N264" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O264" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P264" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T264" t="n">
         <v>10</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -21555,7 +21555,7 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N265" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O265" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P265" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T265" t="n">
         <v>10</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -21635,7 +21635,7 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N266" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O266" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P266" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T266" t="n">
         <v>10</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -21715,7 +21715,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
@@ -21724,7 +21724,7 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N267" t="n">
         <v>7000</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -21795,29 +21795,29 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N268" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O268" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P268" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R268" t="inlineStr">
@@ -21829,7 +21829,7 @@
         <v>600</v>
       </c>
       <c r="T268" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269">
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -21875,25 +21875,25 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N269" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O269" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P269" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T269" t="n">
         <v>10</v>
@@ -21960,24 +21960,24 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N270" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O270" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P270" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R270" t="inlineStr">
@@ -21986,10 +21986,10 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T270" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271">
@@ -22040,24 +22040,24 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N271" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O271" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P271" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
@@ -22066,10 +22066,10 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T271" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272">
@@ -22120,24 +22120,24 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="N272" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O272" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P272" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R272" t="inlineStr">
@@ -22146,10 +22146,10 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T272" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273">
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -22195,7 +22195,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -22204,32 +22204,32 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N273" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O273" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P273" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="T273" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274">
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44335</v>
+        <v>44397</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -22280,20 +22280,20 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N274" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O274" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P274" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T274" t="n">
         <v>10</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44335</v>
+        <v>44397</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -22360,11 +22360,11 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N275" t="n">
         <v>7000</v>
@@ -22377,7 +22377,7 @@
       </c>
       <c r="Q275" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R275" t="inlineStr">
@@ -22386,10 +22386,10 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="T275" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276">
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -22435,25 +22435,25 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N276" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O276" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P276" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22462,11 +22462,11 @@
       </c>
       <c r="R276" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S276" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T276" t="n">
         <v>10</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N277" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O277" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P277" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T277" t="n">
         <v>10</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N278" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O278" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P278" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T278" t="n">
         <v>10</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N279" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O279" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P279" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T279" t="n">
         <v>10</v>
@@ -22755,7 +22755,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -22764,7 +22764,7 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N280" t="n">
         <v>7000</v>
@@ -22835,7 +22835,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -22844,7 +22844,7 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N281" t="n">
         <v>6000</v>
@@ -22915,7 +22915,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -22924,7 +22924,7 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N282" t="n">
         <v>5000</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -22995,7 +22995,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -23004,7 +23004,7 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="N283" t="n">
         <v>7000</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -23075,7 +23075,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -23084,7 +23084,7 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="N284" t="n">
         <v>6000</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -23155,7 +23155,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -23164,7 +23164,7 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N285" t="n">
         <v>5000</v>
@@ -23235,7 +23235,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N286" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O286" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P286" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T286" t="n">
         <v>10</v>
@@ -23315,7 +23315,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -23327,13 +23327,13 @@
         <v>58</v>
       </c>
       <c r="N287" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O287" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P287" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T287" t="n">
         <v>10</v>
@@ -23395,7 +23395,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N288" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O288" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P288" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T288" t="n">
         <v>10</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -23475,29 +23475,29 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N289" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O289" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P289" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R289" t="inlineStr">
@@ -23506,10 +23506,10 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T289" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290">
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -23555,29 +23555,29 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N290" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O290" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P290" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R290" t="inlineStr">
@@ -23586,10 +23586,10 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>833</v>
+        <v>700</v>
       </c>
       <c r="T290" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291">
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -23640,20 +23640,20 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N291" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O291" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P291" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T291" t="n">
         <v>10</v>
@@ -23715,7 +23715,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -23724,7 +23724,7 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="N292" t="n">
         <v>6000</v>
@@ -23737,7 +23737,7 @@
       </c>
       <c r="Q292" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R292" t="inlineStr">
@@ -23746,10 +23746,10 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T292" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="293">
@@ -23795,7 +23795,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -23804,7 +23804,7 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N293" t="n">
         <v>5000</v>
@@ -23817,7 +23817,7 @@
       </c>
       <c r="Q293" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R293" t="inlineStr">
@@ -23826,10 +23826,10 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="T293" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="294">
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -23875,7 +23875,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -23955,7 +23955,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -23964,7 +23964,7 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N295" t="n">
         <v>6000</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -24035,7 +24035,7 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
@@ -24044,7 +24044,7 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N296" t="n">
         <v>5000</v>
@@ -24115,7 +24115,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N297" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O297" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P297" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24142,11 +24142,11 @@
       </c>
       <c r="R297" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S297" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T297" t="n">
         <v>10</v>
@@ -24195,7 +24195,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -24207,13 +24207,13 @@
         <v>70</v>
       </c>
       <c r="N298" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O298" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P298" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24222,11 +24222,11 @@
       </c>
       <c r="R298" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S298" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T298" t="n">
         <v>10</v>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N299" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O299" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P299" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24302,11 +24302,11 @@
       </c>
       <c r="R299" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S299" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T299" t="n">
         <v>10</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -24355,7 +24355,7 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N300" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O300" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P300" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24382,11 +24382,11 @@
       </c>
       <c r="R300" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S300" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T300" t="n">
         <v>10</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -24435,7 +24435,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N301" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O301" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P301" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24462,11 +24462,11 @@
       </c>
       <c r="R301" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S301" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T301" t="n">
         <v>10</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -24515,7 +24515,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N302" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O302" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P302" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24542,11 +24542,11 @@
       </c>
       <c r="R302" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S302" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T302" t="n">
         <v>10</v>
@@ -24595,7 +24595,7 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -24604,7 +24604,7 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N303" t="n">
         <v>7000</v>
@@ -24675,7 +24675,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -24684,7 +24684,7 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N304" t="n">
         <v>6000</v>
@@ -24755,7 +24755,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -24764,7 +24764,7 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N305" t="n">
         <v>5000</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -24835,7 +24835,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N306" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O306" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P306" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T306" t="n">
         <v>10</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E307" t="n">
         <v>5</v>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -24924,16 +24924,16 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N307" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O307" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P307" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T307" t="n">
         <v>10</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -24995,7 +24995,7 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N308" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O308" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P308" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T308" t="n">
         <v>10</v>
@@ -25075,25 +25075,25 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="N309" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O309" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P309" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T309" t="n">
         <v>10</v>
@@ -25155,25 +25155,25 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N310" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O310" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P310" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T310" t="n">
         <v>10</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E311" t="n">
         <v>5</v>
@@ -25235,25 +25235,25 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N311" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="O311" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="P311" t="n">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="T311" t="n">
         <v>10</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44427</v>
+        <v>44348</v>
       </c>
       <c r="E312" t="n">
         <v>5</v>
@@ -25320,11 +25320,11 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="N312" t="n">
         <v>7000</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44427</v>
+        <v>44348</v>
       </c>
       <c r="E313" t="n">
         <v>5</v>
@@ -25400,11 +25400,11 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="N313" t="n">
         <v>6000</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44427</v>
+        <v>44263</v>
       </c>
       <c r="E314" t="n">
         <v>5</v>
@@ -25475,25 +25475,25 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N314" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="O314" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="P314" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T314" t="n">
         <v>10</v>
@@ -25555,7 +25555,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -25564,7 +25564,7 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N315" t="n">
         <v>7000</v>
@@ -25635,7 +25635,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -25644,7 +25644,7 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N316" t="n">
         <v>6000</v>
@@ -25715,7 +25715,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -25724,7 +25724,7 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N317" t="n">
         <v>5000</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E318" t="n">
         <v>5</v>
@@ -25795,7 +25795,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N318" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O318" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P318" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T318" t="n">
         <v>10</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E319" t="n">
         <v>5</v>
@@ -25875,7 +25875,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -25887,13 +25887,13 @@
         <v>70</v>
       </c>
       <c r="N319" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O319" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P319" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T319" t="n">
         <v>10</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E320" t="n">
         <v>5</v>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N320" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O320" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P320" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T320" t="n">
         <v>10</v>
@@ -26035,7 +26035,7 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -26044,7 +26044,7 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N321" t="n">
         <v>8000</v>
@@ -26115,7 +26115,7 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -26124,7 +26124,7 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N322" t="n">
         <v>7000</v>
@@ -26195,7 +26195,7 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -26204,7 +26204,7 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="N323" t="n">
         <v>6000</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E324" t="n">
         <v>5</v>
@@ -26275,25 +26275,25 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N324" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O324" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P324" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T324" t="n">
         <v>10</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E325" t="n">
         <v>5</v>
@@ -26355,25 +26355,25 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="N325" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O325" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P325" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T325" t="n">
         <v>10</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E326" t="n">
         <v>5</v>
@@ -26440,20 +26440,20 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="N326" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O326" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P326" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T326" t="n">
         <v>10</v>
@@ -26515,7 +26515,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -26524,7 +26524,7 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N327" t="n">
         <v>6000</v>
@@ -26595,7 +26595,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -26604,7 +26604,7 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="N328" t="n">
         <v>5000</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44417</v>
+        <v>44414</v>
       </c>
       <c r="E329" t="n">
         <v>5</v>
@@ -26684,7 +26684,7 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N329" t="n">
         <v>7000</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44417</v>
+        <v>44414</v>
       </c>
       <c r="E330" t="n">
         <v>5</v>
@@ -26764,7 +26764,7 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N330" t="n">
         <v>6000</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44417</v>
+        <v>44414</v>
       </c>
       <c r="E331" t="n">
         <v>5</v>
@@ -26844,7 +26844,7 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N331" t="n">
         <v>5000</v>
@@ -26915,7 +26915,7 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N332" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O332" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P332" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T332" t="n">
         <v>10</v>
@@ -26995,7 +26995,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N333" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O333" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P333" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T333" t="n">
         <v>10</v>
@@ -27075,7 +27075,7 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
@@ -27087,13 +27087,13 @@
         <v>80</v>
       </c>
       <c r="N334" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O334" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P334" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T334" t="n">
         <v>10</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E335" t="n">
         <v>5</v>
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="N335" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O335" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P335" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T335" t="n">
         <v>10</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E336" t="n">
         <v>5</v>
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="N336" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O336" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P336" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T336" t="n">
         <v>10</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E337" t="n">
         <v>5</v>
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N337" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O337" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P337" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T337" t="n">
         <v>10</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E338" t="n">
         <v>5</v>
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N338" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O338" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P338" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T338" t="n">
         <v>10</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E339" t="n">
         <v>5</v>
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="N339" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O339" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P339" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T339" t="n">
         <v>10</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E340" t="n">
         <v>5</v>
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N340" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O340" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P340" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T340" t="n">
         <v>10</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E341" t="n">
         <v>5</v>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N341" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O341" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P341" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T341" t="n">
         <v>10</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E342" t="n">
         <v>5</v>
@@ -27715,7 +27715,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N342" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O342" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P342" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T342" t="n">
         <v>10</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E343" t="n">
         <v>5</v>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N343" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O343" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P343" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T343" t="n">
         <v>10</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E344" t="n">
         <v>5</v>
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N344" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O344" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P344" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T344" t="n">
         <v>10</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E345" t="n">
         <v>5</v>
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N345" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O345" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P345" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T345" t="n">
         <v>10</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E346" t="n">
         <v>5</v>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N346" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O346" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P346" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T346" t="n">
         <v>10</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44273</v>
+        <v>44369</v>
       </c>
       <c r="E347" t="n">
         <v>5</v>
@@ -28115,25 +28115,25 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N347" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O347" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P347" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28142,11 +28142,11 @@
       </c>
       <c r="R347" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S347" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T347" t="n">
         <v>10</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44273</v>
+        <v>44369</v>
       </c>
       <c r="E348" t="n">
         <v>5</v>
@@ -28195,25 +28195,25 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N348" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O348" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P348" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28222,11 +28222,11 @@
       </c>
       <c r="R348" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S348" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T348" t="n">
         <v>10</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44342</v>
+        <v>44369</v>
       </c>
       <c r="E349" t="n">
         <v>5</v>
@@ -28275,25 +28275,25 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N349" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O349" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P349" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T349" t="n">
         <v>10</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E350" t="n">
         <v>5</v>
@@ -28355,7 +28355,7 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N350" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O350" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P350" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28382,11 +28382,11 @@
       </c>
       <c r="R350" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S350" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T350" t="n">
         <v>10</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E351" t="n">
         <v>5</v>
@@ -28435,7 +28435,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -28444,16 +28444,16 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N351" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O351" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P351" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28462,11 +28462,11 @@
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S351" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T351" t="n">
         <v>10</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E352" t="n">
         <v>5</v>
@@ -28515,7 +28515,7 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
@@ -28527,13 +28527,13 @@
         <v>80</v>
       </c>
       <c r="N352" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O352" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P352" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T352" t="n">
         <v>10</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E353" t="n">
         <v>5</v>
@@ -28595,7 +28595,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -28604,16 +28604,16 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="N353" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O353" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P353" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T353" t="n">
         <v>10</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E354" t="n">
         <v>5</v>
@@ -28675,7 +28675,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -28684,16 +28684,16 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="N354" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O354" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P354" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T354" t="n">
         <v>10</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44391</v>
+        <v>44379</v>
       </c>
       <c r="E355" t="n">
         <v>5</v>
@@ -28755,7 +28755,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -28764,7 +28764,7 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N355" t="n">
         <v>7000</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44391</v>
+        <v>44379</v>
       </c>
       <c r="E356" t="n">
         <v>5</v>
@@ -28835,7 +28835,7 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
@@ -28844,7 +28844,7 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="N356" t="n">
         <v>6000</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44391</v>
+        <v>44379</v>
       </c>
       <c r="E357" t="n">
         <v>5</v>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
@@ -28924,7 +28924,7 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="N357" t="n">
         <v>5000</v>
@@ -28995,7 +28995,7 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -29004,7 +29004,7 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N358" t="n">
         <v>7000</v>
@@ -29075,7 +29075,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -29084,7 +29084,7 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N359" t="n">
         <v>6000</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29164,7 +29164,7 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N360" t="n">
         <v>5000</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E361" t="n">
         <v>5</v>
@@ -29235,7 +29235,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -29244,16 +29244,16 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N361" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O361" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P361" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T361" t="n">
         <v>10</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E362" t="n">
         <v>5</v>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29324,16 +29324,16 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N362" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O362" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P362" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T362" t="n">
         <v>10</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E363" t="n">
         <v>5</v>
@@ -29395,7 +29395,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N363" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O363" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P363" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T363" t="n">
         <v>10</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E364" t="n">
         <v>5</v>
@@ -29475,7 +29475,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -29484,16 +29484,16 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N364" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O364" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P364" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T364" t="n">
         <v>10</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E365" t="n">
         <v>5</v>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -29567,13 +29567,13 @@
         <v>87</v>
       </c>
       <c r="N365" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O365" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P365" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T365" t="n">
         <v>10</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E366" t="n">
         <v>5</v>
@@ -29635,7 +29635,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N366" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O366" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P366" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T366" t="n">
         <v>10</v>
@@ -29715,7 +29715,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N367" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O367" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P367" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29742,11 +29742,11 @@
       </c>
       <c r="R367" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S367" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T367" t="n">
         <v>10</v>
@@ -29795,7 +29795,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -29804,16 +29804,16 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="N368" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O368" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P368" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29822,11 +29822,11 @@
       </c>
       <c r="R368" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S368" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T368" t="n">
         <v>10</v>
@@ -29875,7 +29875,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -29884,16 +29884,16 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N369" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O369" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P369" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29902,11 +29902,11 @@
       </c>
       <c r="R369" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S369" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T369" t="n">
         <v>10</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E370" t="n">
         <v>5</v>
@@ -29955,7 +29955,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -29964,7 +29964,7 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="N370" t="n">
         <v>8000</v>
@@ -29982,7 +29982,7 @@
       </c>
       <c r="R370" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S370" t="n">
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E371" t="n">
         <v>5</v>
@@ -30035,7 +30035,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -30044,7 +30044,7 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="N371" t="n">
         <v>7000</v>
@@ -30062,7 +30062,7 @@
       </c>
       <c r="R371" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S371" t="n">
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E372" t="n">
         <v>5</v>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30124,7 +30124,7 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N372" t="n">
         <v>6000</v>
@@ -30142,7 +30142,7 @@
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S372" t="n">
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E373" t="n">
         <v>5</v>
@@ -30195,7 +30195,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N373" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O373" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P373" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T373" t="n">
         <v>10</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E374" t="n">
         <v>5</v>
@@ -30275,7 +30275,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -30287,13 +30287,13 @@
         <v>87</v>
       </c>
       <c r="N374" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O374" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P374" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T374" t="n">
         <v>10</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N375" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O375" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P375" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T375" t="n">
         <v>10</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E376" t="n">
         <v>5</v>
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N376" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O376" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P376" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T376" t="n">
         <v>10</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E377" t="n">
         <v>5</v>
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N377" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O377" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P377" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T377" t="n">
         <v>10</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E378" t="n">
         <v>5</v>
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="N378" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O378" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P378" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T378" t="n">
         <v>10</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E379" t="n">
         <v>5</v>
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N379" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O379" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P379" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T379" t="n">
         <v>10</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E380" t="n">
         <v>5</v>
@@ -30764,16 +30764,16 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N380" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O380" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P380" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T380" t="n">
         <v>10</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E381" t="n">
         <v>5</v>
@@ -30844,16 +30844,16 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="N381" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O381" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P381" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T381" t="n">
         <v>10</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E382" t="n">
         <v>5</v>
@@ -30920,11 +30920,11 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N382" t="n">
         <v>7000</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E383" t="n">
         <v>5</v>
@@ -31000,11 +31000,11 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="N383" t="n">
         <v>6000</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E384" t="n">
         <v>5</v>
@@ -31080,20 +31080,20 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N384" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O384" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P384" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T384" t="n">
         <v>10</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E385" t="n">
         <v>5</v>
@@ -31164,16 +31164,16 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N385" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O385" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P385" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T385" t="n">
         <v>10</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E386" t="n">
         <v>5</v>
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N386" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O386" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P386" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T386" t="n">
         <v>10</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E387" t="n">
         <v>5</v>
@@ -31324,7 +31324,7 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N387" t="n">
         <v>7000</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E388" t="n">
         <v>5</v>
@@ -31404,7 +31404,7 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N388" t="n">
         <v>6000</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E389" t="n">
         <v>5</v>
@@ -31484,7 +31484,7 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N389" t="n">
         <v>5000</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E390" t="n">
         <v>5</v>
@@ -31555,7 +31555,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -31564,7 +31564,7 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N390" t="n">
         <v>7000</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E391" t="n">
         <v>5</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,7 +31644,7 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N391" t="n">
         <v>6000</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E392" t="n">
         <v>5</v>
@@ -31715,29 +31715,29 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="N392" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O392" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P392" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R392" t="inlineStr">
@@ -31746,10 +31746,10 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T392" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="393">
@@ -31800,20 +31800,20 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N393" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O393" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P393" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T393" t="n">
         <v>10</v>
@@ -31880,24 +31880,24 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N394" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O394" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P394" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
@@ -31906,10 +31906,10 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>833</v>
+        <v>600</v>
       </c>
       <c r="T394" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="395">
@@ -31955,29 +31955,29 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>377</v>
+        <v>57</v>
       </c>
       <c r="N395" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O395" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P395" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R395" t="inlineStr">
@@ -31986,10 +31986,10 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T395" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="396">
@@ -32035,25 +32035,25 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>409</v>
+        <v>60</v>
       </c>
       <c r="N396" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O396" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P396" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T396" t="n">
         <v>10</v>
@@ -32115,7 +32115,7 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
@@ -32124,7 +32124,7 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="N397" t="n">
         <v>5000</v>
@@ -32137,7 +32137,7 @@
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
@@ -32146,10 +32146,10 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="T397" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="398">
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E398" t="n">
         <v>5</v>
@@ -32195,7 +32195,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -32204,20 +32204,20 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>60</v>
+        <v>377</v>
       </c>
       <c r="N398" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O398" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P398" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T398" t="n">
         <v>10</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E399" t="n">
         <v>5</v>
@@ -32275,7 +32275,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -32284,20 +32284,20 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>67</v>
+        <v>409</v>
       </c>
       <c r="N399" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O399" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P399" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T399" t="n">
         <v>10</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E400" t="n">
         <v>5</v>
@@ -32355,7 +32355,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -32364,20 +32364,20 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="N400" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O400" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P400" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T400" t="n">
         <v>10</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E401" t="n">
         <v>5</v>
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32444,20 +32444,20 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N401" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O401" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P401" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T401" t="n">
         <v>10</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E402" t="n">
         <v>5</v>
@@ -32515,29 +32515,29 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="N402" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O402" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P402" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
@@ -32546,10 +32546,10 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T402" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="403">
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E403" t="n">
         <v>5</v>
@@ -32595,29 +32595,29 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N403" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O403" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P403" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T403" t="n">
         <v>10</v>
@@ -32680,24 +32680,24 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M404" t="n">
         <v>75</v>
       </c>
       <c r="N404" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O404" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P404" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
@@ -32706,10 +32706,10 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T404" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="405">
@@ -32760,24 +32760,24 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N405" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O405" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P405" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R405" t="inlineStr">
@@ -32786,10 +32786,10 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T405" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="406">
@@ -32840,24 +32840,24 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N406" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O406" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P406" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
@@ -32866,10 +32866,10 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T406" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="407">
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E407" t="n">
         <v>5</v>
@@ -32920,24 +32920,24 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M407" t="n">
         <v>75</v>
       </c>
       <c r="N407" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O407" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P407" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R407" t="inlineStr">
@@ -32946,10 +32946,10 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T407" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="408">
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E408" t="n">
         <v>5</v>
@@ -33000,20 +33000,20 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N408" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O408" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P408" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T408" t="n">
         <v>10</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E409" t="n">
         <v>5</v>
@@ -33084,20 +33084,20 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N409" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O409" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P409" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
@@ -33106,10 +33106,10 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T409" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="410">
@@ -33155,7 +33155,7 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N410" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O410" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P410" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33182,11 +33182,11 @@
       </c>
       <c r="R410" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S410" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T410" t="n">
         <v>10</v>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33244,16 +33244,16 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N411" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O411" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P411" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33262,11 +33262,11 @@
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S411" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T411" t="n">
         <v>10</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N412" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O412" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P412" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33342,11 +33342,11 @@
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S412" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T412" t="n">
         <v>10</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E413" t="n">
         <v>5</v>
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="N413" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O413" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P413" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33422,11 +33422,11 @@
       </c>
       <c r="R413" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S413" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T413" t="n">
         <v>10</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E414" t="n">
         <v>5</v>
@@ -33480,36 +33480,36 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N414" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O414" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P414" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S414" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T414" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="415">
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E415" t="n">
         <v>5</v>
@@ -33560,20 +33560,20 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="N415" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O415" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P415" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33582,11 +33582,11 @@
       </c>
       <c r="R415" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S415" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T415" t="n">
         <v>10</v>
@@ -33640,24 +33640,24 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N416" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O416" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P416" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
@@ -33666,10 +33666,10 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T416" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="417">
@@ -33720,24 +33720,24 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N417" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O417" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P417" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R417" t="inlineStr">
@@ -33746,10 +33746,10 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="T417" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="418">
@@ -33800,24 +33800,24 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="N418" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O418" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P418" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
@@ -33826,10 +33826,10 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T418" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="419">
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E419" t="n">
         <v>5</v>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -33884,7 +33884,7 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N419" t="n">
         <v>7000</v>
@@ -33897,7 +33897,7 @@
       </c>
       <c r="Q419" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R419" t="inlineStr">
@@ -33906,10 +33906,10 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="T419" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="420">
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E420" t="n">
         <v>5</v>
@@ -33955,25 +33955,25 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="N420" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O420" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P420" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T420" t="n">
         <v>10</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E421" t="n">
         <v>5</v>
@@ -34035,16 +34035,16 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N421" t="n">
         <v>6000</v>
@@ -34057,7 +34057,7 @@
       </c>
       <c r="Q421" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R421" t="inlineStr">
@@ -34066,10 +34066,10 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T421" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="422">
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E422" t="n">
         <v>5</v>
@@ -34120,20 +34120,20 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N422" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O422" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P422" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T422" t="n">
         <v>10</v>
@@ -34195,7 +34195,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N423" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O423" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P423" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34222,11 +34222,11 @@
       </c>
       <c r="R423" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S423" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T423" t="n">
         <v>10</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N424" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O424" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P424" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34302,11 +34302,11 @@
       </c>
       <c r="R424" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S424" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T424" t="n">
         <v>10</v>
@@ -34355,7 +34355,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -34364,16 +34364,16 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N425" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O425" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P425" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34382,11 +34382,11 @@
       </c>
       <c r="R425" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S425" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T425" t="n">
         <v>10</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E426" t="n">
         <v>5</v>
@@ -34435,7 +34435,7 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
@@ -34444,16 +34444,16 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N426" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O426" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P426" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34462,11 +34462,11 @@
       </c>
       <c r="R426" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S426" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T426" t="n">
         <v>10</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E427" t="n">
         <v>5</v>
@@ -34515,7 +34515,7 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
@@ -34524,16 +34524,16 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N427" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O427" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P427" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34542,11 +34542,11 @@
       </c>
       <c r="R427" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S427" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T427" t="n">
         <v>10</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E428" t="n">
         <v>5</v>
@@ -34595,7 +34595,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -34604,16 +34604,16 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N428" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O428" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P428" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34622,11 +34622,11 @@
       </c>
       <c r="R428" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S428" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T428" t="n">
         <v>10</v>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -34684,16 +34684,16 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N429" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O429" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P429" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34702,11 +34702,11 @@
       </c>
       <c r="R429" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S429" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T429" t="n">
         <v>10</v>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N430" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O430" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P430" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34782,11 +34782,11 @@
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S430" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T430" t="n">
         <v>10</v>
@@ -34835,40 +34835,280 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M431" t="n">
+        <v>80</v>
+      </c>
+      <c r="N431" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O431" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P431" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q431" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R431" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S431" t="n">
+        <v>500</v>
+      </c>
+      <c r="T431" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>3</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D432" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E432" t="n">
+        <v>5</v>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G432" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I432" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
           <t>Murcott</t>
         </is>
       </c>
-      <c r="L431" t="inlineStr">
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M432" t="n">
+        <v>56</v>
+      </c>
+      <c r="N432" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O432" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P432" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q432" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R432" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S432" t="n">
+        <v>800</v>
+      </c>
+      <c r="T432" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>3</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D433" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E433" t="n">
+        <v>5</v>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G433" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I433" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M433" t="n">
+        <v>67</v>
+      </c>
+      <c r="N433" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O433" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P433" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q433" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R433" t="inlineStr">
+        <is>
+          <t>Provincia de San Felipe de Aconcagua</t>
+        </is>
+      </c>
+      <c r="S433" t="n">
+        <v>700</v>
+      </c>
+      <c r="T433" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>3</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D434" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E434" t="n">
+        <v>5</v>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G434" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I434" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L434" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M431" t="n">
+      <c r="M434" t="n">
         <v>60</v>
       </c>
-      <c r="N431" t="n">
+      <c r="N434" t="n">
         <v>6000</v>
       </c>
-      <c r="O431" t="n">
+      <c r="O434" t="n">
         <v>6000</v>
       </c>
-      <c r="P431" t="n">
+      <c r="P434" t="n">
         <v>6000</v>
       </c>
-      <c r="Q431" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R431" t="inlineStr">
+      <c r="Q434" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R434" t="inlineStr">
         <is>
           <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
-      <c r="S431" t="n">
+      <c r="S434" t="n">
         <v>600</v>
       </c>
-      <c r="T431" t="n">
+      <c r="T434" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T443"/>
+  <dimension ref="A1:T446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E305" t="n">
         <v>5</v>
@@ -24755,7 +24755,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -24764,7 +24764,7 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="N305" t="n">
         <v>7000</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -24835,7 +24835,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -24844,7 +24844,7 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="N306" t="n">
         <v>6000</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E307" t="n">
         <v>5</v>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -24924,7 +24924,7 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="N307" t="n">
         <v>5000</v>
@@ -24995,7 +24995,7 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N308" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O308" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P308" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T308" t="n">
         <v>10</v>
@@ -25075,7 +25075,7 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N309" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O309" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P309" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T309" t="n">
         <v>10</v>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N310" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O310" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P310" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T310" t="n">
         <v>10</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E311" t="n">
         <v>5</v>
@@ -25235,25 +25235,25 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N311" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O311" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P311" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T311" t="n">
         <v>10</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E312" t="n">
         <v>5</v>
@@ -25315,25 +25315,25 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="N312" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O312" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P312" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T312" t="n">
         <v>10</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E313" t="n">
         <v>5</v>
@@ -25395,25 +25395,25 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N313" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O313" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P313" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T313" t="n">
         <v>10</v>
@@ -25475,7 +25475,7 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -25484,7 +25484,7 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N314" t="n">
         <v>6000</v>
@@ -25555,7 +25555,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -25564,7 +25564,7 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="N315" t="n">
         <v>5000</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E316" t="n">
         <v>5</v>
@@ -25635,7 +25635,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N316" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O316" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P316" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T316" t="n">
         <v>10</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E317" t="n">
         <v>5</v>
@@ -25715,7 +25715,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N317" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O317" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P317" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T317" t="n">
         <v>10</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E318" t="n">
         <v>5</v>
@@ -25800,20 +25800,20 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N318" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O318" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P318" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T318" t="n">
         <v>10</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E319" t="n">
         <v>5</v>
@@ -25875,25 +25875,25 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N319" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O319" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P319" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T319" t="n">
         <v>10</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E320" t="n">
         <v>5</v>
@@ -25955,25 +25955,25 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N320" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O320" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P320" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T320" t="n">
         <v>10</v>
@@ -26035,7 +26035,7 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -26044,7 +26044,7 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N321" t="n">
         <v>7000</v>
@@ -26115,7 +26115,7 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -26124,7 +26124,7 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N322" t="n">
         <v>6000</v>
@@ -26195,7 +26195,7 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -26204,7 +26204,7 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N323" t="n">
         <v>5000</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E324" t="n">
         <v>5</v>
@@ -26275,7 +26275,7 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
@@ -26284,7 +26284,7 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N324" t="n">
         <v>7000</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E325" t="n">
         <v>5</v>
@@ -26355,7 +26355,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -26364,7 +26364,7 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N325" t="n">
         <v>6000</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E326" t="n">
         <v>5</v>
@@ -26435,7 +26435,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -26444,7 +26444,7 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="N326" t="n">
         <v>5000</v>
@@ -26515,7 +26515,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -26524,7 +26524,7 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N327" t="n">
         <v>7000</v>
@@ -26595,7 +26595,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -26604,7 +26604,7 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="N328" t="n">
         <v>6000</v>
@@ -26675,7 +26675,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -26684,7 +26684,7 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="N329" t="n">
         <v>5000</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E330" t="n">
         <v>5</v>
@@ -26755,16 +26755,16 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N330" t="n">
         <v>7000</v>
@@ -26777,7 +26777,7 @@
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R330" t="inlineStr">
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E331" t="n">
         <v>5</v>
@@ -26835,16 +26835,16 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N331" t="n">
         <v>6000</v>
@@ -26857,7 +26857,7 @@
       </c>
       <c r="Q331" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R331" t="inlineStr">
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E332" t="n">
         <v>5</v>
@@ -26915,25 +26915,25 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="N332" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O332" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P332" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T332" t="n">
         <v>10</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E333" t="n">
         <v>5</v>
@@ -26995,7 +26995,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
@@ -27004,7 +27004,7 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="N333" t="n">
         <v>7000</v>
@@ -27017,7 +27017,7 @@
       </c>
       <c r="Q333" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R333" t="inlineStr">
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E334" t="n">
         <v>5</v>
@@ -27075,7 +27075,7 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
@@ -27084,7 +27084,7 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N334" t="n">
         <v>6000</v>
@@ -27097,7 +27097,7 @@
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R334" t="inlineStr">
@@ -27155,7 +27155,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -27164,7 +27164,7 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="N335" t="n">
         <v>8000</v>
@@ -27235,7 +27235,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -27244,7 +27244,7 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N336" t="n">
         <v>7000</v>
@@ -27315,7 +27315,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -27324,7 +27324,7 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N337" t="n">
         <v>6000</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E338" t="n">
         <v>5</v>
@@ -27395,7 +27395,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N338" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O338" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P338" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T338" t="n">
         <v>10</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E339" t="n">
         <v>5</v>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N339" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O339" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P339" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T339" t="n">
         <v>10</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E340" t="n">
         <v>5</v>
@@ -27555,16 +27555,16 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N340" t="n">
         <v>6000</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E341" t="n">
         <v>5</v>
@@ -27640,20 +27640,20 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N341" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O341" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P341" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T341" t="n">
         <v>10</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E342" t="n">
         <v>5</v>
@@ -27720,20 +27720,20 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N342" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O342" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P342" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T342" t="n">
         <v>10</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E343" t="n">
         <v>5</v>
@@ -27800,20 +27800,20 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N343" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O343" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P343" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27822,11 +27822,11 @@
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S343" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T343" t="n">
         <v>10</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E344" t="n">
         <v>5</v>
@@ -27880,20 +27880,20 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N344" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O344" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P344" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27902,11 +27902,11 @@
       </c>
       <c r="R344" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S344" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T344" t="n">
         <v>10</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44312</v>
+        <v>44447</v>
       </c>
       <c r="E345" t="n">
         <v>5</v>
@@ -27960,20 +27960,20 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N345" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O345" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P345" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="T345" t="n">
         <v>10</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44312</v>
+        <v>44270</v>
       </c>
       <c r="E346" t="n">
         <v>5</v>
@@ -28040,20 +28040,20 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N346" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O346" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P346" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28062,11 +28062,11 @@
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S346" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T346" t="n">
         <v>10</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44390</v>
+        <v>44270</v>
       </c>
       <c r="E347" t="n">
         <v>5</v>
@@ -28115,16 +28115,16 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N347" t="n">
         <v>7000</v>
@@ -28142,7 +28142,7 @@
       </c>
       <c r="R347" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S347" t="n">
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E348" t="n">
         <v>5</v>
@@ -28195,7 +28195,7 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N348" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O348" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P348" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T348" t="n">
         <v>10</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E349" t="n">
         <v>5</v>
@@ -28275,7 +28275,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N349" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O349" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P349" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T349" t="n">
         <v>10</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E350" t="n">
         <v>5</v>
@@ -28355,25 +28355,25 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N350" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O350" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P350" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T350" t="n">
         <v>10</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E351" t="n">
         <v>5</v>
@@ -28435,25 +28435,25 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N351" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O351" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P351" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T351" t="n">
         <v>10</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E352" t="n">
         <v>5</v>
@@ -28520,20 +28520,20 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N352" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O352" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P352" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T352" t="n">
         <v>10</v>
@@ -28595,7 +28595,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -28604,7 +28604,7 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="N353" t="n">
         <v>6000</v>
@@ -28675,7 +28675,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -28684,7 +28684,7 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N354" t="n">
         <v>5000</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E355" t="n">
         <v>5</v>
@@ -28755,25 +28755,25 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M355" t="n">
         <v>85</v>
       </c>
       <c r="N355" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O355" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P355" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T355" t="n">
         <v>10</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44251</v>
+        <v>44386</v>
       </c>
       <c r="E356" t="n">
         <v>5</v>
@@ -28835,7 +28835,7 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N356" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O356" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P356" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T356" t="n">
         <v>10</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44251</v>
+        <v>44386</v>
       </c>
       <c r="E357" t="n">
         <v>5</v>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N357" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O357" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P357" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T357" t="n">
         <v>10</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44252</v>
+        <v>44308</v>
       </c>
       <c r="E358" t="n">
         <v>5</v>
@@ -29004,16 +29004,16 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N358" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O358" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P358" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T358" t="n">
         <v>10</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E359" t="n">
         <v>5</v>
@@ -29080,20 +29080,20 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N359" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O359" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P359" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T359" t="n">
         <v>10</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44166</v>
+        <v>44251</v>
       </c>
       <c r="E360" t="n">
         <v>5</v>
@@ -29160,20 +29160,20 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M360" t="n">
         <v>50</v>
       </c>
       <c r="N360" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O360" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P360" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T360" t="n">
         <v>10</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E361" t="n">
         <v>5</v>
@@ -29244,16 +29244,16 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N361" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O361" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P361" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T361" t="n">
         <v>10</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E362" t="n">
         <v>5</v>
@@ -29324,16 +29324,16 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="N362" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O362" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P362" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T362" t="n">
         <v>10</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E363" t="n">
         <v>5</v>
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N363" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O363" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P363" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T363" t="n">
         <v>10</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E364" t="n">
         <v>5</v>
@@ -29484,16 +29484,16 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N364" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O364" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P364" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T364" t="n">
         <v>10</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E365" t="n">
         <v>5</v>
@@ -29567,13 +29567,13 @@
         <v>47</v>
       </c>
       <c r="N365" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O365" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P365" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T365" t="n">
         <v>10</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E366" t="n">
         <v>5</v>
@@ -29635,7 +29635,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="N366" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O366" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P366" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T366" t="n">
         <v>10</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E367" t="n">
         <v>5</v>
@@ -29715,7 +29715,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N367" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O367" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P367" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T367" t="n">
         <v>10</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E368" t="n">
         <v>5</v>
@@ -29795,7 +29795,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -29804,16 +29804,16 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N368" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O368" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P368" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T368" t="n">
         <v>10</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E369" t="n">
         <v>5</v>
@@ -29875,7 +29875,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -29884,7 +29884,7 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N369" t="n">
         <v>7000</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E370" t="n">
         <v>5</v>
@@ -29955,7 +29955,7 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
@@ -29964,7 +29964,7 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N370" t="n">
         <v>6000</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E371" t="n">
         <v>5</v>
@@ -30035,7 +30035,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -30044,7 +30044,7 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N371" t="n">
         <v>5000</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E372" t="n">
         <v>5</v>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E373" t="n">
         <v>5</v>
@@ -30195,7 +30195,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -30204,7 +30204,7 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N373" t="n">
         <v>6000</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E374" t="n">
         <v>5</v>
@@ -30275,7 +30275,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -30284,7 +30284,7 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N374" t="n">
         <v>5000</v>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -30364,7 +30364,7 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N375" t="n">
         <v>7000</v>
@@ -30435,29 +30435,29 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N376" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O376" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P376" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
@@ -30466,10 +30466,10 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T376" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377">
@@ -30515,25 +30515,25 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N377" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O377" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P377" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T377" t="n">
         <v>10</v>
@@ -30600,24 +30600,24 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N378" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O378" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P378" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
@@ -30626,10 +30626,10 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T378" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="379">
@@ -30680,24 +30680,24 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N379" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O379" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P379" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
@@ -30706,10 +30706,10 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T379" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="380">
@@ -30760,24 +30760,24 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N380" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O380" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P380" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R380" t="inlineStr">
@@ -30786,10 +30786,10 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T380" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="381">
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E381" t="n">
         <v>5</v>
@@ -30840,24 +30840,24 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N381" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O381" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P381" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
@@ -30866,10 +30866,10 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T381" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="382">
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E382" t="n">
         <v>5</v>
@@ -30920,24 +30920,24 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N382" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O382" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P382" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
@@ -30946,10 +30946,10 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T382" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="383">
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E383" t="n">
         <v>5</v>
@@ -31000,24 +31000,24 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N383" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O383" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P383" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
@@ -31026,10 +31026,10 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="T383" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="384">
@@ -31080,24 +31080,24 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N384" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O384" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P384" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
@@ -31106,10 +31106,10 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T384" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="385">
@@ -31160,24 +31160,24 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N385" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O385" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P385" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
@@ -31186,10 +31186,10 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T385" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="386">
@@ -31240,24 +31240,24 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="N386" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O386" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P386" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
@@ -31266,10 +31266,10 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T386" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="387">
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E387" t="n">
         <v>5</v>
@@ -31315,29 +31315,29 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M387" t="n">
         <v>60</v>
       </c>
       <c r="N387" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O387" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P387" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
@@ -31346,10 +31346,10 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T387" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="388">
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E388" t="n">
         <v>5</v>
@@ -31395,25 +31395,25 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N388" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O388" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P388" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T388" t="n">
         <v>10</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E389" t="n">
         <v>5</v>
@@ -31475,7 +31475,7 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -31484,20 +31484,20 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N389" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O389" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P389" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
@@ -31506,10 +31506,10 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T389" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="390">
@@ -31555,7 +31555,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -31564,7 +31564,7 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N390" t="n">
         <v>7000</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,7 +31644,7 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N391" t="n">
         <v>6000</v>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31724,7 +31724,7 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N392" t="n">
         <v>5000</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E393" t="n">
         <v>5</v>
@@ -31795,25 +31795,25 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N393" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O393" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P393" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31822,11 +31822,11 @@
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S393" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T393" t="n">
         <v>10</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E394" t="n">
         <v>5</v>
@@ -31875,25 +31875,25 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="N394" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O394" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P394" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31902,11 +31902,11 @@
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S394" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T394" t="n">
         <v>10</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E395" t="n">
         <v>5</v>
@@ -31955,25 +31955,25 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N395" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O395" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P395" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T395" t="n">
         <v>10</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E396" t="n">
         <v>5</v>
@@ -32044,16 +32044,16 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N396" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O396" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P396" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32062,11 +32062,11 @@
       </c>
       <c r="R396" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S396" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T396" t="n">
         <v>10</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E397" t="n">
         <v>5</v>
@@ -32124,16 +32124,16 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N397" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O397" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P397" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32142,11 +32142,11 @@
       </c>
       <c r="R397" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S397" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T397" t="n">
         <v>10</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E398" t="n">
         <v>5</v>
@@ -32195,7 +32195,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -32204,7 +32204,7 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N398" t="n">
         <v>7000</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E399" t="n">
         <v>5</v>
@@ -32275,7 +32275,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -32284,7 +32284,7 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="N399" t="n">
         <v>6000</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E400" t="n">
         <v>5</v>
@@ -32355,7 +32355,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -32364,7 +32364,7 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N400" t="n">
         <v>5000</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E401" t="n">
         <v>5</v>
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32444,16 +32444,16 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N401" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O401" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P401" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T401" t="n">
         <v>10</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E402" t="n">
         <v>5</v>
@@ -32515,29 +32515,29 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N402" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O402" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P402" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
@@ -32546,10 +32546,10 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T402" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="403">
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E403" t="n">
         <v>5</v>
@@ -32595,25 +32595,25 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N403" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O403" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P403" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T403" t="n">
         <v>10</v>
@@ -32680,24 +32680,24 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N404" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O404" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P404" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
@@ -32706,10 +32706,10 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T404" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="405">
@@ -32760,24 +32760,24 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N405" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O405" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P405" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R405" t="inlineStr">
@@ -32786,10 +32786,10 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T405" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="406">
@@ -32840,24 +32840,24 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N406" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O406" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P406" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
@@ -32866,10 +32866,10 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T406" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="407">
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E407" t="n">
         <v>5</v>
@@ -32915,29 +32915,29 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N407" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O407" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P407" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R407" t="inlineStr">
@@ -32946,10 +32946,10 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T407" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="408">
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E408" t="n">
         <v>5</v>
@@ -32995,25 +32995,25 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N408" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O408" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P408" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T408" t="n">
         <v>10</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E409" t="n">
         <v>5</v>
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,20 +33084,20 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N409" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O409" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P409" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
@@ -33106,10 +33106,10 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T409" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="410">
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E410" t="n">
         <v>5</v>
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N410" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O410" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P410" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T410" t="n">
         <v>10</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E411" t="n">
         <v>5</v>
@@ -33244,16 +33244,16 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N411" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O411" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P411" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T411" t="n">
         <v>10</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E412" t="n">
         <v>5</v>
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N412" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O412" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P412" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T412" t="n">
         <v>10</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E413" t="n">
         <v>5</v>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -33404,20 +33404,20 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N413" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O413" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P413" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T413" t="n">
         <v>10</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E414" t="n">
         <v>5</v>
@@ -33475,7 +33475,7 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -33484,20 +33484,20 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N414" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O414" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P414" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T414" t="n">
         <v>10</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E415" t="n">
         <v>5</v>
@@ -33555,7 +33555,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -33564,20 +33564,20 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N415" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O415" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P415" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T415" t="n">
         <v>10</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E416" t="n">
         <v>5</v>
@@ -33644,20 +33644,20 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N416" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O416" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P416" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T416" t="n">
         <v>10</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E417" t="n">
         <v>5</v>
@@ -33720,24 +33720,24 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N417" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O417" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P417" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R417" t="inlineStr">
@@ -33746,10 +33746,10 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T417" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="418">
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E418" t="n">
         <v>5</v>
@@ -33800,24 +33800,24 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N418" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O418" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P418" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T418" t="n">
         <v>10</v>
@@ -33880,24 +33880,24 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N419" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O419" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P419" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R419" t="inlineStr">
@@ -33906,10 +33906,10 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T419" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="420">
@@ -33960,24 +33960,24 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N420" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O420" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P420" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R420" t="inlineStr">
@@ -33986,10 +33986,10 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T420" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="421">
@@ -34040,24 +34040,24 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N421" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O421" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P421" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R421" t="inlineStr">
@@ -34066,10 +34066,10 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T421" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="422">
@@ -34115,29 +34115,29 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N422" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O422" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P422" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R422" t="inlineStr">
@@ -34146,10 +34146,10 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T422" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="423">
@@ -34195,25 +34195,25 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M423" t="n">
         <v>68</v>
       </c>
       <c r="N423" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O423" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P423" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T423" t="n">
         <v>10</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34284,20 +34284,20 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N424" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O424" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P424" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R424" t="inlineStr">
@@ -34306,10 +34306,10 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T424" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="425">
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E425" t="n">
         <v>5</v>
@@ -34364,16 +34364,16 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N425" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O425" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P425" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T425" t="n">
         <v>10</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E426" t="n">
         <v>5</v>
@@ -34444,16 +34444,16 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N426" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O426" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P426" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T426" t="n">
         <v>10</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E427" t="n">
         <v>5</v>
@@ -34524,16 +34524,16 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N427" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O427" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P427" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T427" t="n">
         <v>10</v>
@@ -34595,7 +34595,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -34604,16 +34604,16 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N428" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O428" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P428" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34622,11 +34622,11 @@
       </c>
       <c r="R428" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S428" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T428" t="n">
         <v>10</v>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -34684,16 +34684,16 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="N429" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O429" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P429" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34702,11 +34702,11 @@
       </c>
       <c r="R429" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S429" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T429" t="n">
         <v>10</v>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N430" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O430" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P430" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34782,11 +34782,11 @@
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S430" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T430" t="n">
         <v>10</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E431" t="n">
         <v>5</v>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -34844,16 +34844,16 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="N431" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O431" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P431" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34862,11 +34862,11 @@
       </c>
       <c r="R431" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S431" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T431" t="n">
         <v>10</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E432" t="n">
         <v>5</v>
@@ -34915,41 +34915,41 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="N432" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O432" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P432" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S432" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T432" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="433">
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E433" t="n">
         <v>5</v>
@@ -34995,16 +34995,16 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N433" t="n">
         <v>6000</v>
@@ -35022,7 +35022,7 @@
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S433" t="n">
@@ -35080,24 +35080,24 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M434" t="n">
         <v>75</v>
       </c>
       <c r="N434" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O434" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P434" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
@@ -35106,10 +35106,10 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T434" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="435">
@@ -35160,24 +35160,24 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N435" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O435" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P435" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
@@ -35186,10 +35186,10 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T435" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="436">
@@ -35240,24 +35240,24 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N436" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O436" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P436" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
@@ -35266,10 +35266,10 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T436" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="437">
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E437" t="n">
         <v>5</v>
@@ -35315,7 +35315,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -35324,20 +35324,20 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N437" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O437" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P437" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
@@ -35346,10 +35346,10 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T437" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="438">
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E438" t="n">
         <v>5</v>
@@ -35395,7 +35395,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -35404,16 +35404,16 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N438" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O438" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P438" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T438" t="n">
         <v>10</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E439" t="n">
         <v>5</v>
@@ -35480,24 +35480,24 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N439" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O439" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P439" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
@@ -35506,10 +35506,10 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="T439" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="440">
@@ -35555,7 +35555,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -35564,7 +35564,7 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N440" t="n">
         <v>7000</v>
@@ -35635,7 +35635,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -35644,7 +35644,7 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N441" t="n">
         <v>6000</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E442" t="n">
         <v>5</v>
@@ -35720,20 +35720,20 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N442" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O442" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P442" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T442" t="n">
         <v>10</v>
@@ -35767,68 +35767,308 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E443" t="n">
+        <v>5</v>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G443" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I443" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M443" t="n">
+        <v>85</v>
+      </c>
+      <c r="N443" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O443" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P443" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q443" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R443" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S443" t="n">
+        <v>700</v>
+      </c>
+      <c r="T443" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>3</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D444" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E444" t="n">
+        <v>5</v>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G444" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I444" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M444" t="n">
+        <v>80</v>
+      </c>
+      <c r="N444" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O444" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P444" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q444" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R444" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S444" t="n">
+        <v>600</v>
+      </c>
+      <c r="T444" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>3</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D445" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E443" t="n">
-        <v>5</v>
-      </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G443" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I443" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J443" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K443" t="inlineStr">
+      <c r="E445" t="n">
+        <v>5</v>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G445" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I445" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K445" t="inlineStr">
         <is>
           <t>Clemenuless</t>
         </is>
       </c>
-      <c r="L443" t="inlineStr">
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M445" t="n">
+        <v>80</v>
+      </c>
+      <c r="N445" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O445" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P445" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q445" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R445" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S445" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T445" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>3</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D446" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E446" t="n">
+        <v>5</v>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G446" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I446" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L446" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M443" t="n">
+      <c r="M446" t="n">
         <v>80</v>
       </c>
-      <c r="N443" t="n">
+      <c r="N446" t="n">
         <v>9000</v>
       </c>
-      <c r="O443" t="n">
+      <c r="O446" t="n">
         <v>9000</v>
       </c>
-      <c r="P443" t="n">
+      <c r="P446" t="n">
         <v>9000</v>
       </c>
-      <c r="Q443" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R443" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="S443" t="n">
+      <c r="Q446" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R446" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S446" t="n">
         <v>900</v>
       </c>
-      <c r="T443" t="n">
+      <c r="T446" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T449"/>
+  <dimension ref="A1:T452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E317" t="n">
         <v>5</v>
@@ -25715,25 +25715,25 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N317" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O317" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P317" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T317" t="n">
         <v>10</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E318" t="n">
         <v>5</v>
@@ -25795,25 +25795,25 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="N318" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O318" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P318" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T318" t="n">
         <v>10</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E319" t="n">
         <v>5</v>
@@ -25875,25 +25875,25 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N319" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O319" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P319" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T319" t="n">
         <v>10</v>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -25964,7 +25964,7 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N320" t="n">
         <v>6000</v>
@@ -26035,7 +26035,7 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -26044,7 +26044,7 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="N321" t="n">
         <v>5000</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E322" t="n">
         <v>5</v>
@@ -26115,7 +26115,7 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N322" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O322" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P322" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T322" t="n">
         <v>10</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E323" t="n">
         <v>5</v>
@@ -26195,7 +26195,7 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N323" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O323" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P323" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T323" t="n">
         <v>10</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E324" t="n">
         <v>5</v>
@@ -26280,20 +26280,20 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N324" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O324" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P324" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T324" t="n">
         <v>10</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E325" t="n">
         <v>5</v>
@@ -26355,25 +26355,25 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N325" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O325" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P325" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T325" t="n">
         <v>10</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E326" t="n">
         <v>5</v>
@@ -26435,25 +26435,25 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N326" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O326" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P326" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T326" t="n">
         <v>10</v>
@@ -26515,7 +26515,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -26524,7 +26524,7 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N327" t="n">
         <v>7000</v>
@@ -26595,7 +26595,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -26604,7 +26604,7 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N328" t="n">
         <v>6000</v>
@@ -26675,7 +26675,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -26684,7 +26684,7 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N329" t="n">
         <v>5000</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E330" t="n">
         <v>5</v>
@@ -26755,7 +26755,7 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
@@ -26764,7 +26764,7 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N330" t="n">
         <v>7000</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E331" t="n">
         <v>5</v>
@@ -26835,7 +26835,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -26844,7 +26844,7 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N331" t="n">
         <v>6000</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E332" t="n">
         <v>5</v>
@@ -26915,7 +26915,7 @@
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
@@ -26924,7 +26924,7 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="N332" t="n">
         <v>5000</v>
@@ -26995,7 +26995,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
@@ -27004,7 +27004,7 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N333" t="n">
         <v>7000</v>
@@ -27075,7 +27075,7 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
@@ -27084,7 +27084,7 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="N334" t="n">
         <v>6000</v>
@@ -27155,7 +27155,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -27164,7 +27164,7 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="N335" t="n">
         <v>5000</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E336" t="n">
         <v>5</v>
@@ -27235,16 +27235,16 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N336" t="n">
         <v>7000</v>
@@ -27257,7 +27257,7 @@
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R336" t="inlineStr">
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E337" t="n">
         <v>5</v>
@@ -27315,16 +27315,16 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N337" t="n">
         <v>6000</v>
@@ -27337,7 +27337,7 @@
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R337" t="inlineStr">
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E338" t="n">
         <v>5</v>
@@ -27395,25 +27395,25 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="N338" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O338" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P338" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T338" t="n">
         <v>10</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E339" t="n">
         <v>5</v>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27484,7 +27484,7 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="N339" t="n">
         <v>7000</v>
@@ -27497,7 +27497,7 @@
       </c>
       <c r="Q339" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R339" t="inlineStr">
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E340" t="n">
         <v>5</v>
@@ -27555,7 +27555,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -27564,7 +27564,7 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N340" t="n">
         <v>6000</v>
@@ -27577,7 +27577,7 @@
       </c>
       <c r="Q340" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R340" t="inlineStr">
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -27644,7 +27644,7 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="N341" t="n">
         <v>8000</v>
@@ -27715,7 +27715,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -27724,7 +27724,7 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N342" t="n">
         <v>7000</v>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -27804,7 +27804,7 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N343" t="n">
         <v>6000</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E344" t="n">
         <v>5</v>
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N344" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O344" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P344" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T344" t="n">
         <v>10</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E345" t="n">
         <v>5</v>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N345" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O345" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P345" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T345" t="n">
         <v>10</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E346" t="n">
         <v>5</v>
@@ -28035,16 +28035,16 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N346" t="n">
         <v>6000</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E347" t="n">
         <v>5</v>
@@ -28120,20 +28120,20 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N347" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O347" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P347" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T347" t="n">
         <v>10</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E348" t="n">
         <v>5</v>
@@ -28200,20 +28200,20 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N348" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O348" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P348" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T348" t="n">
         <v>10</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E349" t="n">
         <v>5</v>
@@ -28280,20 +28280,20 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N349" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O349" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P349" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28302,11 +28302,11 @@
       </c>
       <c r="R349" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S349" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T349" t="n">
         <v>10</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E350" t="n">
         <v>5</v>
@@ -28360,20 +28360,20 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M350" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N350" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O350" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P350" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28382,11 +28382,11 @@
       </c>
       <c r="R350" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S350" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T350" t="n">
         <v>10</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44312</v>
+        <v>44447</v>
       </c>
       <c r="E351" t="n">
         <v>5</v>
@@ -28440,20 +28440,20 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N351" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O351" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P351" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="T351" t="n">
         <v>10</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44312</v>
+        <v>44270</v>
       </c>
       <c r="E352" t="n">
         <v>5</v>
@@ -28520,20 +28520,20 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N352" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O352" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P352" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28542,11 +28542,11 @@
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S352" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T352" t="n">
         <v>10</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44390</v>
+        <v>44270</v>
       </c>
       <c r="E353" t="n">
         <v>5</v>
@@ -28595,16 +28595,16 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N353" t="n">
         <v>7000</v>
@@ -28622,7 +28622,7 @@
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S353" t="n">
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E354" t="n">
         <v>5</v>
@@ -28675,7 +28675,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -28684,16 +28684,16 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N354" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O354" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P354" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T354" t="n">
         <v>10</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E355" t="n">
         <v>5</v>
@@ -28755,7 +28755,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N355" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O355" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P355" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T355" t="n">
         <v>10</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E356" t="n">
         <v>5</v>
@@ -28835,25 +28835,25 @@
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N356" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O356" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P356" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T356" t="n">
         <v>10</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E357" t="n">
         <v>5</v>
@@ -28915,25 +28915,25 @@
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N357" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O357" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P357" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T357" t="n">
         <v>10</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E358" t="n">
         <v>5</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N358" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O358" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P358" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T358" t="n">
         <v>10</v>
@@ -29075,7 +29075,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
@@ -29084,7 +29084,7 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="N359" t="n">
         <v>6000</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29164,7 +29164,7 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N360" t="n">
         <v>5000</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E361" t="n">
         <v>5</v>
@@ -29235,25 +29235,25 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M361" t="n">
         <v>85</v>
       </c>
       <c r="N361" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O361" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P361" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T361" t="n">
         <v>10</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44251</v>
+        <v>44386</v>
       </c>
       <c r="E362" t="n">
         <v>5</v>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29324,16 +29324,16 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N362" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O362" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P362" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T362" t="n">
         <v>10</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44251</v>
+        <v>44386</v>
       </c>
       <c r="E363" t="n">
         <v>5</v>
@@ -29395,7 +29395,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N363" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O363" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P363" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T363" t="n">
         <v>10</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44252</v>
+        <v>44308</v>
       </c>
       <c r="E364" t="n">
         <v>5</v>
@@ -29484,16 +29484,16 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N364" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O364" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P364" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T364" t="n">
         <v>10</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E365" t="n">
         <v>5</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N365" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O365" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P365" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T365" t="n">
         <v>10</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44166</v>
+        <v>44251</v>
       </c>
       <c r="E366" t="n">
         <v>5</v>
@@ -29640,20 +29640,20 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M366" t="n">
         <v>50</v>
       </c>
       <c r="N366" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O366" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P366" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T366" t="n">
         <v>10</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E367" t="n">
         <v>5</v>
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N367" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O367" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P367" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T367" t="n">
         <v>10</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E368" t="n">
         <v>5</v>
@@ -29804,16 +29804,16 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="N368" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O368" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P368" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T368" t="n">
         <v>10</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E369" t="n">
         <v>5</v>
@@ -29884,16 +29884,16 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N369" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O369" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P369" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T369" t="n">
         <v>10</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E370" t="n">
         <v>5</v>
@@ -29964,16 +29964,16 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N370" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O370" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P370" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T370" t="n">
         <v>10</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E371" t="n">
         <v>5</v>
@@ -30047,13 +30047,13 @@
         <v>47</v>
       </c>
       <c r="N371" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O371" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P371" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T371" t="n">
         <v>10</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E372" t="n">
         <v>5</v>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="N372" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O372" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P372" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T372" t="n">
         <v>10</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E373" t="n">
         <v>5</v>
@@ -30195,7 +30195,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N373" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O373" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P373" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T373" t="n">
         <v>10</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E374" t="n">
         <v>5</v>
@@ -30275,7 +30275,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N374" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O374" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P374" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T374" t="n">
         <v>10</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -30364,7 +30364,7 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N375" t="n">
         <v>7000</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E376" t="n">
         <v>5</v>
@@ -30435,7 +30435,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -30444,7 +30444,7 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N376" t="n">
         <v>6000</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E377" t="n">
         <v>5</v>
@@ -30515,7 +30515,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -30524,7 +30524,7 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N377" t="n">
         <v>5000</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E378" t="n">
         <v>5</v>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E379" t="n">
         <v>5</v>
@@ -30675,7 +30675,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -30684,7 +30684,7 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N379" t="n">
         <v>6000</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E380" t="n">
         <v>5</v>
@@ -30755,7 +30755,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
@@ -30764,7 +30764,7 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N380" t="n">
         <v>5000</v>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -30844,7 +30844,7 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N381" t="n">
         <v>7000</v>
@@ -30915,29 +30915,29 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N382" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O382" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P382" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
@@ -30946,10 +30946,10 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T382" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="383">
@@ -30995,25 +30995,25 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N383" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O383" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P383" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T383" t="n">
         <v>10</v>
@@ -31080,24 +31080,24 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N384" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O384" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P384" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
@@ -31106,10 +31106,10 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T384" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="385">
@@ -31160,24 +31160,24 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N385" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O385" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P385" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
@@ -31186,10 +31186,10 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T385" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="386">
@@ -31240,24 +31240,24 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N386" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O386" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P386" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
@@ -31266,10 +31266,10 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T386" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="387">
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E387" t="n">
         <v>5</v>
@@ -31320,24 +31320,24 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N387" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O387" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P387" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
@@ -31346,10 +31346,10 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T387" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="388">
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E388" t="n">
         <v>5</v>
@@ -31400,24 +31400,24 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N388" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O388" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P388" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
@@ -31426,10 +31426,10 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T388" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389">
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E389" t="n">
         <v>5</v>
@@ -31480,24 +31480,24 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N389" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O389" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P389" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
@@ -31506,10 +31506,10 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="T389" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="390">
@@ -31560,24 +31560,24 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N390" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O390" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P390" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
@@ -31586,10 +31586,10 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T390" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="391">
@@ -31640,24 +31640,24 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N391" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O391" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P391" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
@@ -31666,10 +31666,10 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T391" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="392">
@@ -31720,24 +31720,24 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="N392" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O392" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P392" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R392" t="inlineStr">
@@ -31746,10 +31746,10 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T392" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="393">
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E393" t="n">
         <v>5</v>
@@ -31795,29 +31795,29 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M393" t="n">
         <v>60</v>
       </c>
       <c r="N393" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O393" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P393" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
@@ -31826,10 +31826,10 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T393" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="394">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E394" t="n">
         <v>5</v>
@@ -31875,25 +31875,25 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N394" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O394" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P394" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T394" t="n">
         <v>10</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E395" t="n">
         <v>5</v>
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -31964,20 +31964,20 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N395" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O395" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P395" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R395" t="inlineStr">
@@ -31986,10 +31986,10 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T395" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="396">
@@ -32035,7 +32035,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -32044,7 +32044,7 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N396" t="n">
         <v>7000</v>
@@ -32115,7 +32115,7 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
@@ -32124,7 +32124,7 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N397" t="n">
         <v>6000</v>
@@ -32195,7 +32195,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -32204,7 +32204,7 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N398" t="n">
         <v>5000</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E399" t="n">
         <v>5</v>
@@ -32275,25 +32275,25 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N399" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O399" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P399" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32302,11 +32302,11 @@
       </c>
       <c r="R399" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S399" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T399" t="n">
         <v>10</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E400" t="n">
         <v>5</v>
@@ -32355,25 +32355,25 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="N400" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O400" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P400" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32382,11 +32382,11 @@
       </c>
       <c r="R400" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S400" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T400" t="n">
         <v>10</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E401" t="n">
         <v>5</v>
@@ -32435,25 +32435,25 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N401" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O401" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P401" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T401" t="n">
         <v>10</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E402" t="n">
         <v>5</v>
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N402" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O402" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P402" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32542,11 +32542,11 @@
       </c>
       <c r="R402" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S402" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T402" t="n">
         <v>10</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E403" t="n">
         <v>5</v>
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N403" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O403" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P403" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32622,11 +32622,11 @@
       </c>
       <c r="R403" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S403" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T403" t="n">
         <v>10</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E404" t="n">
         <v>5</v>
@@ -32675,7 +32675,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -32684,7 +32684,7 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N404" t="n">
         <v>7000</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E405" t="n">
         <v>5</v>
@@ -32755,7 +32755,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -32764,7 +32764,7 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="N405" t="n">
         <v>6000</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E406" t="n">
         <v>5</v>
@@ -32835,7 +32835,7 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -32844,7 +32844,7 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N406" t="n">
         <v>5000</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E407" t="n">
         <v>5</v>
@@ -32915,7 +32915,7 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N407" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O407" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P407" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T407" t="n">
         <v>10</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E408" t="n">
         <v>5</v>
@@ -32995,29 +32995,29 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N408" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O408" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P408" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
@@ -33026,10 +33026,10 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T408" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="409">
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E409" t="n">
         <v>5</v>
@@ -33075,25 +33075,25 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N409" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O409" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P409" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T409" t="n">
         <v>10</v>
@@ -33160,24 +33160,24 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N410" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O410" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P410" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R410" t="inlineStr">
@@ -33186,10 +33186,10 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T410" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="411">
@@ -33240,24 +33240,24 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M411" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N411" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O411" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P411" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
@@ -33266,10 +33266,10 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T411" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="412">
@@ -33320,24 +33320,24 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N412" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O412" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P412" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
@@ -33346,10 +33346,10 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T412" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="413">
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E413" t="n">
         <v>5</v>
@@ -33395,29 +33395,29 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N413" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O413" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P413" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
@@ -33426,10 +33426,10 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T413" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="414">
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E414" t="n">
         <v>5</v>
@@ -33475,25 +33475,25 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N414" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O414" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P414" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T414" t="n">
         <v>10</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E415" t="n">
         <v>5</v>
@@ -33555,7 +33555,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -33564,20 +33564,20 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N415" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O415" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P415" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
@@ -33586,10 +33586,10 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T415" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="416">
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E416" t="n">
         <v>5</v>
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N416" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O416" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P416" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T416" t="n">
         <v>10</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E417" t="n">
         <v>5</v>
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N417" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O417" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P417" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T417" t="n">
         <v>10</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E418" t="n">
         <v>5</v>
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N418" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O418" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P418" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T418" t="n">
         <v>10</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E419" t="n">
         <v>5</v>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -33884,20 +33884,20 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N419" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O419" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P419" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R419" t="inlineStr">
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T419" t="n">
         <v>10</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E420" t="n">
         <v>5</v>
@@ -33955,7 +33955,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -33964,20 +33964,20 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N420" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O420" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P420" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R420" t="inlineStr">
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T420" t="n">
         <v>10</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E421" t="n">
         <v>5</v>
@@ -34035,7 +34035,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
@@ -34044,20 +34044,20 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N421" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O421" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P421" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R421" t="inlineStr">
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T421" t="n">
         <v>10</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E422" t="n">
         <v>5</v>
@@ -34124,20 +34124,20 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N422" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O422" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P422" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R422" t="inlineStr">
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T422" t="n">
         <v>10</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E423" t="n">
         <v>5</v>
@@ -34200,24 +34200,24 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N423" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O423" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P423" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R423" t="inlineStr">
@@ -34226,10 +34226,10 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T423" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="424">
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E424" t="n">
         <v>5</v>
@@ -34280,24 +34280,24 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N424" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O424" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P424" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R424" t="inlineStr">
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T424" t="n">
         <v>10</v>
@@ -34360,24 +34360,24 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N425" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O425" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P425" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R425" t="inlineStr">
@@ -34386,10 +34386,10 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T425" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="426">
@@ -34440,24 +34440,24 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N426" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O426" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P426" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
@@ -34466,10 +34466,10 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T426" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="427">
@@ -34520,24 +34520,24 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N427" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O427" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P427" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R427" t="inlineStr">
@@ -34546,10 +34546,10 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T427" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="428">
@@ -34595,29 +34595,29 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N428" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O428" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P428" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
@@ -34626,10 +34626,10 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T428" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="429">
@@ -34675,25 +34675,25 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M429" t="n">
         <v>68</v>
       </c>
       <c r="N429" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O429" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P429" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T429" t="n">
         <v>10</v>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,20 +34764,20 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N430" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O430" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P430" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
@@ -34786,10 +34786,10 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T430" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="431">
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E431" t="n">
         <v>5</v>
@@ -34844,16 +34844,16 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N431" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O431" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P431" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T431" t="n">
         <v>10</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E432" t="n">
         <v>5</v>
@@ -34924,16 +34924,16 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N432" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O432" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P432" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T432" t="n">
         <v>10</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E433" t="n">
         <v>5</v>
@@ -35004,16 +35004,16 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N433" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O433" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P433" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T433" t="n">
         <v>10</v>
@@ -35075,7 +35075,7 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -35084,16 +35084,16 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N434" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O434" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P434" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35102,11 +35102,11 @@
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S434" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T434" t="n">
         <v>10</v>
@@ -35155,7 +35155,7 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
@@ -35164,16 +35164,16 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="N435" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O435" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P435" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35182,11 +35182,11 @@
       </c>
       <c r="R435" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S435" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T435" t="n">
         <v>10</v>
@@ -35235,7 +35235,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -35244,16 +35244,16 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N436" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O436" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P436" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35262,11 +35262,11 @@
       </c>
       <c r="R436" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S436" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T436" t="n">
         <v>10</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E437" t="n">
         <v>5</v>
@@ -35315,7 +35315,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -35324,16 +35324,16 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="N437" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O437" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P437" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35342,11 +35342,11 @@
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S437" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T437" t="n">
         <v>10</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E438" t="n">
         <v>5</v>
@@ -35395,41 +35395,41 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="N438" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O438" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P438" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S438" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T438" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="439">
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E439" t="n">
         <v>5</v>
@@ -35475,16 +35475,16 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N439" t="n">
         <v>6000</v>
@@ -35502,7 +35502,7 @@
       </c>
       <c r="R439" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S439" t="n">
@@ -35560,24 +35560,24 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M440" t="n">
         <v>75</v>
       </c>
       <c r="N440" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O440" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P440" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
@@ -35586,10 +35586,10 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T440" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="441">
@@ -35640,24 +35640,24 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N441" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O441" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P441" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
@@ -35666,10 +35666,10 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T441" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="442">
@@ -35720,24 +35720,24 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N442" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O442" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P442" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
@@ -35746,10 +35746,10 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T442" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="443">
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E443" t="n">
         <v>5</v>
@@ -35795,7 +35795,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -35804,20 +35804,20 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N443" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O443" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P443" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R443" t="inlineStr">
@@ -35826,10 +35826,10 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T443" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="444">
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E444" t="n">
         <v>5</v>
@@ -35875,7 +35875,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -35884,16 +35884,16 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N444" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O444" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P444" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T444" t="n">
         <v>10</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E445" t="n">
         <v>5</v>
@@ -35960,24 +35960,24 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N445" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O445" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P445" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
@@ -35986,10 +35986,10 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="T445" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="446">
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36044,7 +36044,7 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N446" t="n">
         <v>7000</v>
@@ -36115,7 +36115,7 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
@@ -36124,7 +36124,7 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N447" t="n">
         <v>6000</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E448" t="n">
         <v>5</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N448" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O448" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P448" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T448" t="n">
         <v>10</v>
@@ -36247,68 +36247,308 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E449" t="n">
+        <v>5</v>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G449" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I449" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M449" t="n">
+        <v>85</v>
+      </c>
+      <c r="N449" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O449" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P449" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q449" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R449" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S449" t="n">
+        <v>700</v>
+      </c>
+      <c r="T449" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>3</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D450" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E450" t="n">
+        <v>5</v>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G450" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I450" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M450" t="n">
+        <v>80</v>
+      </c>
+      <c r="N450" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O450" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P450" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q450" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R450" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S450" t="n">
+        <v>600</v>
+      </c>
+      <c r="T450" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>3</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D451" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E449" t="n">
-        <v>5</v>
-      </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G449" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I449" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J449" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K449" t="inlineStr">
+      <c r="E451" t="n">
+        <v>5</v>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G451" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I451" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K451" t="inlineStr">
         <is>
           <t>Clemenuless</t>
         </is>
       </c>
-      <c r="L449" t="inlineStr">
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M451" t="n">
+        <v>80</v>
+      </c>
+      <c r="N451" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O451" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P451" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q451" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R451" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S451" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T451" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>3</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D452" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E452" t="n">
+        <v>5</v>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G452" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I452" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L452" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M449" t="n">
+      <c r="M452" t="n">
         <v>80</v>
       </c>
-      <c r="N449" t="n">
+      <c r="N452" t="n">
         <v>9000</v>
       </c>
-      <c r="O449" t="n">
+      <c r="O452" t="n">
         <v>9000</v>
       </c>
-      <c r="P449" t="n">
+      <c r="P452" t="n">
         <v>9000</v>
       </c>
-      <c r="Q449" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R449" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="S449" t="n">
+      <c r="Q452" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R452" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S452" t="n">
         <v>900</v>
       </c>
-      <c r="T449" t="n">
+      <c r="T452" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T452"/>
+  <dimension ref="A1:T458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E425" t="n">
         <v>5</v>
@@ -34355,7 +34355,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -34367,13 +34367,13 @@
         <v>70</v>
       </c>
       <c r="N425" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O425" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P425" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T425" t="n">
         <v>10</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E426" t="n">
         <v>5</v>
@@ -34435,7 +34435,7 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
@@ -34444,16 +34444,16 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N426" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O426" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P426" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T426" t="n">
         <v>15</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E427" t="n">
         <v>5</v>
@@ -34515,7 +34515,7 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
@@ -34527,13 +34527,13 @@
         <v>80</v>
       </c>
       <c r="N427" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O427" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P427" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T427" t="n">
         <v>10</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E428" t="n">
         <v>5</v>
@@ -34595,7 +34595,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -34604,16 +34604,16 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N428" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O428" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P428" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>733</v>
+        <v>533</v>
       </c>
       <c r="T428" t="n">
         <v>15</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E429" t="n">
         <v>5</v>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -34684,16 +34684,16 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N429" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O429" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P429" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T429" t="n">
         <v>10</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E430" t="n">
         <v>5</v>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N430" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O430" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P430" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>667</v>
+        <v>467</v>
       </c>
       <c r="T430" t="n">
         <v>15</v>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -34844,7 +34844,7 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N431" t="n">
         <v>8000</v>
@@ -34915,29 +34915,29 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N432" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O432" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P432" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
@@ -34946,10 +34946,10 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T432" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="433">
@@ -34995,25 +34995,25 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N433" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O433" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P433" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T433" t="n">
         <v>10</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E434" t="n">
         <v>5</v>
@@ -35075,29 +35075,29 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N434" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O434" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P434" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
@@ -35106,10 +35106,10 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="T434" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="435">
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E435" t="n">
         <v>5</v>
@@ -35155,16 +35155,16 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N435" t="n">
         <v>6000</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E436" t="n">
         <v>5</v>
@@ -35235,7 +35235,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -35244,20 +35244,20 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N436" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O436" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P436" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
@@ -35266,10 +35266,10 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T436" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="437">
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E437" t="n">
         <v>5</v>
@@ -35315,7 +35315,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -35324,7 +35324,7 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N437" t="n">
         <v>8000</v>
@@ -35342,7 +35342,7 @@
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S437" t="n">
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E438" t="n">
         <v>5</v>
@@ -35395,7 +35395,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -35404,7 +35404,7 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="N438" t="n">
         <v>7000</v>
@@ -35422,7 +35422,7 @@
       </c>
       <c r="R438" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S438" t="n">
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E439" t="n">
         <v>5</v>
@@ -35475,7 +35475,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -35484,7 +35484,7 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="N439" t="n">
         <v>6000</v>
@@ -35502,7 +35502,7 @@
       </c>
       <c r="R439" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S439" t="n">
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E440" t="n">
         <v>5</v>
@@ -35564,7 +35564,7 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N440" t="n">
         <v>7000</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E441" t="n">
         <v>5</v>
@@ -35640,24 +35640,24 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="N441" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O441" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P441" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
@@ -35666,10 +35666,10 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T441" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="442">
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E442" t="n">
         <v>5</v>
@@ -35720,20 +35720,20 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M442" t="n">
         <v>80</v>
       </c>
       <c r="N442" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O442" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P442" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T442" t="n">
         <v>10</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E443" t="n">
         <v>5</v>
@@ -35795,41 +35795,41 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="N443" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O443" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P443" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R443" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S443" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T443" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="444">
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E444" t="n">
         <v>5</v>
@@ -35875,25 +35875,25 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="N444" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O444" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P444" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35902,11 +35902,11 @@
       </c>
       <c r="R444" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S444" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T444" t="n">
         <v>10</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E445" t="n">
         <v>5</v>
@@ -35955,7 +35955,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -35964,32 +35964,32 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N445" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O445" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P445" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S445" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T445" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="446">
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E446" t="n">
         <v>5</v>
@@ -36035,16 +36035,16 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N446" t="n">
         <v>7000</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E447" t="n">
         <v>5</v>
@@ -36115,29 +36115,29 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N447" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O447" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P447" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
@@ -36146,10 +36146,10 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T447" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="448">
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E448" t="n">
         <v>5</v>
@@ -36200,20 +36200,20 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N448" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O448" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P448" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T448" t="n">
         <v>10</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E449" t="n">
         <v>5</v>
@@ -36284,20 +36284,20 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N449" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O449" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P449" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
@@ -36306,10 +36306,10 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T449" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="450">
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E450" t="n">
         <v>5</v>
@@ -36367,13 +36367,13 @@
         <v>80</v>
       </c>
       <c r="N450" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O450" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P450" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T450" t="n">
         <v>10</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44323</v>
+        <v>44376</v>
       </c>
       <c r="E451" t="n">
         <v>5</v>
@@ -36440,24 +36440,24 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N451" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O451" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P451" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
@@ -36466,10 +36466,10 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>1000</v>
+        <v>467</v>
       </c>
       <c r="T451" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="452">
@@ -36487,68 +36487,548 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E452" t="n">
+        <v>5</v>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G452" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I452" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M452" t="n">
+        <v>65</v>
+      </c>
+      <c r="N452" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O452" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P452" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q452" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R452" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S452" t="n">
+        <v>700</v>
+      </c>
+      <c r="T452" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>3</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D453" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E453" t="n">
+        <v>5</v>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G453" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I453" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>Clementina</t>
+        </is>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M453" t="n">
+        <v>60</v>
+      </c>
+      <c r="N453" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O453" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P453" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q453" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R453" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S453" t="n">
+        <v>600</v>
+      </c>
+      <c r="T453" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>3</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D454" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E454" t="n">
+        <v>5</v>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G454" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I454" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M454" t="n">
+        <v>75</v>
+      </c>
+      <c r="N454" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O454" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P454" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q454" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R454" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S454" t="n">
+        <v>800</v>
+      </c>
+      <c r="T454" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>3</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D455" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E455" t="n">
+        <v>5</v>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G455" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I455" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M455" t="n">
+        <v>85</v>
+      </c>
+      <c r="N455" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O455" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P455" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q455" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R455" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S455" t="n">
+        <v>700</v>
+      </c>
+      <c r="T455" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>3</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D456" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E456" t="n">
+        <v>5</v>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G456" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I456" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M456" t="n">
+        <v>80</v>
+      </c>
+      <c r="N456" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O456" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P456" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q456" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R456" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S456" t="n">
+        <v>600</v>
+      </c>
+      <c r="T456" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>3</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D457" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E452" t="n">
-        <v>5</v>
-      </c>
-      <c r="F452" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G452" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I452" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J452" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K452" t="inlineStr">
+      <c r="E457" t="n">
+        <v>5</v>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G457" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I457" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K457" t="inlineStr">
         <is>
           <t>Clemenuless</t>
         </is>
       </c>
-      <c r="L452" t="inlineStr">
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M457" t="n">
+        <v>80</v>
+      </c>
+      <c r="N457" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O457" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P457" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q457" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R457" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S457" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T457" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>3</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D458" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E458" t="n">
+        <v>5</v>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G458" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I458" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L458" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M452" t="n">
+      <c r="M458" t="n">
         <v>80</v>
       </c>
-      <c r="N452" t="n">
+      <c r="N458" t="n">
         <v>9000</v>
       </c>
-      <c r="O452" t="n">
+      <c r="O458" t="n">
         <v>9000</v>
       </c>
-      <c r="P452" t="n">
+      <c r="P458" t="n">
         <v>9000</v>
       </c>
-      <c r="Q452" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R452" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="S452" t="n">
+      <c r="Q458" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R458" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S458" t="n">
         <v>900</v>
       </c>
-      <c r="T452" t="n">
+      <c r="T458" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T461"/>
+  <dimension ref="A1:T464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44251</v>
+        <v>44463</v>
       </c>
       <c r="E368" t="n">
         <v>5</v>
@@ -29800,20 +29800,20 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N368" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O368" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P368" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T368" t="n">
         <v>10</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44251</v>
+        <v>44463</v>
       </c>
       <c r="E369" t="n">
         <v>5</v>
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N369" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O369" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P369" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T369" t="n">
         <v>10</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44252</v>
+        <v>44463</v>
       </c>
       <c r="E370" t="n">
         <v>5</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N370" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O370" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P370" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T370" t="n">
         <v>10</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E371" t="n">
         <v>5</v>
@@ -30040,20 +30040,20 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N371" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O371" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P371" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T371" t="n">
         <v>10</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44166</v>
+        <v>44251</v>
       </c>
       <c r="E372" t="n">
         <v>5</v>
@@ -30120,20 +30120,20 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M372" t="n">
         <v>50</v>
       </c>
       <c r="N372" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O372" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P372" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T372" t="n">
         <v>10</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E373" t="n">
         <v>5</v>
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N373" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O373" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P373" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T373" t="n">
         <v>10</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E374" t="n">
         <v>5</v>
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="N374" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O374" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P374" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T374" t="n">
         <v>10</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N375" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O375" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P375" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T375" t="n">
         <v>10</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E376" t="n">
         <v>5</v>
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N376" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O376" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P376" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T376" t="n">
         <v>10</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E377" t="n">
         <v>5</v>
@@ -30527,13 +30527,13 @@
         <v>47</v>
       </c>
       <c r="N377" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O377" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P377" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T377" t="n">
         <v>10</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E378" t="n">
         <v>5</v>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="N378" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O378" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P378" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T378" t="n">
         <v>10</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E379" t="n">
         <v>5</v>
@@ -30675,7 +30675,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N379" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O379" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P379" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T379" t="n">
         <v>10</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E380" t="n">
         <v>5</v>
@@ -30755,7 +30755,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
@@ -30764,16 +30764,16 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N380" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O380" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P380" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T380" t="n">
         <v>10</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E381" t="n">
         <v>5</v>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -30844,7 +30844,7 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N381" t="n">
         <v>7000</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E382" t="n">
         <v>5</v>
@@ -30915,7 +30915,7 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
@@ -30924,7 +30924,7 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N382" t="n">
         <v>6000</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E383" t="n">
         <v>5</v>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
@@ -31004,7 +31004,7 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N383" t="n">
         <v>5000</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E384" t="n">
         <v>5</v>
@@ -31075,7 +31075,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E385" t="n">
         <v>5</v>
@@ -31155,7 +31155,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
@@ -31164,7 +31164,7 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N385" t="n">
         <v>6000</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E386" t="n">
         <v>5</v>
@@ -31235,7 +31235,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -31244,7 +31244,7 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N386" t="n">
         <v>5000</v>
@@ -31315,7 +31315,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
@@ -31324,7 +31324,7 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N387" t="n">
         <v>7000</v>
@@ -31395,29 +31395,29 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N388" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O388" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P388" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
@@ -31426,10 +31426,10 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T388" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389">
@@ -31475,25 +31475,25 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N389" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O389" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P389" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T389" t="n">
         <v>10</v>
@@ -31560,24 +31560,24 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N390" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O390" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P390" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R390" t="inlineStr">
@@ -31586,10 +31586,10 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T390" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="391">
@@ -31640,24 +31640,24 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N391" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O391" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P391" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
@@ -31666,10 +31666,10 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T391" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="392">
@@ -31720,24 +31720,24 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N392" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O392" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P392" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R392" t="inlineStr">
@@ -31746,10 +31746,10 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T392" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="393">
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E393" t="n">
         <v>5</v>
@@ -31800,24 +31800,24 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N393" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O393" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P393" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
@@ -31826,10 +31826,10 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T393" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="394">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E394" t="n">
         <v>5</v>
@@ -31880,24 +31880,24 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N394" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O394" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P394" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
@@ -31906,10 +31906,10 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T394" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="395">
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E395" t="n">
         <v>5</v>
@@ -31960,24 +31960,24 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N395" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O395" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P395" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R395" t="inlineStr">
@@ -31986,10 +31986,10 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="T395" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="396">
@@ -32040,24 +32040,24 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N396" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O396" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P396" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
@@ -32066,10 +32066,10 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T396" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="397">
@@ -32120,24 +32120,24 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N397" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O397" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P397" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
@@ -32146,10 +32146,10 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T397" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="398">
@@ -32200,24 +32200,24 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="N398" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O398" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P398" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
@@ -32226,10 +32226,10 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T398" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="399">
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E399" t="n">
         <v>5</v>
@@ -32275,29 +32275,29 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M399" t="n">
         <v>60</v>
       </c>
       <c r="N399" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O399" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P399" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
@@ -32306,10 +32306,10 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T399" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="400">
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E400" t="n">
         <v>5</v>
@@ -32355,25 +32355,25 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N400" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O400" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P400" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T400" t="n">
         <v>10</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E401" t="n">
         <v>5</v>
@@ -32435,7 +32435,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
@@ -32444,20 +32444,20 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N401" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O401" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P401" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
@@ -32466,10 +32466,10 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T401" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="402">
@@ -32515,7 +32515,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -32524,7 +32524,7 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N402" t="n">
         <v>7000</v>
@@ -32595,7 +32595,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -32604,7 +32604,7 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N403" t="n">
         <v>6000</v>
@@ -32675,7 +32675,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -32684,7 +32684,7 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N404" t="n">
         <v>5000</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E405" t="n">
         <v>5</v>
@@ -32755,25 +32755,25 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N405" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O405" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P405" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32782,11 +32782,11 @@
       </c>
       <c r="R405" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S405" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T405" t="n">
         <v>10</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E406" t="n">
         <v>5</v>
@@ -32835,25 +32835,25 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="N406" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O406" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P406" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32862,11 +32862,11 @@
       </c>
       <c r="R406" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S406" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T406" t="n">
         <v>10</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E407" t="n">
         <v>5</v>
@@ -32915,25 +32915,25 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N407" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O407" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P407" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T407" t="n">
         <v>10</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E408" t="n">
         <v>5</v>
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N408" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O408" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P408" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33022,11 +33022,11 @@
       </c>
       <c r="R408" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S408" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T408" t="n">
         <v>10</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E409" t="n">
         <v>5</v>
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N409" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O409" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P409" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33102,11 +33102,11 @@
       </c>
       <c r="R409" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S409" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T409" t="n">
         <v>10</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E410" t="n">
         <v>5</v>
@@ -33155,7 +33155,7 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
@@ -33164,7 +33164,7 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N410" t="n">
         <v>7000</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E411" t="n">
         <v>5</v>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33244,7 +33244,7 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="N411" t="n">
         <v>6000</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E412" t="n">
         <v>5</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33324,7 +33324,7 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N412" t="n">
         <v>5000</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E413" t="n">
         <v>5</v>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N413" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O413" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P413" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T413" t="n">
         <v>10</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E414" t="n">
         <v>5</v>
@@ -33475,29 +33475,29 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N414" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O414" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P414" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
@@ -33506,10 +33506,10 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T414" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="415">
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E415" t="n">
         <v>5</v>
@@ -33555,25 +33555,25 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N415" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O415" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P415" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T415" t="n">
         <v>10</v>
@@ -33640,24 +33640,24 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N416" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O416" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P416" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
@@ -33666,10 +33666,10 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T416" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="417">
@@ -33720,24 +33720,24 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N417" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O417" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P417" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R417" t="inlineStr">
@@ -33746,10 +33746,10 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T417" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="418">
@@ -33800,24 +33800,24 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N418" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O418" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P418" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
@@ -33826,10 +33826,10 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T418" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="419">
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E419" t="n">
         <v>5</v>
@@ -33875,29 +33875,29 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N419" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O419" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P419" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R419" t="inlineStr">
@@ -33906,10 +33906,10 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T419" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="420">
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E420" t="n">
         <v>5</v>
@@ -33955,25 +33955,25 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N420" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O420" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P420" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T420" t="n">
         <v>10</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E421" t="n">
         <v>5</v>
@@ -34035,7 +34035,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
@@ -34044,20 +34044,20 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N421" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O421" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P421" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R421" t="inlineStr">
@@ -34066,10 +34066,10 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T421" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="422">
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E422" t="n">
         <v>5</v>
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N422" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O422" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P422" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T422" t="n">
         <v>10</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E423" t="n">
         <v>5</v>
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N423" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O423" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P423" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T423" t="n">
         <v>10</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E424" t="n">
         <v>5</v>
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N424" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O424" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P424" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T424" t="n">
         <v>10</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E425" t="n">
         <v>5</v>
@@ -34355,7 +34355,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -34364,20 +34364,20 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N425" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O425" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P425" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R425" t="inlineStr">
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T425" t="n">
         <v>10</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E426" t="n">
         <v>5</v>
@@ -34435,7 +34435,7 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
@@ -34444,20 +34444,20 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N426" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O426" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P426" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T426" t="n">
         <v>10</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E427" t="n">
         <v>5</v>
@@ -34515,7 +34515,7 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
@@ -34524,20 +34524,20 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N427" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O427" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P427" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R427" t="inlineStr">
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T427" t="n">
         <v>10</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E428" t="n">
         <v>5</v>
@@ -34595,7 +34595,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -34604,20 +34604,20 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N428" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O428" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P428" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T428" t="n">
         <v>10</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E429" t="n">
         <v>5</v>
@@ -34675,29 +34675,29 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N429" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O429" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P429" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R429" t="inlineStr">
@@ -34706,10 +34706,10 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T429" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="430">
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E430" t="n">
         <v>5</v>
@@ -34755,29 +34755,29 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N430" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O430" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P430" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T430" t="n">
         <v>10</v>
@@ -34840,24 +34840,24 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N431" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O431" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P431" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
@@ -34866,10 +34866,10 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T431" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="432">
@@ -34920,24 +34920,24 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N432" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O432" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P432" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
@@ -34946,10 +34946,10 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T432" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="433">
@@ -35000,24 +35000,24 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N433" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O433" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P433" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R433" t="inlineStr">
@@ -35026,10 +35026,10 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T433" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="434">
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E434" t="n">
         <v>5</v>
@@ -35075,16 +35075,16 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N434" t="n">
         <v>8000</v>
@@ -35097,7 +35097,7 @@
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
@@ -35106,10 +35106,10 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T434" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="435">
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E435" t="n">
         <v>5</v>
@@ -35155,29 +35155,29 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N435" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O435" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P435" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
@@ -35186,10 +35186,10 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T435" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="436">
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E436" t="n">
         <v>5</v>
@@ -35235,16 +35235,16 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N436" t="n">
         <v>7000</v>
@@ -35257,7 +35257,7 @@
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
@@ -35266,10 +35266,10 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="T436" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="437">
@@ -35320,24 +35320,24 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N437" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O437" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P437" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
@@ -35346,10 +35346,10 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T437" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="438">
@@ -35400,24 +35400,24 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N438" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O438" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P438" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
@@ -35426,10 +35426,10 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T438" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="439">
@@ -35480,24 +35480,24 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N439" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O439" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P439" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
@@ -35506,10 +35506,10 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T439" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="440">
@@ -35555,29 +35555,29 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N440" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O440" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P440" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
@@ -35586,10 +35586,10 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T440" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="441">
@@ -35635,25 +35635,25 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M441" t="n">
         <v>68</v>
       </c>
       <c r="N441" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O441" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P441" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T441" t="n">
         <v>10</v>
@@ -35715,7 +35715,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
@@ -35724,20 +35724,20 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N442" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O442" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P442" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
@@ -35746,10 +35746,10 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T442" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="443">
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E443" t="n">
         <v>5</v>
@@ -35804,16 +35804,16 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N443" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O443" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P443" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T443" t="n">
         <v>10</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E444" t="n">
         <v>5</v>
@@ -35884,16 +35884,16 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N444" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O444" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P444" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T444" t="n">
         <v>10</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E445" t="n">
         <v>5</v>
@@ -35964,16 +35964,16 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N445" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O445" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P445" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T445" t="n">
         <v>10</v>
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36044,16 +36044,16 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N446" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O446" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P446" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36062,11 +36062,11 @@
       </c>
       <c r="R446" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S446" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T446" t="n">
         <v>10</v>
@@ -36115,7 +36115,7 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
@@ -36124,16 +36124,16 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="N447" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O447" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P447" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36142,11 +36142,11 @@
       </c>
       <c r="R447" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S447" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T447" t="n">
         <v>10</v>
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36204,16 +36204,16 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N448" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O448" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P448" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36222,11 +36222,11 @@
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S448" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T448" t="n">
         <v>10</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E449" t="n">
         <v>5</v>
@@ -36275,7 +36275,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -36284,16 +36284,16 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="N449" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O449" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P449" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36302,11 +36302,11 @@
       </c>
       <c r="R449" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S449" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T449" t="n">
         <v>10</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E450" t="n">
         <v>5</v>
@@ -36355,41 +36355,41 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="N450" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O450" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P450" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S450" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T450" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="451">
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E451" t="n">
         <v>5</v>
@@ -36435,16 +36435,16 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N451" t="n">
         <v>6000</v>
@@ -36462,7 +36462,7 @@
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S451" t="n">
@@ -36520,24 +36520,24 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M452" t="n">
         <v>75</v>
       </c>
       <c r="N452" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O452" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P452" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
@@ -36546,10 +36546,10 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T452" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="453">
@@ -36600,24 +36600,24 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N453" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O453" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P453" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R453" t="inlineStr">
@@ -36626,10 +36626,10 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T453" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="454">
@@ -36680,24 +36680,24 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N454" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O454" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P454" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R454" t="inlineStr">
@@ -36706,10 +36706,10 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T454" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="455">
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E455" t="n">
         <v>5</v>
@@ -36755,7 +36755,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -36764,20 +36764,20 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N455" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O455" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P455" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
@@ -36786,10 +36786,10 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T455" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="456">
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E456" t="n">
         <v>5</v>
@@ -36835,7 +36835,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -36844,16 +36844,16 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N456" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O456" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P456" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T456" t="n">
         <v>10</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E457" t="n">
         <v>5</v>
@@ -36920,24 +36920,24 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N457" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O457" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P457" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
@@ -36946,10 +36946,10 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="T457" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="458">
@@ -36995,7 +36995,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -37004,7 +37004,7 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N458" t="n">
         <v>7000</v>
@@ -37075,7 +37075,7 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -37084,7 +37084,7 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N459" t="n">
         <v>6000</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E460" t="n">
         <v>5</v>
@@ -37160,20 +37160,20 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N460" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O460" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P460" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T460" t="n">
         <v>10</v>
@@ -37207,68 +37207,308 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E461" t="n">
+        <v>5</v>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G461" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I461" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M461" t="n">
+        <v>85</v>
+      </c>
+      <c r="N461" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O461" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P461" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q461" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R461" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S461" t="n">
+        <v>700</v>
+      </c>
+      <c r="T461" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>3</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D462" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E462" t="n">
+        <v>5</v>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G462" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I462" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M462" t="n">
+        <v>80</v>
+      </c>
+      <c r="N462" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O462" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P462" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q462" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R462" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S462" t="n">
+        <v>600</v>
+      </c>
+      <c r="T462" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>3</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D463" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E461" t="n">
-        <v>5</v>
-      </c>
-      <c r="F461" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G461" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I461" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J461" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K461" t="inlineStr">
+      <c r="E463" t="n">
+        <v>5</v>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G463" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I463" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K463" t="inlineStr">
         <is>
           <t>Clemenuless</t>
         </is>
       </c>
-      <c r="L461" t="inlineStr">
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M463" t="n">
+        <v>80</v>
+      </c>
+      <c r="N463" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O463" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P463" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q463" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R463" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S463" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T463" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>3</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D464" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E464" t="n">
+        <v>5</v>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G464" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I464" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L464" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M461" t="n">
+      <c r="M464" t="n">
         <v>80</v>
       </c>
-      <c r="N461" t="n">
+      <c r="N464" t="n">
         <v>9000</v>
       </c>
-      <c r="O461" t="n">
+      <c r="O464" t="n">
         <v>9000</v>
       </c>
-      <c r="P461" t="n">
+      <c r="P464" t="n">
         <v>9000</v>
       </c>
-      <c r="Q461" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R461" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="S461" t="n">
+      <c r="Q464" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R464" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S464" t="n">
         <v>900</v>
       </c>
-      <c r="T461" t="n">
+      <c r="T464" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T464"/>
+  <dimension ref="A1:T467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E336" t="n">
         <v>5</v>
@@ -27235,7 +27235,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -27244,7 +27244,7 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N336" t="n">
         <v>7000</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E337" t="n">
         <v>5</v>
@@ -27315,7 +27315,7 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
@@ -27324,7 +27324,7 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="N337" t="n">
         <v>6000</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E338" t="n">
         <v>5</v>
@@ -27395,7 +27395,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -27404,7 +27404,7 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="N338" t="n">
         <v>5000</v>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27484,7 +27484,7 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N339" t="n">
         <v>7000</v>
@@ -27555,7 +27555,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -27564,7 +27564,7 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="N340" t="n">
         <v>6000</v>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -27644,7 +27644,7 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="N341" t="n">
         <v>5000</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E342" t="n">
         <v>5</v>
@@ -27715,16 +27715,16 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N342" t="n">
         <v>7000</v>
@@ -27737,7 +27737,7 @@
       </c>
       <c r="Q342" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R342" t="inlineStr">
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E343" t="n">
         <v>5</v>
@@ -27795,16 +27795,16 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N343" t="n">
         <v>6000</v>
@@ -27817,7 +27817,7 @@
       </c>
       <c r="Q343" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R343" t="inlineStr">
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E344" t="n">
         <v>5</v>
@@ -27875,25 +27875,25 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="N344" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O344" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P344" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T344" t="n">
         <v>10</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E345" t="n">
         <v>5</v>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -27964,7 +27964,7 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="N345" t="n">
         <v>7000</v>
@@ -27977,7 +27977,7 @@
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R345" t="inlineStr">
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E346" t="n">
         <v>5</v>
@@ -28035,7 +28035,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
@@ -28044,7 +28044,7 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N346" t="n">
         <v>6000</v>
@@ -28057,7 +28057,7 @@
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R346" t="inlineStr">
@@ -28115,7 +28115,7 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
@@ -28124,7 +28124,7 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="N347" t="n">
         <v>8000</v>
@@ -28195,7 +28195,7 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -28204,7 +28204,7 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N348" t="n">
         <v>7000</v>
@@ -28275,7 +28275,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -28284,7 +28284,7 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N349" t="n">
         <v>6000</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E350" t="n">
         <v>5</v>
@@ -28355,7 +28355,7 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N350" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O350" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P350" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T350" t="n">
         <v>10</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E351" t="n">
         <v>5</v>
@@ -28435,7 +28435,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -28444,16 +28444,16 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N351" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O351" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P351" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T351" t="n">
         <v>10</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E352" t="n">
         <v>5</v>
@@ -28515,16 +28515,16 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M352" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N352" t="n">
         <v>6000</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E353" t="n">
         <v>5</v>
@@ -28600,20 +28600,20 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M353" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N353" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O353" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P353" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T353" t="n">
         <v>10</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E354" t="n">
         <v>5</v>
@@ -28680,20 +28680,20 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M354" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N354" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O354" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P354" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T354" t="n">
         <v>10</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E355" t="n">
         <v>5</v>
@@ -28760,20 +28760,20 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N355" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O355" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P355" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28782,11 +28782,11 @@
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S355" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T355" t="n">
         <v>10</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E356" t="n">
         <v>5</v>
@@ -28840,20 +28840,20 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N356" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O356" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P356" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28862,11 +28862,11 @@
       </c>
       <c r="R356" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S356" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T356" t="n">
         <v>10</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44312</v>
+        <v>44447</v>
       </c>
       <c r="E357" t="n">
         <v>5</v>
@@ -28920,20 +28920,20 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N357" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="O357" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="P357" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="T357" t="n">
         <v>10</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44312</v>
+        <v>44270</v>
       </c>
       <c r="E358" t="n">
         <v>5</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N358" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O358" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P358" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29022,11 +29022,11 @@
       </c>
       <c r="R358" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S358" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T358" t="n">
         <v>10</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44390</v>
+        <v>44270</v>
       </c>
       <c r="E359" t="n">
         <v>5</v>
@@ -29075,16 +29075,16 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N359" t="n">
         <v>7000</v>
@@ -29102,7 +29102,7 @@
       </c>
       <c r="R359" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S359" t="n">
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E360" t="n">
         <v>5</v>
@@ -29155,7 +29155,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N360" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O360" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P360" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T360" t="n">
         <v>10</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E361" t="n">
         <v>5</v>
@@ -29235,7 +29235,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -29244,16 +29244,16 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N361" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O361" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P361" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T361" t="n">
         <v>10</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E362" t="n">
         <v>5</v>
@@ -29315,25 +29315,25 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N362" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O362" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P362" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T362" t="n">
         <v>10</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E363" t="n">
         <v>5</v>
@@ -29395,25 +29395,25 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N363" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O363" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P363" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T363" t="n">
         <v>10</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E364" t="n">
         <v>5</v>
@@ -29480,20 +29480,20 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N364" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O364" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P364" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T364" t="n">
         <v>10</v>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -29564,7 +29564,7 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="N365" t="n">
         <v>6000</v>
@@ -29635,7 +29635,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -29644,7 +29644,7 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N366" t="n">
         <v>5000</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E367" t="n">
         <v>5</v>
@@ -29715,25 +29715,25 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M367" t="n">
         <v>85</v>
       </c>
       <c r="N367" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O367" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P367" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T367" t="n">
         <v>10</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E368" t="n">
         <v>5</v>
@@ -29795,25 +29795,25 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N368" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O368" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P368" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T368" t="n">
         <v>10</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E369" t="n">
         <v>5</v>
@@ -29875,25 +29875,25 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N369" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O369" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P369" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T369" t="n">
         <v>10</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E370" t="n">
         <v>5</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N370" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O370" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P370" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T370" t="n">
         <v>10</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44251</v>
+        <v>44463</v>
       </c>
       <c r="E371" t="n">
         <v>5</v>
@@ -30040,20 +30040,20 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N371" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O371" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P371" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T371" t="n">
         <v>10</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44251</v>
+        <v>44463</v>
       </c>
       <c r="E372" t="n">
         <v>5</v>
@@ -30120,20 +30120,20 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N372" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O372" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P372" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T372" t="n">
         <v>10</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44252</v>
+        <v>44463</v>
       </c>
       <c r="E373" t="n">
         <v>5</v>
@@ -30200,20 +30200,20 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N373" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O373" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P373" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T373" t="n">
         <v>10</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E374" t="n">
         <v>5</v>
@@ -30280,20 +30280,20 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N374" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O374" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P374" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T374" t="n">
         <v>10</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44166</v>
+        <v>44251</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
@@ -30360,20 +30360,20 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M375" t="n">
         <v>50</v>
       </c>
       <c r="N375" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O375" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P375" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T375" t="n">
         <v>10</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E376" t="n">
         <v>5</v>
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N376" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O376" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P376" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T376" t="n">
         <v>10</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E377" t="n">
         <v>5</v>
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="N377" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O377" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P377" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T377" t="n">
         <v>10</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E378" t="n">
         <v>5</v>
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N378" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O378" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P378" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T378" t="n">
         <v>10</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E379" t="n">
         <v>5</v>
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N379" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O379" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P379" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T379" t="n">
         <v>10</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E380" t="n">
         <v>5</v>
@@ -30767,13 +30767,13 @@
         <v>47</v>
       </c>
       <c r="N380" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O380" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P380" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T380" t="n">
         <v>10</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E381" t="n">
         <v>5</v>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -30844,16 +30844,16 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="N381" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O381" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P381" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T381" t="n">
         <v>10</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E382" t="n">
         <v>5</v>
@@ -30915,7 +30915,7 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
@@ -30924,16 +30924,16 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N382" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O382" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P382" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T382" t="n">
         <v>10</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E383" t="n">
         <v>5</v>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N383" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O383" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P383" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T383" t="n">
         <v>10</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E384" t="n">
         <v>5</v>
@@ -31075,7 +31075,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -31084,7 +31084,7 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N384" t="n">
         <v>7000</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E385" t="n">
         <v>5</v>
@@ -31155,7 +31155,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
@@ -31164,7 +31164,7 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N385" t="n">
         <v>6000</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E386" t="n">
         <v>5</v>
@@ -31235,7 +31235,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -31244,7 +31244,7 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N386" t="n">
         <v>5000</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E387" t="n">
         <v>5</v>
@@ -31315,7 +31315,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E388" t="n">
         <v>5</v>
@@ -31395,7 +31395,7 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
@@ -31404,7 +31404,7 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N388" t="n">
         <v>6000</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E389" t="n">
         <v>5</v>
@@ -31475,7 +31475,7 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -31484,7 +31484,7 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N389" t="n">
         <v>5000</v>
@@ -31555,7 +31555,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -31564,7 +31564,7 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N390" t="n">
         <v>7000</v>
@@ -31635,29 +31635,29 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N391" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O391" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P391" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
@@ -31666,10 +31666,10 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T391" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="392">
@@ -31715,25 +31715,25 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N392" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O392" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P392" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T392" t="n">
         <v>10</v>
@@ -31800,24 +31800,24 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N393" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O393" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P393" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R393" t="inlineStr">
@@ -31826,10 +31826,10 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T393" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="394">
@@ -31880,24 +31880,24 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N394" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O394" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P394" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R394" t="inlineStr">
@@ -31906,10 +31906,10 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T394" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="395">
@@ -31960,24 +31960,24 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N395" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O395" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P395" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R395" t="inlineStr">
@@ -31986,10 +31986,10 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T395" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="396">
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E396" t="n">
         <v>5</v>
@@ -32040,24 +32040,24 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N396" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O396" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P396" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R396" t="inlineStr">
@@ -32066,10 +32066,10 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T396" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="397">
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E397" t="n">
         <v>5</v>
@@ -32120,24 +32120,24 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N397" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O397" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P397" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
@@ -32146,10 +32146,10 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T397" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="398">
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E398" t="n">
         <v>5</v>
@@ -32200,24 +32200,24 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N398" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O398" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P398" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R398" t="inlineStr">
@@ -32226,10 +32226,10 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="T398" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="399">
@@ -32280,24 +32280,24 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N399" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O399" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P399" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
@@ -32306,10 +32306,10 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T399" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="400">
@@ -32360,24 +32360,24 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N400" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O400" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P400" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
@@ -32386,10 +32386,10 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T400" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="401">
@@ -32440,24 +32440,24 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="N401" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O401" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P401" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
@@ -32466,10 +32466,10 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T401" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402">
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E402" t="n">
         <v>5</v>
@@ -32515,29 +32515,29 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M402" t="n">
         <v>60</v>
       </c>
       <c r="N402" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O402" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P402" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
@@ -32546,10 +32546,10 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T402" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="403">
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E403" t="n">
         <v>5</v>
@@ -32595,25 +32595,25 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N403" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O403" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P403" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T403" t="n">
         <v>10</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E404" t="n">
         <v>5</v>
@@ -32675,7 +32675,7 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
@@ -32684,20 +32684,20 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N404" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O404" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P404" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
@@ -32706,10 +32706,10 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T404" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="405">
@@ -32755,7 +32755,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -32764,7 +32764,7 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N405" t="n">
         <v>7000</v>
@@ -32835,7 +32835,7 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -32844,7 +32844,7 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N406" t="n">
         <v>6000</v>
@@ -32915,7 +32915,7 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -32924,7 +32924,7 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N407" t="n">
         <v>5000</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E408" t="n">
         <v>5</v>
@@ -32995,25 +32995,25 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N408" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O408" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P408" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33022,11 +33022,11 @@
       </c>
       <c r="R408" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S408" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T408" t="n">
         <v>10</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E409" t="n">
         <v>5</v>
@@ -33075,25 +33075,25 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="N409" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O409" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P409" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33102,11 +33102,11 @@
       </c>
       <c r="R409" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S409" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T409" t="n">
         <v>10</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E410" t="n">
         <v>5</v>
@@ -33155,25 +33155,25 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N410" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O410" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P410" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T410" t="n">
         <v>10</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E411" t="n">
         <v>5</v>
@@ -33244,16 +33244,16 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N411" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O411" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P411" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33262,11 +33262,11 @@
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S411" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T411" t="n">
         <v>10</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E412" t="n">
         <v>5</v>
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N412" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O412" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P412" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33342,11 +33342,11 @@
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S412" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T412" t="n">
         <v>10</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E413" t="n">
         <v>5</v>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -33404,7 +33404,7 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N413" t="n">
         <v>7000</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E414" t="n">
         <v>5</v>
@@ -33475,7 +33475,7 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -33484,7 +33484,7 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="N414" t="n">
         <v>6000</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E415" t="n">
         <v>5</v>
@@ -33555,7 +33555,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -33564,7 +33564,7 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N415" t="n">
         <v>5000</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E416" t="n">
         <v>5</v>
@@ -33635,7 +33635,7 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N416" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O416" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P416" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T416" t="n">
         <v>10</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E417" t="n">
         <v>5</v>
@@ -33715,29 +33715,29 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M417" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N417" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O417" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P417" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R417" t="inlineStr">
@@ -33746,10 +33746,10 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T417" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="418">
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E418" t="n">
         <v>5</v>
@@ -33795,25 +33795,25 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N418" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O418" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P418" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T418" t="n">
         <v>10</v>
@@ -33880,24 +33880,24 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N419" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O419" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P419" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R419" t="inlineStr">
@@ -33906,10 +33906,10 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T419" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="420">
@@ -33960,24 +33960,24 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M420" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N420" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O420" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P420" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R420" t="inlineStr">
@@ -33986,10 +33986,10 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T420" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="421">
@@ -34040,24 +34040,24 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N421" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O421" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P421" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R421" t="inlineStr">
@@ -34066,10 +34066,10 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T421" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="422">
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E422" t="n">
         <v>5</v>
@@ -34115,29 +34115,29 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N422" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O422" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P422" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R422" t="inlineStr">
@@ -34146,10 +34146,10 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T422" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="423">
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E423" t="n">
         <v>5</v>
@@ -34195,25 +34195,25 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N423" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O423" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P423" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T423" t="n">
         <v>10</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E424" t="n">
         <v>5</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34284,20 +34284,20 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N424" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O424" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P424" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R424" t="inlineStr">
@@ -34306,10 +34306,10 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T424" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="425">
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E425" t="n">
         <v>5</v>
@@ -34364,16 +34364,16 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N425" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O425" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P425" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T425" t="n">
         <v>10</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E426" t="n">
         <v>5</v>
@@ -34444,16 +34444,16 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N426" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O426" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P426" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T426" t="n">
         <v>10</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E427" t="n">
         <v>5</v>
@@ -34524,16 +34524,16 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N427" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O427" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P427" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T427" t="n">
         <v>10</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E428" t="n">
         <v>5</v>
@@ -34595,7 +34595,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -34604,20 +34604,20 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N428" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O428" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P428" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T428" t="n">
         <v>10</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E429" t="n">
         <v>5</v>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -34684,20 +34684,20 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N429" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O429" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P429" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R429" t="inlineStr">
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T429" t="n">
         <v>10</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E430" t="n">
         <v>5</v>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,20 +34764,20 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N430" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O430" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P430" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T430" t="n">
         <v>10</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E431" t="n">
         <v>5</v>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -34844,20 +34844,20 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N431" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O431" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P431" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R431" t="inlineStr">
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T431" t="n">
         <v>10</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E432" t="n">
         <v>5</v>
@@ -34915,29 +34915,29 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N432" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O432" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P432" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
@@ -34946,10 +34946,10 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T432" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="433">
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E433" t="n">
         <v>5</v>
@@ -34995,29 +34995,29 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N433" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O433" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P433" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R433" t="inlineStr">
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T433" t="n">
         <v>10</v>
@@ -35080,24 +35080,24 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N434" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O434" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P434" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
@@ -35106,10 +35106,10 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T434" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="435">
@@ -35160,24 +35160,24 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N435" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O435" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P435" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
@@ -35186,10 +35186,10 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T435" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="436">
@@ -35240,24 +35240,24 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N436" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O436" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P436" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
@@ -35266,10 +35266,10 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T436" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="437">
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E437" t="n">
         <v>5</v>
@@ -35315,16 +35315,16 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N437" t="n">
         <v>8000</v>
@@ -35337,7 +35337,7 @@
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
@@ -35346,10 +35346,10 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T437" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="438">
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E438" t="n">
         <v>5</v>
@@ -35395,29 +35395,29 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N438" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O438" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P438" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
@@ -35426,10 +35426,10 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T438" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="439">
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E439" t="n">
         <v>5</v>
@@ -35475,16 +35475,16 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N439" t="n">
         <v>7000</v>
@@ -35497,7 +35497,7 @@
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
@@ -35506,10 +35506,10 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="T439" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="440">
@@ -35560,24 +35560,24 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N440" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O440" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P440" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
@@ -35586,10 +35586,10 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T440" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="441">
@@ -35640,24 +35640,24 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N441" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O441" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P441" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
@@ -35666,10 +35666,10 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T441" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="442">
@@ -35720,24 +35720,24 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N442" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O442" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P442" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
@@ -35746,10 +35746,10 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T442" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="443">
@@ -35795,29 +35795,29 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N443" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O443" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P443" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R443" t="inlineStr">
@@ -35826,10 +35826,10 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T443" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="444">
@@ -35875,25 +35875,25 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M444" t="n">
         <v>68</v>
       </c>
       <c r="N444" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O444" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P444" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T444" t="n">
         <v>10</v>
@@ -35955,7 +35955,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -35964,20 +35964,20 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N445" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O445" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P445" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
@@ -35986,10 +35986,10 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T445" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="446">
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E446" t="n">
         <v>5</v>
@@ -36044,16 +36044,16 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N446" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O446" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P446" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T446" t="n">
         <v>10</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E447" t="n">
         <v>5</v>
@@ -36124,16 +36124,16 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N447" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O447" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P447" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T447" t="n">
         <v>10</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E448" t="n">
         <v>5</v>
@@ -36204,16 +36204,16 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N448" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O448" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P448" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T448" t="n">
         <v>10</v>
@@ -36275,7 +36275,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -36284,16 +36284,16 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N449" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O449" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P449" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36302,11 +36302,11 @@
       </c>
       <c r="R449" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S449" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T449" t="n">
         <v>10</v>
@@ -36355,7 +36355,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -36364,16 +36364,16 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="N450" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O450" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P450" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36382,11 +36382,11 @@
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S450" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T450" t="n">
         <v>10</v>
@@ -36435,7 +36435,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -36444,16 +36444,16 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N451" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O451" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P451" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36462,11 +36462,11 @@
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S451" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T451" t="n">
         <v>10</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -36515,7 +36515,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -36524,16 +36524,16 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="N452" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O452" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P452" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36542,11 +36542,11 @@
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S452" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T452" t="n">
         <v>10</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E453" t="n">
         <v>5</v>
@@ -36595,41 +36595,41 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="N453" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O453" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P453" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S453" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T453" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="454">
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E454" t="n">
         <v>5</v>
@@ -36675,16 +36675,16 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N454" t="n">
         <v>6000</v>
@@ -36702,7 +36702,7 @@
       </c>
       <c r="R454" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S454" t="n">
@@ -36760,24 +36760,24 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M455" t="n">
         <v>75</v>
       </c>
       <c r="N455" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O455" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P455" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
@@ -36786,10 +36786,10 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T455" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="456">
@@ -36840,24 +36840,24 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N456" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O456" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P456" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
@@ -36866,10 +36866,10 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T456" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="457">
@@ -36920,24 +36920,24 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N457" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O457" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P457" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
@@ -36946,10 +36946,10 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T457" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="458">
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E458" t="n">
         <v>5</v>
@@ -36995,7 +36995,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -37004,20 +37004,20 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N458" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O458" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P458" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R458" t="inlineStr">
@@ -37026,10 +37026,10 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T458" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="459">
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E459" t="n">
         <v>5</v>
@@ -37075,7 +37075,7 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -37084,16 +37084,16 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N459" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O459" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P459" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T459" t="n">
         <v>10</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E460" t="n">
         <v>5</v>
@@ -37160,24 +37160,24 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N460" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O460" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P460" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
@@ -37186,10 +37186,10 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="T460" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="461">
@@ -37235,7 +37235,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -37244,7 +37244,7 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N461" t="n">
         <v>7000</v>
@@ -37315,7 +37315,7 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
@@ -37324,7 +37324,7 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N462" t="n">
         <v>6000</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -37400,20 +37400,20 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N463" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O463" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P463" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T463" t="n">
         <v>10</v>
@@ -37447,68 +37447,308 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E464" t="n">
+        <v>5</v>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G464" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I464" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M464" t="n">
+        <v>85</v>
+      </c>
+      <c r="N464" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O464" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P464" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q464" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R464" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S464" t="n">
+        <v>700</v>
+      </c>
+      <c r="T464" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>3</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D465" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E465" t="n">
+        <v>5</v>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G465" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I465" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M465" t="n">
+        <v>80</v>
+      </c>
+      <c r="N465" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O465" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P465" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q465" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R465" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S465" t="n">
+        <v>600</v>
+      </c>
+      <c r="T465" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>3</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D466" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E464" t="n">
-        <v>5</v>
-      </c>
-      <c r="F464" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G464" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I464" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J464" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K464" t="inlineStr">
+      <c r="E466" t="n">
+        <v>5</v>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G466" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I466" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K466" t="inlineStr">
         <is>
           <t>Clemenuless</t>
         </is>
       </c>
-      <c r="L464" t="inlineStr">
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M466" t="n">
+        <v>80</v>
+      </c>
+      <c r="N466" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O466" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P466" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q466" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R466" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S466" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T466" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>3</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D467" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E467" t="n">
+        <v>5</v>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G467" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I467" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L467" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M464" t="n">
+      <c r="M467" t="n">
         <v>80</v>
       </c>
-      <c r="N464" t="n">
+      <c r="N467" t="n">
         <v>9000</v>
       </c>
-      <c r="O464" t="n">
+      <c r="O467" t="n">
         <v>9000</v>
       </c>
-      <c r="P464" t="n">
+      <c r="P467" t="n">
         <v>9000</v>
       </c>
-      <c r="Q464" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R464" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="S464" t="n">
+      <c r="Q467" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R467" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S467" t="n">
         <v>900</v>
       </c>
-      <c r="T464" t="n">
+      <c r="T467" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T470"/>
+  <dimension ref="A1:T473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E363" t="n">
         <v>5</v>
@@ -29400,20 +29400,20 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N363" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O363" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P363" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T363" t="n">
         <v>10</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E364" t="n">
         <v>5</v>
@@ -29480,20 +29480,20 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N364" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O364" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P364" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T364" t="n">
         <v>10</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E365" t="n">
         <v>5</v>
@@ -29555,25 +29555,25 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N365" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O365" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P365" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T365" t="n">
         <v>10</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E366" t="n">
         <v>5</v>
@@ -29635,7 +29635,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N366" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O366" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P366" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T366" t="n">
         <v>10</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E367" t="n">
         <v>5</v>
@@ -29715,7 +29715,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N367" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O367" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P367" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T367" t="n">
         <v>10</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E368" t="n">
         <v>5</v>
@@ -29795,25 +29795,25 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N368" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O368" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P368" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T368" t="n">
         <v>10</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E369" t="n">
         <v>5</v>
@@ -29875,25 +29875,25 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N369" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O369" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P369" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T369" t="n">
         <v>10</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E370" t="n">
         <v>5</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N370" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O370" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P370" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T370" t="n">
         <v>10</v>
@@ -30035,7 +30035,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -30044,7 +30044,7 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="N371" t="n">
         <v>6000</v>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30124,7 +30124,7 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N372" t="n">
         <v>5000</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E373" t="n">
         <v>5</v>
@@ -30195,25 +30195,25 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M373" t="n">
         <v>85</v>
       </c>
       <c r="N373" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O373" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P373" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T373" t="n">
         <v>10</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E374" t="n">
         <v>5</v>
@@ -30275,25 +30275,25 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="N374" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O374" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P374" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T374" t="n">
         <v>10</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
@@ -30355,25 +30355,25 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N375" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O375" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P375" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T375" t="n">
         <v>10</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E376" t="n">
         <v>5</v>
@@ -30440,20 +30440,20 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N376" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O376" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P376" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T376" t="n">
         <v>10</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44251</v>
+        <v>44463</v>
       </c>
       <c r="E377" t="n">
         <v>5</v>
@@ -30520,20 +30520,20 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N377" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O377" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P377" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T377" t="n">
         <v>10</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44251</v>
+        <v>44463</v>
       </c>
       <c r="E378" t="n">
         <v>5</v>
@@ -30600,20 +30600,20 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N378" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O378" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P378" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T378" t="n">
         <v>10</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44252</v>
+        <v>44463</v>
       </c>
       <c r="E379" t="n">
         <v>5</v>
@@ -30680,20 +30680,20 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N379" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O379" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P379" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T379" t="n">
         <v>10</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E380" t="n">
         <v>5</v>
@@ -30760,20 +30760,20 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N380" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O380" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P380" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T380" t="n">
         <v>10</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44166</v>
+        <v>44251</v>
       </c>
       <c r="E381" t="n">
         <v>5</v>
@@ -30840,20 +30840,20 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M381" t="n">
         <v>50</v>
       </c>
       <c r="N381" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O381" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P381" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T381" t="n">
         <v>10</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E382" t="n">
         <v>5</v>
@@ -30924,16 +30924,16 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N382" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O382" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P382" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T382" t="n">
         <v>10</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E383" t="n">
         <v>5</v>
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="N383" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O383" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P383" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T383" t="n">
         <v>10</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E384" t="n">
         <v>5</v>
@@ -31084,16 +31084,16 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N384" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O384" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P384" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T384" t="n">
         <v>10</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E385" t="n">
         <v>5</v>
@@ -31164,16 +31164,16 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N385" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O385" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P385" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T385" t="n">
         <v>10</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E386" t="n">
         <v>5</v>
@@ -31247,13 +31247,13 @@
         <v>47</v>
       </c>
       <c r="N386" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O386" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P386" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T386" t="n">
         <v>10</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E387" t="n">
         <v>5</v>
@@ -31315,7 +31315,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
@@ -31324,16 +31324,16 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="N387" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O387" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P387" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T387" t="n">
         <v>10</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E388" t="n">
         <v>5</v>
@@ -31395,7 +31395,7 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
@@ -31404,16 +31404,16 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N388" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O388" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P388" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T388" t="n">
         <v>10</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E389" t="n">
         <v>5</v>
@@ -31475,7 +31475,7 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -31484,16 +31484,16 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N389" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="O389" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="P389" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="T389" t="n">
         <v>10</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E390" t="n">
         <v>5</v>
@@ -31555,7 +31555,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -31564,7 +31564,7 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N390" t="n">
         <v>7000</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E391" t="n">
         <v>5</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,7 +31644,7 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N391" t="n">
         <v>6000</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E392" t="n">
         <v>5</v>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31724,7 +31724,7 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="N392" t="n">
         <v>5000</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E393" t="n">
         <v>5</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E394" t="n">
         <v>5</v>
@@ -31875,7 +31875,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -31884,7 +31884,7 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N394" t="n">
         <v>6000</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E395" t="n">
         <v>5</v>
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -31964,7 +31964,7 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N395" t="n">
         <v>5000</v>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -32044,7 +32044,7 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N396" t="n">
         <v>7000</v>
@@ -32115,29 +32115,29 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N397" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O397" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P397" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
@@ -32146,10 +32146,10 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T397" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="398">
@@ -32195,25 +32195,25 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N398" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O398" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P398" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T398" t="n">
         <v>10</v>
@@ -32280,24 +32280,24 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N399" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O399" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P399" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
@@ -32306,10 +32306,10 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T399" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="400">
@@ -32360,24 +32360,24 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N400" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O400" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P400" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
@@ -32386,10 +32386,10 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T400" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="401">
@@ -32440,24 +32440,24 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N401" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O401" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P401" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R401" t="inlineStr">
@@ -32466,10 +32466,10 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T401" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402">
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E402" t="n">
         <v>5</v>
@@ -32520,24 +32520,24 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N402" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O402" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P402" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
@@ -32546,10 +32546,10 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T402" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="403">
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E403" t="n">
         <v>5</v>
@@ -32600,24 +32600,24 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N403" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O403" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P403" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
@@ -32626,10 +32626,10 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T403" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="404">
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E404" t="n">
         <v>5</v>
@@ -32680,24 +32680,24 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N404" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O404" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P404" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R404" t="inlineStr">
@@ -32706,10 +32706,10 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="T404" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="405">
@@ -32760,24 +32760,24 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N405" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O405" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P405" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R405" t="inlineStr">
@@ -32786,10 +32786,10 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T405" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="406">
@@ -32840,24 +32840,24 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N406" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O406" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P406" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
@@ -32866,10 +32866,10 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T406" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="407">
@@ -32920,24 +32920,24 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="N407" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O407" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P407" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R407" t="inlineStr">
@@ -32946,10 +32946,10 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T407" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="408">
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E408" t="n">
         <v>5</v>
@@ -32995,29 +32995,29 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M408" t="n">
         <v>60</v>
       </c>
       <c r="N408" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O408" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P408" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R408" t="inlineStr">
@@ -33026,10 +33026,10 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T408" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="409">
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E409" t="n">
         <v>5</v>
@@ -33075,25 +33075,25 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N409" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O409" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P409" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T409" t="n">
         <v>10</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E410" t="n">
         <v>5</v>
@@ -33155,7 +33155,7 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
@@ -33164,20 +33164,20 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N410" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O410" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P410" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R410" t="inlineStr">
@@ -33186,10 +33186,10 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T410" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="411">
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33244,7 +33244,7 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N411" t="n">
         <v>7000</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33324,7 +33324,7 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N412" t="n">
         <v>6000</v>
@@ -33395,7 +33395,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -33404,7 +33404,7 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N413" t="n">
         <v>5000</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E414" t="n">
         <v>5</v>
@@ -33475,25 +33475,25 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N414" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O414" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P414" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33502,11 +33502,11 @@
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S414" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T414" t="n">
         <v>10</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E415" t="n">
         <v>5</v>
@@ -33555,25 +33555,25 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="N415" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O415" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P415" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33582,11 +33582,11 @@
       </c>
       <c r="R415" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S415" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T415" t="n">
         <v>10</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E416" t="n">
         <v>5</v>
@@ -33635,25 +33635,25 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N416" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O416" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P416" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T416" t="n">
         <v>10</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E417" t="n">
         <v>5</v>
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N417" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O417" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P417" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33742,11 +33742,11 @@
       </c>
       <c r="R417" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S417" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T417" t="n">
         <v>10</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E418" t="n">
         <v>5</v>
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N418" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O418" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P418" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33822,11 +33822,11 @@
       </c>
       <c r="R418" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S418" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T418" t="n">
         <v>10</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E419" t="n">
         <v>5</v>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -33884,7 +33884,7 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N419" t="n">
         <v>7000</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E420" t="n">
         <v>5</v>
@@ -33955,7 +33955,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -33964,7 +33964,7 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="N420" t="n">
         <v>6000</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E421" t="n">
         <v>5</v>
@@ -34035,7 +34035,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
@@ -34044,7 +34044,7 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N421" t="n">
         <v>5000</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E422" t="n">
         <v>5</v>
@@ -34115,7 +34115,7 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N422" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O422" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P422" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T422" t="n">
         <v>10</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E423" t="n">
         <v>5</v>
@@ -34195,29 +34195,29 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N423" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O423" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P423" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R423" t="inlineStr">
@@ -34226,10 +34226,10 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T423" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="424">
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E424" t="n">
         <v>5</v>
@@ -34275,25 +34275,25 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N424" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O424" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P424" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T424" t="n">
         <v>10</v>
@@ -34360,24 +34360,24 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N425" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O425" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P425" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R425" t="inlineStr">
@@ -34386,10 +34386,10 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T425" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="426">
@@ -34440,24 +34440,24 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N426" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O426" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P426" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
@@ -34466,10 +34466,10 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T426" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="427">
@@ -34520,24 +34520,24 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N427" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O427" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P427" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R427" t="inlineStr">
@@ -34546,10 +34546,10 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T427" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="428">
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E428" t="n">
         <v>5</v>
@@ -34595,29 +34595,29 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N428" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O428" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P428" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
@@ -34626,10 +34626,10 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T428" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="429">
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E429" t="n">
         <v>5</v>
@@ -34675,25 +34675,25 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N429" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O429" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P429" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T429" t="n">
         <v>10</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E430" t="n">
         <v>5</v>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,20 +34764,20 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N430" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O430" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P430" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
@@ -34786,10 +34786,10 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T430" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="431">
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E431" t="n">
         <v>5</v>
@@ -34844,16 +34844,16 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N431" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O431" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P431" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T431" t="n">
         <v>10</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E432" t="n">
         <v>5</v>
@@ -34924,16 +34924,16 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N432" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O432" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P432" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T432" t="n">
         <v>10</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E433" t="n">
         <v>5</v>
@@ -35004,16 +35004,16 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N433" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O433" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P433" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T433" t="n">
         <v>10</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E434" t="n">
         <v>5</v>
@@ -35075,7 +35075,7 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -35084,20 +35084,20 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N434" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O434" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P434" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T434" t="n">
         <v>10</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E435" t="n">
         <v>5</v>
@@ -35155,7 +35155,7 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
@@ -35164,20 +35164,20 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N435" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O435" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P435" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T435" t="n">
         <v>10</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E436" t="n">
         <v>5</v>
@@ -35235,7 +35235,7 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
@@ -35244,20 +35244,20 @@
         </is>
       </c>
       <c r="M436" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N436" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O436" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P436" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T436" t="n">
         <v>10</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E437" t="n">
         <v>5</v>
@@ -35315,7 +35315,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -35324,20 +35324,20 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N437" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O437" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P437" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T437" t="n">
         <v>10</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E438" t="n">
         <v>5</v>
@@ -35395,29 +35395,29 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N438" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O438" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P438" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
@@ -35426,10 +35426,10 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T438" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="439">
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E439" t="n">
         <v>5</v>
@@ -35475,29 +35475,29 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N439" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O439" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P439" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T439" t="n">
         <v>10</v>
@@ -35560,24 +35560,24 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N440" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O440" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P440" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
@@ -35586,10 +35586,10 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T440" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="441">
@@ -35640,24 +35640,24 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M441" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N441" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O441" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P441" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
@@ -35666,10 +35666,10 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T441" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="442">
@@ -35720,24 +35720,24 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N442" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O442" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P442" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
@@ -35746,10 +35746,10 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T442" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="443">
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E443" t="n">
         <v>5</v>
@@ -35795,16 +35795,16 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N443" t="n">
         <v>8000</v>
@@ -35817,7 +35817,7 @@
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R443" t="inlineStr">
@@ -35826,10 +35826,10 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T443" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="444">
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E444" t="n">
         <v>5</v>
@@ -35875,29 +35875,29 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N444" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O444" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P444" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R444" t="inlineStr">
@@ -35906,10 +35906,10 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T444" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="445">
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E445" t="n">
         <v>5</v>
@@ -35955,16 +35955,16 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N445" t="n">
         <v>7000</v>
@@ -35977,7 +35977,7 @@
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
@@ -35986,10 +35986,10 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="T445" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="446">
@@ -36040,24 +36040,24 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N446" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O446" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P446" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R446" t="inlineStr">
@@ -36066,10 +36066,10 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T446" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="447">
@@ -36120,24 +36120,24 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N447" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O447" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P447" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
@@ -36146,10 +36146,10 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T447" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="448">
@@ -36200,24 +36200,24 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N448" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O448" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P448" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R448" t="inlineStr">
@@ -36226,10 +36226,10 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T448" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="449">
@@ -36275,29 +36275,29 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N449" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O449" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P449" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
@@ -36306,10 +36306,10 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T449" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="450">
@@ -36355,25 +36355,25 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M450" t="n">
         <v>68</v>
       </c>
       <c r="N450" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O450" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P450" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T450" t="n">
         <v>10</v>
@@ -36435,7 +36435,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -36444,20 +36444,20 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N451" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O451" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P451" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
@@ -36466,10 +36466,10 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T451" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="452">
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -36524,16 +36524,16 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N452" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O452" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P452" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T452" t="n">
         <v>10</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E453" t="n">
         <v>5</v>
@@ -36604,16 +36604,16 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N453" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O453" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P453" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T453" t="n">
         <v>10</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E454" t="n">
         <v>5</v>
@@ -36684,16 +36684,16 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N454" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O454" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P454" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T454" t="n">
         <v>10</v>
@@ -36755,7 +36755,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -36764,16 +36764,16 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N455" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O455" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P455" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36782,11 +36782,11 @@
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S455" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T455" t="n">
         <v>10</v>
@@ -36835,7 +36835,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -36844,16 +36844,16 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="N456" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O456" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P456" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36862,11 +36862,11 @@
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S456" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T456" t="n">
         <v>10</v>
@@ -36915,7 +36915,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -36924,16 +36924,16 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N457" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O457" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P457" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36942,11 +36942,11 @@
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S457" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T457" t="n">
         <v>10</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E458" t="n">
         <v>5</v>
@@ -36995,7 +36995,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -37004,16 +37004,16 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="N458" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O458" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P458" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37022,11 +37022,11 @@
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S458" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T458" t="n">
         <v>10</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E459" t="n">
         <v>5</v>
@@ -37075,41 +37075,41 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="N459" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O459" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P459" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S459" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T459" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="460">
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E460" t="n">
         <v>5</v>
@@ -37155,16 +37155,16 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N460" t="n">
         <v>6000</v>
@@ -37182,7 +37182,7 @@
       </c>
       <c r="R460" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S460" t="n">
@@ -37240,24 +37240,24 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M461" t="n">
         <v>75</v>
       </c>
       <c r="N461" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O461" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P461" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
@@ -37266,10 +37266,10 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T461" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="462">
@@ -37320,24 +37320,24 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N462" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O462" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P462" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R462" t="inlineStr">
@@ -37346,10 +37346,10 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T462" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="463">
@@ -37400,24 +37400,24 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N463" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O463" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P463" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R463" t="inlineStr">
@@ -37426,10 +37426,10 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T463" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="464">
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E464" t="n">
         <v>5</v>
@@ -37475,7 +37475,7 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
@@ -37484,20 +37484,20 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N464" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O464" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P464" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R464" t="inlineStr">
@@ -37506,10 +37506,10 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T464" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="465">
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E465" t="n">
         <v>5</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N465" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O465" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P465" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T465" t="n">
         <v>10</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E466" t="n">
         <v>5</v>
@@ -37640,24 +37640,24 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N466" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O466" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P466" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R466" t="inlineStr">
@@ -37666,10 +37666,10 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="T466" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="467">
@@ -37715,7 +37715,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -37724,7 +37724,7 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N467" t="n">
         <v>7000</v>
@@ -37795,7 +37795,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -37804,7 +37804,7 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N468" t="n">
         <v>6000</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E469" t="n">
         <v>5</v>
@@ -37880,20 +37880,20 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N469" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O469" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P469" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T469" t="n">
         <v>10</v>
@@ -37927,68 +37927,308 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E470" t="n">
+        <v>5</v>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G470" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I470" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M470" t="n">
+        <v>85</v>
+      </c>
+      <c r="N470" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O470" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P470" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q470" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R470" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S470" t="n">
+        <v>700</v>
+      </c>
+      <c r="T470" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>3</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D471" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E471" t="n">
+        <v>5</v>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G471" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I471" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M471" t="n">
+        <v>80</v>
+      </c>
+      <c r="N471" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O471" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P471" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q471" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R471" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S471" t="n">
+        <v>600</v>
+      </c>
+      <c r="T471" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>3</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D472" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E470" t="n">
-        <v>5</v>
-      </c>
-      <c r="F470" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G470" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I470" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J470" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K470" t="inlineStr">
+      <c r="E472" t="n">
+        <v>5</v>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G472" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I472" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K472" t="inlineStr">
         <is>
           <t>Clemenuless</t>
         </is>
       </c>
-      <c r="L470" t="inlineStr">
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M472" t="n">
+        <v>80</v>
+      </c>
+      <c r="N472" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O472" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P472" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q472" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R472" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S472" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T472" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>3</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D473" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E473" t="n">
+        <v>5</v>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G473" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I473" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L473" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M470" t="n">
+      <c r="M473" t="n">
         <v>80</v>
       </c>
-      <c r="N470" t="n">
+      <c r="N473" t="n">
         <v>9000</v>
       </c>
-      <c r="O470" t="n">
+      <c r="O473" t="n">
         <v>9000</v>
       </c>
-      <c r="P470" t="n">
+      <c r="P473" t="n">
         <v>9000</v>
       </c>
-      <c r="Q470" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R470" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="S470" t="n">
+      <c r="Q473" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R473" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S473" t="n">
         <v>900</v>
       </c>
-      <c r="T470" t="n">
+      <c r="T473" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T479"/>
+  <dimension ref="A1:T482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E425" t="n">
         <v>5</v>
@@ -34364,7 +34364,7 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N425" t="n">
         <v>7000</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E426" t="n">
         <v>5</v>
@@ -34444,7 +34444,7 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N426" t="n">
         <v>6000</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E427" t="n">
         <v>5</v>
@@ -34524,7 +34524,7 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N427" t="n">
         <v>5000</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E428" t="n">
         <v>5</v>
@@ -34595,7 +34595,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -34604,7 +34604,7 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N428" t="n">
         <v>7000</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E429" t="n">
         <v>5</v>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -34684,7 +34684,7 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="N429" t="n">
         <v>6000</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E430" t="n">
         <v>5</v>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,7 +34764,7 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="N430" t="n">
         <v>5000</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E431" t="n">
         <v>5</v>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -34844,16 +34844,16 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N431" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O431" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P431" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T431" t="n">
         <v>10</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E432" t="n">
         <v>5</v>
@@ -34915,29 +34915,29 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M432" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N432" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O432" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P432" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R432" t="inlineStr">
@@ -34946,10 +34946,10 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T432" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="433">
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E433" t="n">
         <v>5</v>
@@ -34995,25 +34995,25 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N433" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O433" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P433" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T433" t="n">
         <v>10</v>
@@ -35080,24 +35080,24 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N434" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O434" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P434" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R434" t="inlineStr">
@@ -35106,10 +35106,10 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T434" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="435">
@@ -35160,24 +35160,24 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N435" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O435" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P435" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R435" t="inlineStr">
@@ -35186,10 +35186,10 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T435" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="436">
@@ -35240,24 +35240,24 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N436" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O436" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P436" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
@@ -35266,10 +35266,10 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T436" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="437">
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E437" t="n">
         <v>5</v>
@@ -35315,29 +35315,29 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N437" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O437" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P437" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R437" t="inlineStr">
@@ -35346,10 +35346,10 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T437" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="438">
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E438" t="n">
         <v>5</v>
@@ -35395,25 +35395,25 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N438" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O438" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P438" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T438" t="n">
         <v>10</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E439" t="n">
         <v>5</v>
@@ -35475,7 +35475,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -35484,20 +35484,20 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N439" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O439" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P439" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
@@ -35506,10 +35506,10 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T439" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="440">
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E440" t="n">
         <v>5</v>
@@ -35564,16 +35564,16 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N440" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O440" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P440" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T440" t="n">
         <v>10</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E441" t="n">
         <v>5</v>
@@ -35644,16 +35644,16 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N441" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O441" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P441" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T441" t="n">
         <v>10</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E442" t="n">
         <v>5</v>
@@ -35724,16 +35724,16 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N442" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O442" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P442" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
@@ -35746,7 +35746,7 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T442" t="n">
         <v>10</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E443" t="n">
         <v>5</v>
@@ -35795,7 +35795,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -35804,20 +35804,20 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N443" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O443" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P443" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R443" t="inlineStr">
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T443" t="n">
         <v>10</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E444" t="n">
         <v>5</v>
@@ -35875,7 +35875,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -35884,20 +35884,20 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N444" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O444" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P444" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R444" t="inlineStr">
@@ -35906,7 +35906,7 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T444" t="n">
         <v>10</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44175</v>
+        <v>44365</v>
       </c>
       <c r="E445" t="n">
         <v>5</v>
@@ -35955,7 +35955,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -35964,20 +35964,20 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N445" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O445" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P445" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T445" t="n">
         <v>10</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E446" t="n">
         <v>5</v>
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36044,20 +36044,20 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N446" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O446" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P446" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R446" t="inlineStr">
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T446" t="n">
         <v>10</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E447" t="n">
         <v>5</v>
@@ -36115,29 +36115,29 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N447" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O447" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P447" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
@@ -36146,10 +36146,10 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="T447" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="448">
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E448" t="n">
         <v>5</v>
@@ -36195,29 +36195,29 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N448" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O448" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P448" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R448" t="inlineStr">
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T448" t="n">
         <v>10</v>
@@ -36280,24 +36280,24 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N449" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O449" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P449" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
@@ -36306,10 +36306,10 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T449" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="450">
@@ -36360,24 +36360,24 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N450" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O450" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P450" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
@@ -36386,10 +36386,10 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T450" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="451">
@@ -36440,24 +36440,24 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N451" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O451" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P451" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
@@ -36466,10 +36466,10 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T451" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="452">
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -36515,16 +36515,16 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N452" t="n">
         <v>8000</v>
@@ -36537,7 +36537,7 @@
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
@@ -36546,10 +36546,10 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="T452" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="453">
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E453" t="n">
         <v>5</v>
@@ -36595,29 +36595,29 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N453" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O453" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P453" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R453" t="inlineStr">
@@ -36626,10 +36626,10 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T453" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="454">
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E454" t="n">
         <v>5</v>
@@ -36675,16 +36675,16 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N454" t="n">
         <v>7000</v>
@@ -36697,7 +36697,7 @@
       </c>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R454" t="inlineStr">
@@ -36706,10 +36706,10 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="T454" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="455">
@@ -36760,24 +36760,24 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N455" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O455" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P455" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
@@ -36786,10 +36786,10 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T455" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="456">
@@ -36840,24 +36840,24 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N456" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O456" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P456" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
@@ -36866,10 +36866,10 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T456" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="457">
@@ -36920,24 +36920,24 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N457" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O457" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P457" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
@@ -36946,10 +36946,10 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T457" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="458">
@@ -36995,29 +36995,29 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N458" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O458" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P458" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R458" t="inlineStr">
@@ -37026,10 +37026,10 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T458" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="459">
@@ -37075,25 +37075,25 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M459" t="n">
         <v>68</v>
       </c>
       <c r="N459" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O459" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P459" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T459" t="n">
         <v>10</v>
@@ -37155,7 +37155,7 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
@@ -37164,20 +37164,20 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N460" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O460" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P460" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
@@ -37186,10 +37186,10 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T460" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="461">
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E461" t="n">
         <v>5</v>
@@ -37244,16 +37244,16 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N461" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O461" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P461" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T461" t="n">
         <v>10</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -37324,16 +37324,16 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N462" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O462" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P462" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T462" t="n">
         <v>10</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44411</v>
+        <v>44357</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -37404,16 +37404,16 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N463" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O463" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P463" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T463" t="n">
         <v>10</v>
@@ -37475,7 +37475,7 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N464" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O464" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P464" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37502,11 +37502,11 @@
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S464" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T464" t="n">
         <v>10</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="N465" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O465" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P465" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37582,11 +37582,11 @@
       </c>
       <c r="R465" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S465" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T465" t="n">
         <v>10</v>
@@ -37635,7 +37635,7 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -37644,16 +37644,16 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N466" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O466" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P466" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37662,11 +37662,11 @@
       </c>
       <c r="R466" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S466" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T466" t="n">
         <v>10</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E467" t="n">
         <v>5</v>
@@ -37715,7 +37715,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -37724,16 +37724,16 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="N467" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O467" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P467" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37742,11 +37742,11 @@
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S467" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T467" t="n">
         <v>10</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E468" t="n">
         <v>5</v>
@@ -37795,41 +37795,41 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="N468" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O468" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P468" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R468" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S468" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T468" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="469">
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E469" t="n">
         <v>5</v>
@@ -37875,16 +37875,16 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N469" t="n">
         <v>6000</v>
@@ -37902,7 +37902,7 @@
       </c>
       <c r="R469" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S469" t="n">
@@ -37960,24 +37960,24 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M470" t="n">
         <v>75</v>
       </c>
       <c r="N470" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O470" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P470" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R470" t="inlineStr">
@@ -37986,10 +37986,10 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T470" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="471">
@@ -38040,24 +38040,24 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N471" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O471" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P471" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R471" t="inlineStr">
@@ -38066,10 +38066,10 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T471" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="472">
@@ -38120,24 +38120,24 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N472" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O472" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P472" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R472" t="inlineStr">
@@ -38146,10 +38146,10 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T472" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="473">
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E473" t="n">
         <v>5</v>
@@ -38195,7 +38195,7 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -38204,20 +38204,20 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N473" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O473" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P473" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R473" t="inlineStr">
@@ -38226,10 +38226,10 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T473" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="474">
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E474" t="n">
         <v>5</v>
@@ -38275,7 +38275,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N474" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O474" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P474" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T474" t="n">
         <v>10</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E475" t="n">
         <v>5</v>
@@ -38360,24 +38360,24 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N475" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O475" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P475" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R475" t="inlineStr">
@@ -38386,10 +38386,10 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>800</v>
+        <v>467</v>
       </c>
       <c r="T475" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="476">
@@ -38435,7 +38435,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -38444,7 +38444,7 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N476" t="n">
         <v>7000</v>
@@ -38515,7 +38515,7 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
@@ -38524,7 +38524,7 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N477" t="n">
         <v>6000</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44323</v>
+        <v>44358</v>
       </c>
       <c r="E478" t="n">
         <v>5</v>
@@ -38600,20 +38600,20 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N478" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O478" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P478" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T478" t="n">
         <v>10</v>
@@ -38647,68 +38647,308 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E479" t="n">
+        <v>5</v>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G479" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I479" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M479" t="n">
+        <v>85</v>
+      </c>
+      <c r="N479" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O479" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P479" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q479" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R479" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S479" t="n">
+        <v>700</v>
+      </c>
+      <c r="T479" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>3</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D480" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E480" t="n">
+        <v>5</v>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G480" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I480" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M480" t="n">
+        <v>80</v>
+      </c>
+      <c r="N480" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O480" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P480" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q480" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R480" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S480" t="n">
+        <v>600</v>
+      </c>
+      <c r="T480" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>3</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D481" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E479" t="n">
-        <v>5</v>
-      </c>
-      <c r="F479" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G479" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I479" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J479" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K479" t="inlineStr">
+      <c r="E481" t="n">
+        <v>5</v>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G481" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I481" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
         <is>
           <t>Clemenuless</t>
         </is>
       </c>
-      <c r="L479" t="inlineStr">
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M481" t="n">
+        <v>80</v>
+      </c>
+      <c r="N481" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O481" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P481" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q481" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R481" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S481" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T481" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>3</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D482" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E482" t="n">
+        <v>5</v>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G482" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I482" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L482" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M479" t="n">
+      <c r="M482" t="n">
         <v>80</v>
       </c>
-      <c r="N479" t="n">
+      <c r="N482" t="n">
         <v>9000</v>
       </c>
-      <c r="O479" t="n">
+      <c r="O482" t="n">
         <v>9000</v>
       </c>
-      <c r="P479" t="n">
+      <c r="P482" t="n">
         <v>9000</v>
       </c>
-      <c r="Q479" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R479" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="S479" t="n">
+      <c r="Q482" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R482" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S482" t="n">
         <v>900</v>
       </c>
-      <c r="T479" t="n">
+      <c r="T482" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T485"/>
+  <dimension ref="A1:T488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E401" t="n">
         <v>5</v>
@@ -32444,7 +32444,7 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N401" t="n">
         <v>7000</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E402" t="n">
         <v>5</v>
@@ -32524,7 +32524,7 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N402" t="n">
         <v>6000</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E403" t="n">
         <v>5</v>
@@ -32604,7 +32604,7 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N403" t="n">
         <v>5000</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E404" t="n">
         <v>5</v>
@@ -32675,25 +32675,25 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N404" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O404" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P404" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T404" t="n">
         <v>10</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E405" t="n">
         <v>5</v>
@@ -32755,25 +32755,25 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N405" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O405" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P405" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T405" t="n">
         <v>10</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E406" t="n">
         <v>5</v>
@@ -32835,25 +32835,25 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N406" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O406" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P406" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T406" t="n">
         <v>10</v>
@@ -32915,7 +32915,7 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -32924,7 +32924,7 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="N407" t="n">
         <v>6000</v>
@@ -32995,7 +32995,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -33004,7 +33004,7 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N408" t="n">
         <v>5000</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E409" t="n">
         <v>5</v>
@@ -33084,7 +33084,7 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N409" t="n">
         <v>7000</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E410" t="n">
         <v>5</v>
@@ -33164,7 +33164,7 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N410" t="n">
         <v>6000</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E411" t="n">
         <v>5</v>
@@ -33244,7 +33244,7 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N411" t="n">
         <v>5000</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E412" t="n">
         <v>5</v>
@@ -33315,25 +33315,25 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N412" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O412" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="P412" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="T412" t="n">
         <v>10</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E413" t="n">
         <v>5</v>
@@ -33395,25 +33395,25 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N413" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O413" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P413" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T413" t="n">
         <v>10</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E414" t="n">
         <v>5</v>
@@ -33475,25 +33475,25 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N414" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O414" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P414" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T414" t="n">
         <v>10</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E415" t="n">
         <v>5</v>
@@ -33555,25 +33555,25 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M415" t="n">
         <v>65</v>
       </c>
       <c r="N415" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="O415" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="P415" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T415" t="n">
         <v>10</v>
@@ -33635,7 +33635,7 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
@@ -33644,7 +33644,7 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N416" t="n">
         <v>7000</v>
@@ -33715,7 +33715,7 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
@@ -33724,7 +33724,7 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N417" t="n">
         <v>6000</v>
@@ -33795,7 +33795,7 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -33804,7 +33804,7 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N418" t="n">
         <v>5000</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E419" t="n">
         <v>5</v>
@@ -33884,7 +33884,7 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N419" t="n">
         <v>7000</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E420" t="n">
         <v>5</v>
@@ -33964,7 +33964,7 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N420" t="n">
         <v>6000</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E421" t="n">
         <v>5</v>
@@ -34044,7 +34044,7 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N421" t="n">
         <v>5000</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E422" t="n">
         <v>5</v>
@@ -34115,7 +34115,7 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N422" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O422" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P422" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T422" t="n">
         <v>10</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E423" t="n">
         <v>5</v>
@@ -34195,29 +34195,29 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M423" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N423" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O423" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P423" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R423" t="inlineStr">
@@ -34226,10 +34226,10 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T423" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="424">
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E424" t="n">
         <v>5</v>
@@ -34275,25 +34275,25 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M424" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N424" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O424" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P424" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T424" t="n">
         <v>10</v>
@@ -34360,24 +34360,24 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N425" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O425" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P425" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R425" t="inlineStr">
@@ -34386,10 +34386,10 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T425" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="426">
@@ -34440,24 +34440,24 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N426" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O426" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P426" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R426" t="inlineStr">
@@ -34466,10 +34466,10 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T426" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="427">
@@ -34520,24 +34520,24 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N427" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O427" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P427" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R427" t="inlineStr">
@@ -34546,10 +34546,10 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T427" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="428">
@@ -34595,29 +34595,29 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N428" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O428" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P428" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R428" t="inlineStr">
@@ -34626,10 +34626,10 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T428" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="429">
@@ -34675,25 +34675,25 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M429" t="n">
         <v>68</v>
       </c>
       <c r="N429" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O429" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P429" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T429" t="n">
         <v>10</v>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
@@ -34764,20 +34764,20 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N430" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O430" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P430" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R430" t="inlineStr">
@@ -34786,10 +34786,10 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T430" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="431">
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E431" t="n">
         <v>5</v>
@@ -34844,16 +34844,16 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N431" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O431" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P431" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T431" t="n">
         <v>10</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E432" t="n">
         <v>5</v>
@@ -34924,16 +34924,16 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N432" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O432" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P432" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
@@ -34946,7 +34946,7 @@
         </is>
       </c>
       <c r="S432" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T432" t="n">
         <v>10</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E433" t="n">
         <v>5</v>
@@ -35004,16 +35004,16 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N433" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O433" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P433" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T433" t="n">
         <v>10</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E434" t="n">
         <v>5</v>
@@ -35075,25 +35075,25 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="N434" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O434" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P434" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35102,11 +35102,11 @@
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S434" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T434" t="n">
         <v>10</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44397</v>
+        <v>44328</v>
       </c>
       <c r="E435" t="n">
         <v>5</v>
@@ -35160,20 +35160,20 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="N435" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O435" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P435" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T435" t="n">
         <v>10</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44397</v>
+        <v>44328</v>
       </c>
       <c r="E436" t="n">
         <v>5</v>
@@ -35240,24 +35240,24 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N436" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O436" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P436" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R436" t="inlineStr">
@@ -35266,10 +35266,10 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T436" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="437">
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E437" t="n">
         <v>5</v>
@@ -35315,7 +35315,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -35324,16 +35324,16 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N437" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O437" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P437" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35342,11 +35342,11 @@
       </c>
       <c r="R437" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S437" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T437" t="n">
         <v>10</v>
@@ -35400,24 +35400,24 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N438" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O438" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P438" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R438" t="inlineStr">
@@ -35426,10 +35426,10 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T438" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="439">
@@ -35480,24 +35480,24 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M439" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N439" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O439" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P439" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R439" t="inlineStr">
@@ -35506,10 +35506,10 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T439" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="440">
@@ -35560,24 +35560,24 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M440" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="N440" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O440" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P440" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R440" t="inlineStr">
@@ -35586,10 +35586,10 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T440" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="441">
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E441" t="n">
         <v>5</v>
@@ -35635,7 +35635,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -35644,20 +35644,20 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N441" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O441" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P441" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R441" t="inlineStr">
@@ -35666,10 +35666,10 @@
         </is>
       </c>
       <c r="S441" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="T441" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="442">
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E442" t="n">
         <v>5</v>
@@ -35715,7 +35715,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
@@ -35724,7 +35724,7 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="N442" t="n">
         <v>5000</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E443" t="n">
         <v>5</v>
@@ -35800,11 +35800,11 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N443" t="n">
         <v>7000</v>
@@ -35817,7 +35817,7 @@
       </c>
       <c r="Q443" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R443" t="inlineStr">
@@ -35826,10 +35826,10 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="T443" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="444">
@@ -35875,7 +35875,7 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
@@ -35884,7 +35884,7 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N444" t="n">
         <v>6000</v>
@@ -35955,7 +35955,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -35964,7 +35964,7 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="N445" t="n">
         <v>5000</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E446" t="n">
         <v>5</v>
@@ -36044,16 +36044,16 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N446" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O446" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P446" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T446" t="n">
         <v>10</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E447" t="n">
         <v>5</v>
@@ -36127,13 +36127,13 @@
         <v>80</v>
       </c>
       <c r="N447" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O447" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P447" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T447" t="n">
         <v>10</v>
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E448" t="n">
         <v>5</v>
@@ -36207,13 +36207,13 @@
         <v>70</v>
       </c>
       <c r="N448" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O448" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P448" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T448" t="n">
         <v>10</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E449" t="n">
         <v>5</v>
@@ -36284,16 +36284,16 @@
         </is>
       </c>
       <c r="M449" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N449" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O449" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P449" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T449" t="n">
         <v>10</v>
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E450" t="n">
         <v>5</v>
@@ -36360,24 +36360,24 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N450" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O450" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P450" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
@@ -36386,10 +36386,10 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T450" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="451">
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E451" t="n">
         <v>5</v>
@@ -36440,11 +36440,11 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N451" t="n">
         <v>6000</v>
@@ -36520,24 +36520,24 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N452" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O452" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P452" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
@@ -36546,10 +36546,10 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T452" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="453">
@@ -36600,24 +36600,24 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N453" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O453" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P453" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R453" t="inlineStr">
@@ -36626,10 +36626,10 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T453" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="454">
@@ -36680,24 +36680,24 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="N454" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O454" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P454" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R454" t="inlineStr">
@@ -36706,10 +36706,10 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T454" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="455">
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E455" t="n">
         <v>5</v>
@@ -36760,24 +36760,24 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N455" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O455" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P455" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
@@ -36786,10 +36786,10 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T455" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="456">
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E456" t="n">
         <v>5</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N456" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O456" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P456" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T456" t="n">
         <v>10</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E457" t="n">
         <v>5</v>
@@ -36924,20 +36924,20 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N457" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O457" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P457" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
@@ -36946,10 +36946,10 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T457" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="458">
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E458" t="n">
         <v>5</v>
@@ -36995,7 +36995,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -37004,7 +37004,7 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N458" t="n">
         <v>7000</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E459" t="n">
         <v>5</v>
@@ -37075,7 +37075,7 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -37084,7 +37084,7 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N459" t="n">
         <v>6000</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E460" t="n">
         <v>5</v>
@@ -37155,7 +37155,7 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E461" t="n">
         <v>5</v>
@@ -37240,20 +37240,20 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M461" t="n">
         <v>75</v>
       </c>
       <c r="N461" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O461" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P461" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37262,11 +37262,11 @@
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S461" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T461" t="n">
         <v>10</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -37320,20 +37320,20 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N462" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O462" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P462" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37342,11 +37342,11 @@
       </c>
       <c r="R462" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S462" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T462" t="n">
         <v>10</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -37400,20 +37400,20 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M463" t="n">
         <v>80</v>
       </c>
       <c r="N463" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O463" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P463" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T463" t="n">
         <v>10</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E464" t="n">
         <v>5</v>
@@ -37484,16 +37484,16 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N464" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O464" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P464" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37502,11 +37502,11 @@
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S464" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T464" t="n">
         <v>10</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E465" t="n">
         <v>5</v>
@@ -37564,16 +37564,16 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N465" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O465" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P465" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37582,11 +37582,11 @@
       </c>
       <c r="R465" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S465" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T465" t="n">
         <v>10</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E466" t="n">
         <v>5</v>
@@ -37644,7 +37644,7 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N466" t="n">
         <v>7000</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E467" t="n">
         <v>5</v>
@@ -37720,24 +37720,24 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N467" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O467" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P467" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R467" t="inlineStr">
@@ -37746,10 +37746,10 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T467" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="468">
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E468" t="n">
         <v>5</v>
@@ -37800,20 +37800,20 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N468" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O468" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P468" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T468" t="n">
         <v>10</v>
@@ -37880,24 +37880,24 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N469" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O469" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P469" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R469" t="inlineStr">
@@ -37906,10 +37906,10 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T469" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="470">
@@ -37960,24 +37960,24 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N470" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O470" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P470" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R470" t="inlineStr">
@@ -37986,10 +37986,10 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T470" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="471">
@@ -38040,24 +38040,24 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N471" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O471" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P471" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R471" t="inlineStr">
@@ -38066,10 +38066,10 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T471" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="472">
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E472" t="n">
         <v>5</v>
@@ -38115,29 +38115,29 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N472" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O472" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P472" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R472" t="inlineStr">
@@ -38146,10 +38146,10 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T472" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="473">
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E473" t="n">
         <v>5</v>
@@ -38195,25 +38195,25 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="N473" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O473" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P473" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T473" t="n">
         <v>10</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E474" t="n">
         <v>5</v>
@@ -38275,7 +38275,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -38284,20 +38284,20 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="N474" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O474" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P474" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R474" t="inlineStr">
@@ -38306,10 +38306,10 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T474" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="475">
@@ -38355,7 +38355,7 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
@@ -38364,7 +38364,7 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N475" t="n">
         <v>7000</v>
@@ -38435,7 +38435,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -38444,7 +38444,7 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="N476" t="n">
         <v>6000</v>
@@ -38515,7 +38515,7 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
@@ -38524,7 +38524,7 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="N477" t="n">
         <v>5000</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E478" t="n">
         <v>5</v>
@@ -38595,25 +38595,25 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N478" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O478" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P478" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T478" t="n">
         <v>10</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E479" t="n">
         <v>5</v>
@@ -38675,25 +38675,25 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="N479" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O479" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P479" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T479" t="n">
         <v>10</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E480" t="n">
         <v>5</v>
@@ -38760,20 +38760,20 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M480" t="n">
         <v>80</v>
       </c>
       <c r="N480" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O480" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P480" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="T480" t="n">
         <v>10</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E481" t="n">
         <v>5</v>
@@ -38835,7 +38835,7 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -38844,16 +38844,16 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N481" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O481" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P481" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T481" t="n">
         <v>10</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E482" t="n">
         <v>5</v>
@@ -38915,7 +38915,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
@@ -38924,7 +38924,7 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N482" t="n">
         <v>7000</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E483" t="n">
         <v>5</v>
@@ -38995,7 +38995,7 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
@@ -39004,16 +39004,16 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N483" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O483" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P483" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T483" t="n">
         <v>10</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E484" t="n">
         <v>5</v>
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39087,13 +39087,13 @@
         <v>87</v>
       </c>
       <c r="N484" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O484" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P484" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T484" t="n">
         <v>10</v>
@@ -39127,68 +39127,308 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E485" t="n">
+        <v>5</v>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G485" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I485" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M485" t="n">
+        <v>85</v>
+      </c>
+      <c r="N485" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O485" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P485" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q485" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R485" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S485" t="n">
+        <v>700</v>
+      </c>
+      <c r="T485" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>3</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D486" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E485" t="n">
-        <v>5</v>
-      </c>
-      <c r="F485" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G485" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I485" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J485" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K485" t="inlineStr">
+      <c r="E486" t="n">
+        <v>5</v>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G486" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I486" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K486" t="inlineStr">
         <is>
           <t>Murcott</t>
         </is>
       </c>
-      <c r="L485" t="inlineStr">
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M486" t="n">
+        <v>85</v>
+      </c>
+      <c r="N486" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O486" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P486" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q486" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R486" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S486" t="n">
+        <v>700</v>
+      </c>
+      <c r="T486" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>3</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D487" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E487" t="n">
+        <v>5</v>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G487" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I487" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M487" t="n">
+        <v>87</v>
+      </c>
+      <c r="N487" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O487" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P487" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q487" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R487" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S487" t="n">
+        <v>600</v>
+      </c>
+      <c r="T487" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>3</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D488" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E488" t="n">
+        <v>5</v>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G488" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I488" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L488" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M485" t="n">
+      <c r="M488" t="n">
         <v>80</v>
       </c>
-      <c r="N485" t="n">
+      <c r="N488" t="n">
         <v>5000</v>
       </c>
-      <c r="O485" t="n">
+      <c r="O488" t="n">
         <v>5000</v>
       </c>
-      <c r="P485" t="n">
+      <c r="P488" t="n">
         <v>5000</v>
       </c>
-      <c r="Q485" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R485" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="S485" t="n">
+      <c r="Q488" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R488" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S488" t="n">
         <v>500</v>
       </c>
-      <c r="T485" t="n">
+      <c r="T488" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T506"/>
+  <dimension ref="A1:T509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N308" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O308" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P308" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T308" t="n">
         <v>10</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N309" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O309" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P309" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T309" t="n">
         <v>10</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E310" t="n">
         <v>5</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N310" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O310" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P310" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T310" t="n">
         <v>10</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E311" t="n">
         <v>5</v>
@@ -25235,29 +25235,29 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N311" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O311" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P311" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R311" t="inlineStr">
@@ -25269,7 +25269,7 @@
         <v>1000</v>
       </c>
       <c r="T311" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312">
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E312" t="n">
         <v>5</v>
@@ -25315,29 +25315,29 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M312" t="n">
         <v>50</v>
       </c>
       <c r="N312" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O312" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P312" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R312" t="inlineStr">
@@ -25346,10 +25346,10 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>833</v>
+        <v>900</v>
       </c>
       <c r="T312" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313">
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E313" t="n">
         <v>5</v>
@@ -25400,20 +25400,20 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="N313" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O313" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P313" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T313" t="n">
         <v>10</v>
@@ -25475,7 +25475,7 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -25484,7 +25484,7 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="N314" t="n">
         <v>6000</v>
@@ -25497,7 +25497,7 @@
       </c>
       <c r="Q314" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R314" t="inlineStr">
@@ -25506,10 +25506,10 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T314" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="315">
@@ -25555,7 +25555,7 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -25564,7 +25564,7 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="N315" t="n">
         <v>5000</v>
@@ -25577,7 +25577,7 @@
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R315" t="inlineStr">
@@ -25586,10 +25586,10 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="T315" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="316">
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E316" t="n">
         <v>5</v>
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N316" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O316" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P316" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T316" t="n">
         <v>10</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E317" t="n">
         <v>5</v>
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N317" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O317" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P317" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T317" t="n">
         <v>10</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E318" t="n">
         <v>5</v>
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="N318" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O318" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P318" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T318" t="n">
         <v>10</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E319" t="n">
         <v>5</v>
@@ -25875,7 +25875,7 @@
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N319" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O319" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P319" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T319" t="n">
         <v>10</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E320" t="n">
         <v>5</v>
@@ -25955,7 +25955,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N320" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O320" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P320" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T320" t="n">
         <v>10</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E321" t="n">
         <v>5</v>
@@ -26035,7 +26035,7 @@
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N321" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O321" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P321" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T321" t="n">
         <v>10</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E322" t="n">
         <v>5</v>
@@ -26115,7 +26115,7 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N322" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O322" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P322" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T322" t="n">
         <v>10</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44280</v>
+        <v>44351</v>
       </c>
       <c r="E323" t="n">
         <v>5</v>
@@ -26195,7 +26195,7 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N323" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O323" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P323" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T323" t="n">
         <v>10</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44445</v>
+        <v>44351</v>
       </c>
       <c r="E324" t="n">
         <v>5</v>
@@ -26275,16 +26275,16 @@
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N324" t="n">
         <v>6000</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44445</v>
+        <v>44280</v>
       </c>
       <c r="E325" t="n">
         <v>5</v>
@@ -26360,20 +26360,20 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="N325" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O325" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P325" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T325" t="n">
         <v>10</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44445</v>
+        <v>44280</v>
       </c>
       <c r="E326" t="n">
         <v>5</v>
@@ -26440,20 +26440,20 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N326" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O326" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P326" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="T326" t="n">
         <v>10</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44344</v>
+        <v>44445</v>
       </c>
       <c r="E327" t="n">
         <v>5</v>
@@ -26515,7 +26515,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N327" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O327" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P327" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T327" t="n">
         <v>10</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44344</v>
+        <v>44445</v>
       </c>
       <c r="E328" t="n">
         <v>5</v>
@@ -26595,7 +26595,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -26604,16 +26604,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="N328" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O328" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P328" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T328" t="n">
         <v>10</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44344</v>
+        <v>44445</v>
       </c>
       <c r="E329" t="n">
         <v>5</v>
@@ -26675,7 +26675,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N329" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O329" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P329" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T329" t="n">
         <v>10</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E330" t="n">
         <v>5</v>
@@ -26767,13 +26767,13 @@
         <v>60</v>
       </c>
       <c r="N330" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O330" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P330" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T330" t="n">
         <v>10</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E331" t="n">
         <v>5</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N331" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O331" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P331" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T331" t="n">
         <v>10</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E332" t="n">
         <v>5</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N332" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O332" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P332" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T332" t="n">
         <v>10</v>
@@ -26995,7 +26995,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
@@ -27004,7 +27004,7 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N333" t="n">
         <v>7000</v>
@@ -27075,7 +27075,7 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
@@ -27084,7 +27084,7 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N334" t="n">
         <v>6000</v>
@@ -27155,7 +27155,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -27164,7 +27164,7 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N335" t="n">
         <v>5000</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E336" t="n">
         <v>5</v>
@@ -27235,16 +27235,16 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M336" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N336" t="n">
         <v>7000</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E337" t="n">
         <v>5</v>
@@ -27315,16 +27315,16 @@
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M337" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N337" t="n">
         <v>6000</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E338" t="n">
         <v>5</v>
@@ -27400,20 +27400,20 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M338" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N338" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O338" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P338" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T338" t="n">
         <v>10</v>
@@ -27475,7 +27475,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -27484,7 +27484,7 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N339" t="n">
         <v>7000</v>
@@ -27555,7 +27555,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -27564,7 +27564,7 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N340" t="n">
         <v>6000</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E341" t="n">
         <v>5</v>
@@ -27635,7 +27635,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N341" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O341" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P341" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T341" t="n">
         <v>10</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E342" t="n">
         <v>5</v>
@@ -27715,7 +27715,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N342" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O342" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P342" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T342" t="n">
         <v>10</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E343" t="n">
         <v>5</v>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N343" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O343" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P343" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T343" t="n">
         <v>10</v>
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27884,7 +27884,7 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N344" t="n">
         <v>7000</v>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -27964,7 +27964,7 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N345" t="n">
         <v>6000</v>
@@ -28035,7 +28035,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
@@ -28044,7 +28044,7 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N346" t="n">
         <v>5000</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E347" t="n">
         <v>5</v>
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N347" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O347" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P347" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T347" t="n">
         <v>10</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E348" t="n">
         <v>5</v>
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N348" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O348" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P348" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T348" t="n">
         <v>10</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E349" t="n">
         <v>5</v>
@@ -28287,13 +28287,13 @@
         <v>70</v>
       </c>
       <c r="N349" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O349" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P349" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T349" t="n">
         <v>10</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E350" t="n">
         <v>5</v>
@@ -28355,7 +28355,7 @@
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L350" t="inlineStr">
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N350" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O350" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P350" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T350" t="n">
         <v>10</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E351" t="n">
         <v>5</v>
@@ -28435,7 +28435,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -28444,16 +28444,16 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N351" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O351" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P351" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T351" t="n">
         <v>10</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E352" t="n">
         <v>5</v>
@@ -28515,25 +28515,25 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M352" t="n">
         <v>70</v>
       </c>
       <c r="N352" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O352" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P352" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28542,11 +28542,11 @@
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S352" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T352" t="n">
         <v>10</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44475</v>
+        <v>44165</v>
       </c>
       <c r="E353" t="n">
         <v>5</v>
@@ -28604,16 +28604,16 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N353" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O353" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P353" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T353" t="n">
         <v>10</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44475</v>
+        <v>44165</v>
       </c>
       <c r="E354" t="n">
         <v>5</v>
@@ -28684,16 +28684,16 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N354" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O354" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P354" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T354" t="n">
         <v>10</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E355" t="n">
         <v>5</v>
@@ -28760,20 +28760,20 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M355" t="n">
         <v>70</v>
       </c>
       <c r="N355" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O355" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P355" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28782,11 +28782,11 @@
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S355" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T355" t="n">
         <v>10</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E356" t="n">
         <v>5</v>
@@ -28844,7 +28844,7 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N356" t="n">
         <v>7000</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E357" t="n">
         <v>5</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E358" t="n">
         <v>5</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E359" t="n">
         <v>5</v>
@@ -29080,11 +29080,11 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="N359" t="n">
         <v>7000</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E360" t="n">
         <v>5</v>
@@ -29160,11 +29160,11 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N360" t="n">
         <v>6000</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E361" t="n">
         <v>5</v>
@@ -29235,25 +29235,25 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N361" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O361" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P361" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T361" t="n">
         <v>10</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E362" t="n">
         <v>5</v>
@@ -29315,7 +29315,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -29324,16 +29324,16 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="N362" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O362" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P362" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T362" t="n">
         <v>10</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E363" t="n">
         <v>5</v>
@@ -29395,7 +29395,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N363" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O363" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P363" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T363" t="n">
         <v>10</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E364" t="n">
         <v>5</v>
@@ -29475,7 +29475,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -29484,16 +29484,16 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="N364" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O364" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P364" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T364" t="n">
         <v>10</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E365" t="n">
         <v>5</v>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N365" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O365" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P365" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T365" t="n">
         <v>10</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E366" t="n">
         <v>5</v>
@@ -29635,7 +29635,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N366" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O366" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P366" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T366" t="n">
         <v>10</v>
@@ -29715,25 +29715,25 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N367" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O367" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P367" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T367" t="n">
         <v>10</v>
@@ -29795,25 +29795,25 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N368" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O368" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P368" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T368" t="n">
         <v>10</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E369" t="n">
         <v>5</v>
@@ -29875,25 +29875,25 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N369" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O369" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P369" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T369" t="n">
         <v>10</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E370" t="n">
         <v>5</v>
@@ -29964,16 +29964,16 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N370" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O370" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P370" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T370" t="n">
         <v>10</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E371" t="n">
         <v>5</v>
@@ -30044,16 +30044,16 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N371" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O371" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P371" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T371" t="n">
         <v>10</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E372" t="n">
         <v>5</v>
@@ -30115,7 +30115,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N372" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O372" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P372" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T372" t="n">
         <v>10</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E373" t="n">
         <v>5</v>
@@ -30195,7 +30195,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L373" t="inlineStr">
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="N373" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O373" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P373" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T373" t="n">
         <v>10</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E374" t="n">
         <v>5</v>
@@ -30275,7 +30275,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N374" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O374" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P374" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T374" t="n">
         <v>10</v>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -30364,7 +30364,7 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N375" t="n">
         <v>8000</v>
@@ -30435,29 +30435,29 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="N376" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O376" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P376" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R376" t="inlineStr">
@@ -30466,10 +30466,10 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T376" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377">
@@ -30515,25 +30515,25 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M377" t="n">
         <v>80</v>
       </c>
       <c r="N377" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O377" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P377" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T377" t="n">
         <v>10</v>
@@ -30600,24 +30600,24 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M378" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N378" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O378" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P378" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R378" t="inlineStr">
@@ -30626,10 +30626,10 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T378" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="379">
@@ -30680,24 +30680,24 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N379" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O379" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P379" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
@@ -30706,10 +30706,10 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T379" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="380">
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E380" t="n">
         <v>5</v>
@@ -30755,25 +30755,25 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N380" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O380" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P380" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T380" t="n">
         <v>10</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E381" t="n">
         <v>5</v>
@@ -30835,25 +30835,25 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M381" t="n">
         <v>70</v>
       </c>
       <c r="N381" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O381" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P381" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T381" t="n">
         <v>15</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E382" t="n">
         <v>5</v>
@@ -30915,25 +30915,25 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="N382" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O382" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P382" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T382" t="n">
         <v>10</v>
@@ -31000,24 +31000,24 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N383" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O383" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P383" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R383" t="inlineStr">
@@ -31026,10 +31026,10 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T383" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="384">
@@ -31080,24 +31080,24 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N384" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O384" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P384" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R384" t="inlineStr">
@@ -31106,10 +31106,10 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="T384" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="385">
@@ -31160,24 +31160,24 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="N385" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O385" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P385" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R385" t="inlineStr">
@@ -31186,10 +31186,10 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T385" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="386">
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E386" t="n">
         <v>5</v>
@@ -31235,16 +31235,16 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="N386" t="n">
         <v>7000</v>
@@ -31257,7 +31257,7 @@
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
@@ -31266,10 +31266,10 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="T386" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="387">
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E387" t="n">
         <v>5</v>
@@ -31315,25 +31315,25 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N387" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O387" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P387" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T387" t="n">
         <v>10</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E388" t="n">
         <v>5</v>
@@ -31395,7 +31395,7 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
@@ -31404,20 +31404,20 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="N388" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O388" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P388" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
@@ -31426,10 +31426,10 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T388" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="389">
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E389" t="n">
         <v>5</v>
@@ -31475,7 +31475,7 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -31484,7 +31484,7 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="N389" t="n">
         <v>7000</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E390" t="n">
         <v>5</v>
@@ -31555,7 +31555,7 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
@@ -31564,7 +31564,7 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="N390" t="n">
         <v>6000</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E391" t="n">
         <v>5</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,7 +31644,7 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="N391" t="n">
         <v>5000</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E392" t="n">
         <v>5</v>
@@ -31724,7 +31724,7 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N392" t="n">
         <v>7000</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E393" t="n">
         <v>5</v>
@@ -31804,7 +31804,7 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="N393" t="n">
         <v>6000</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E394" t="n">
         <v>5</v>
@@ -31884,7 +31884,7 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="N394" t="n">
         <v>5000</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E395" t="n">
         <v>5</v>
@@ -31955,7 +31955,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -31964,7 +31964,7 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="N395" t="n">
         <v>7000</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E396" t="n">
         <v>5</v>
@@ -32035,7 +32035,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -32044,7 +32044,7 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N396" t="n">
         <v>6000</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E397" t="n">
         <v>5</v>
@@ -32115,29 +32115,29 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="N397" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O397" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P397" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R397" t="inlineStr">
@@ -32146,10 +32146,10 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T397" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="398">
@@ -32200,20 +32200,20 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N398" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O398" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P398" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T398" t="n">
         <v>10</v>
@@ -32280,24 +32280,24 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N399" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O399" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P399" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R399" t="inlineStr">
@@ -32306,10 +32306,10 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>833</v>
+        <v>600</v>
       </c>
       <c r="T399" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="400">
@@ -32355,29 +32355,29 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>377</v>
+        <v>57</v>
       </c>
       <c r="N400" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O400" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P400" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
@@ -32386,10 +32386,10 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T400" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="401">
@@ -32435,25 +32435,25 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>409</v>
+        <v>60</v>
       </c>
       <c r="N401" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O401" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P401" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T401" t="n">
         <v>10</v>
@@ -32515,7 +32515,7 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
@@ -32524,7 +32524,7 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="N402" t="n">
         <v>5000</v>
@@ -32537,7 +32537,7 @@
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
@@ -32546,10 +32546,10 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="T402" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="403">
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E403" t="n">
         <v>5</v>
@@ -32600,24 +32600,24 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>60</v>
+        <v>377</v>
       </c>
       <c r="N403" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O403" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P403" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T403" t="n">
         <v>10</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E404" t="n">
         <v>5</v>
@@ -32675,25 +32675,25 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>78</v>
+        <v>409</v>
       </c>
       <c r="N404" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O404" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P404" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T404" t="n">
         <v>10</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E405" t="n">
         <v>5</v>
@@ -32755,25 +32755,25 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="N405" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O405" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P405" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T405" t="n">
         <v>10</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E406" t="n">
         <v>5</v>
@@ -32835,29 +32835,29 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N406" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O406" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P406" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T406" t="n">
         <v>10</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E407" t="n">
         <v>5</v>
@@ -32915,7 +32915,7 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -32924,7 +32924,7 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="N407" t="n">
         <v>7000</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E408" t="n">
         <v>5</v>
@@ -32995,7 +32995,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E409" t="n">
         <v>5</v>
@@ -33075,7 +33075,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -33084,7 +33084,7 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N409" t="n">
         <v>5000</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44159</v>
+        <v>44433</v>
       </c>
       <c r="E410" t="n">
         <v>5</v>
@@ -33164,20 +33164,20 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N410" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O410" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P410" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R410" t="inlineStr">
@@ -33186,10 +33186,10 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>933</v>
+        <v>700</v>
       </c>
       <c r="T410" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="411">
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44159</v>
+        <v>44433</v>
       </c>
       <c r="E411" t="n">
         <v>5</v>
@@ -33244,20 +33244,20 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N411" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O411" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P411" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R411" t="inlineStr">
@@ -33266,10 +33266,10 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T411" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="412">
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44159</v>
+        <v>44433</v>
       </c>
       <c r="E412" t="n">
         <v>5</v>
@@ -33324,20 +33324,20 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N412" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O412" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P412" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R412" t="inlineStr">
@@ -33346,10 +33346,10 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T412" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="413">
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E413" t="n">
         <v>5</v>
@@ -33404,20 +33404,20 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N413" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O413" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P413" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
@@ -33426,10 +33426,10 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="T413" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="414">
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E414" t="n">
         <v>5</v>
@@ -33484,20 +33484,20 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N414" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O414" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P414" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
@@ -33506,10 +33506,10 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T414" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="415">
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E415" t="n">
         <v>5</v>
@@ -33564,20 +33564,20 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="N415" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O415" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P415" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
@@ -33586,10 +33586,10 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T415" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="416">
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E416" t="n">
         <v>5</v>
@@ -33635,7 +33635,7 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N416" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O416" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P416" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T416" t="n">
         <v>10</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E417" t="n">
         <v>5</v>
@@ -33715,7 +33715,7 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N417" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O417" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P417" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T417" t="n">
         <v>10</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E418" t="n">
         <v>5</v>
@@ -33795,7 +33795,7 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="N418" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O418" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P418" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T418" t="n">
         <v>10</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E419" t="n">
         <v>5</v>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N419" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O419" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P419" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T419" t="n">
         <v>10</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E420" t="n">
         <v>5</v>
@@ -33955,7 +33955,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N420" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O420" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P420" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T420" t="n">
         <v>10</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E421" t="n">
         <v>5</v>
@@ -34035,7 +34035,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N421" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O421" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P421" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T421" t="n">
         <v>10</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E422" t="n">
         <v>5</v>
@@ -34124,7 +34124,7 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N422" t="n">
         <v>7000</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E423" t="n">
         <v>5</v>
@@ -34204,7 +34204,7 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N423" t="n">
         <v>6000</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E424" t="n">
         <v>5</v>
@@ -34284,7 +34284,7 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N424" t="n">
         <v>5000</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E425" t="n">
         <v>5</v>
@@ -34355,25 +34355,25 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M425" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N425" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O425" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P425" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T425" t="n">
         <v>10</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E426" t="n">
         <v>5</v>
@@ -34435,25 +34435,25 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M426" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N426" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O426" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P426" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T426" t="n">
         <v>10</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E427" t="n">
         <v>5</v>
@@ -34515,25 +34515,25 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N427" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O427" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P427" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T427" t="n">
         <v>10</v>
@@ -34595,7 +34595,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -34604,7 +34604,7 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="N428" t="n">
         <v>6000</v>
@@ -34675,7 +34675,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -34684,7 +34684,7 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N429" t="n">
         <v>5000</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E430" t="n">
         <v>5</v>
@@ -34764,7 +34764,7 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N430" t="n">
         <v>7000</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E431" t="n">
         <v>5</v>
@@ -34844,7 +34844,7 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N431" t="n">
         <v>6000</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E432" t="n">
         <v>5</v>
@@ -34924,7 +34924,7 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N432" t="n">
         <v>5000</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E433" t="n">
         <v>5</v>
@@ -34995,25 +34995,25 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M433" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N433" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O433" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="P433" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
@@ -35026,7 +35026,7 @@
         </is>
       </c>
       <c r="S433" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="T433" t="n">
         <v>10</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E434" t="n">
         <v>5</v>
@@ -35075,25 +35075,25 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M434" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N434" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O434" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P434" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T434" t="n">
         <v>10</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E435" t="n">
         <v>5</v>
@@ -35155,25 +35155,25 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M435" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N435" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O435" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P435" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T435" t="n">
         <v>10</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E436" t="n">
         <v>5</v>
@@ -35235,25 +35235,25 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M436" t="n">
         <v>65</v>
       </c>
       <c r="N436" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="O436" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="P436" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T436" t="n">
         <v>10</v>
@@ -35315,7 +35315,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -35324,7 +35324,7 @@
         </is>
       </c>
       <c r="M437" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N437" t="n">
         <v>7000</v>
@@ -35395,7 +35395,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -35404,7 +35404,7 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N438" t="n">
         <v>6000</v>
@@ -35475,7 +35475,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -35484,7 +35484,7 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N439" t="n">
         <v>5000</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E440" t="n">
         <v>5</v>
@@ -35564,7 +35564,7 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N440" t="n">
         <v>7000</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E441" t="n">
         <v>5</v>
@@ -35644,7 +35644,7 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N441" t="n">
         <v>6000</v>
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E442" t="n">
         <v>5</v>
@@ -35724,7 +35724,7 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N442" t="n">
         <v>5000</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E443" t="n">
         <v>5</v>
@@ -35795,7 +35795,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -35804,16 +35804,16 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N443" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O443" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P443" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T443" t="n">
         <v>10</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E444" t="n">
         <v>5</v>
@@ -35875,29 +35875,29 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N444" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O444" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P444" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R444" t="inlineStr">
@@ -35906,10 +35906,10 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T444" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="445">
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E445" t="n">
         <v>5</v>
@@ -35955,25 +35955,25 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N445" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O445" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P445" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T445" t="n">
         <v>10</v>
@@ -36040,24 +36040,24 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N446" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O446" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P446" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R446" t="inlineStr">
@@ -36066,10 +36066,10 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T446" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="447">
@@ -36120,24 +36120,24 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N447" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O447" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P447" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
@@ -36146,10 +36146,10 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T447" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="448">
@@ -36200,24 +36200,24 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N448" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O448" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P448" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R448" t="inlineStr">
@@ -36226,10 +36226,10 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T448" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="449">
@@ -36275,29 +36275,29 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N449" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O449" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P449" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
@@ -36306,10 +36306,10 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T449" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="450">
@@ -36355,25 +36355,25 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M450" t="n">
         <v>68</v>
       </c>
       <c r="N450" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O450" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P450" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T450" t="n">
         <v>10</v>
@@ -36435,7 +36435,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -36444,20 +36444,20 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N451" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O451" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P451" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
@@ -36466,10 +36466,10 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T451" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="452">
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -36524,16 +36524,16 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N452" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O452" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P452" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T452" t="n">
         <v>10</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E453" t="n">
         <v>5</v>
@@ -36604,16 +36604,16 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N453" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O453" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P453" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T453" t="n">
         <v>10</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E454" t="n">
         <v>5</v>
@@ -36684,16 +36684,16 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N454" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O454" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P454" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T454" t="n">
         <v>10</v>
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E455" t="n">
         <v>5</v>
@@ -36755,25 +36755,25 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="N455" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O455" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P455" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36782,11 +36782,11 @@
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S455" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T455" t="n">
         <v>10</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44397</v>
+        <v>44328</v>
       </c>
       <c r="E456" t="n">
         <v>5</v>
@@ -36840,20 +36840,20 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="N456" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O456" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P456" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T456" t="n">
         <v>10</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44397</v>
+        <v>44328</v>
       </c>
       <c r="E457" t="n">
         <v>5</v>
@@ -36920,24 +36920,24 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N457" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O457" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P457" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
@@ -36946,10 +36946,10 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T457" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="458">
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E458" t="n">
         <v>5</v>
@@ -36995,7 +36995,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -37004,16 +37004,16 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N458" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O458" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P458" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37022,11 +37022,11 @@
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S458" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T458" t="n">
         <v>10</v>
@@ -37080,24 +37080,24 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N459" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O459" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P459" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R459" t="inlineStr">
@@ -37106,10 +37106,10 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T459" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="460">
@@ -37160,24 +37160,24 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N460" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O460" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P460" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
@@ -37186,10 +37186,10 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T460" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="461">
@@ -37240,24 +37240,24 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M461" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="N461" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O461" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P461" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R461" t="inlineStr">
@@ -37266,10 +37266,10 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T461" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="462">
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -37315,7 +37315,7 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
@@ -37324,20 +37324,20 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N462" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O462" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P462" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R462" t="inlineStr">
@@ -37346,10 +37346,10 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="T462" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="463">
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -37395,7 +37395,7 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
@@ -37404,7 +37404,7 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="N463" t="n">
         <v>5000</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E464" t="n">
         <v>5</v>
@@ -37480,11 +37480,11 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N464" t="n">
         <v>7000</v>
@@ -37497,7 +37497,7 @@
       </c>
       <c r="Q464" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R464" t="inlineStr">
@@ -37506,10 +37506,10 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="T464" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="465">
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37564,7 +37564,7 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N465" t="n">
         <v>6000</v>
@@ -37635,7 +37635,7 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -37644,7 +37644,7 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="N466" t="n">
         <v>5000</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E467" t="n">
         <v>5</v>
@@ -37724,16 +37724,16 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N467" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O467" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P467" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T467" t="n">
         <v>10</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E468" t="n">
         <v>5</v>
@@ -37807,13 +37807,13 @@
         <v>80</v>
       </c>
       <c r="N468" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O468" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P468" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T468" t="n">
         <v>10</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E469" t="n">
         <v>5</v>
@@ -37887,13 +37887,13 @@
         <v>70</v>
       </c>
       <c r="N469" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O469" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P469" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T469" t="n">
         <v>10</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E470" t="n">
         <v>5</v>
@@ -37964,16 +37964,16 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N470" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O470" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P470" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T470" t="n">
         <v>10</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E471" t="n">
         <v>5</v>
@@ -38040,24 +38040,24 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M471" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N471" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O471" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P471" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R471" t="inlineStr">
@@ -38066,10 +38066,10 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T471" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="472">
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E472" t="n">
         <v>5</v>
@@ -38120,11 +38120,11 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M472" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N472" t="n">
         <v>6000</v>
@@ -38200,24 +38200,24 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N473" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O473" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P473" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R473" t="inlineStr">
@@ -38226,10 +38226,10 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T473" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="474">
@@ -38280,24 +38280,24 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N474" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O474" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P474" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R474" t="inlineStr">
@@ -38306,10 +38306,10 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T474" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="475">
@@ -38360,24 +38360,24 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="N475" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O475" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P475" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R475" t="inlineStr">
@@ -38386,10 +38386,10 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T475" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="476">
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E476" t="n">
         <v>5</v>
@@ -38440,24 +38440,24 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N476" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O476" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P476" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R476" t="inlineStr">
@@ -38466,10 +38466,10 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T476" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="477">
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E477" t="n">
         <v>5</v>
@@ -38520,20 +38520,20 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N477" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O477" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P477" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T477" t="n">
         <v>10</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E478" t="n">
         <v>5</v>
@@ -38604,20 +38604,20 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N478" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O478" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P478" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R478" t="inlineStr">
@@ -38626,10 +38626,10 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T478" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="479">
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E479" t="n">
         <v>5</v>
@@ -38675,7 +38675,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -38684,7 +38684,7 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N479" t="n">
         <v>7000</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E480" t="n">
         <v>5</v>
@@ -38755,7 +38755,7 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
@@ -38764,7 +38764,7 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N480" t="n">
         <v>6000</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E481" t="n">
         <v>5</v>
@@ -38835,7 +38835,7 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E482" t="n">
         <v>5</v>
@@ -38920,20 +38920,20 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M482" t="n">
         <v>75</v>
       </c>
       <c r="N482" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O482" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P482" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38942,11 +38942,11 @@
       </c>
       <c r="R482" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S482" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T482" t="n">
         <v>10</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E483" t="n">
         <v>5</v>
@@ -39000,20 +39000,20 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N483" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O483" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P483" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39022,11 +39022,11 @@
       </c>
       <c r="R483" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S483" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T483" t="n">
         <v>10</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E484" t="n">
         <v>5</v>
@@ -39080,20 +39080,20 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M484" t="n">
         <v>80</v>
       </c>
       <c r="N484" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O484" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P484" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T484" t="n">
         <v>10</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E485" t="n">
         <v>5</v>
@@ -39164,16 +39164,16 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N485" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O485" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P485" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39182,11 +39182,11 @@
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S485" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T485" t="n">
         <v>10</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E486" t="n">
         <v>5</v>
@@ -39244,16 +39244,16 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N486" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O486" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P486" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39262,11 +39262,11 @@
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S486" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T486" t="n">
         <v>10</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E487" t="n">
         <v>5</v>
@@ -39324,7 +39324,7 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N487" t="n">
         <v>7000</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E488" t="n">
         <v>5</v>
@@ -39400,24 +39400,24 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N488" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O488" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P488" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R488" t="inlineStr">
@@ -39426,10 +39426,10 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T488" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="489">
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E489" t="n">
         <v>5</v>
@@ -39480,20 +39480,20 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N489" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O489" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P489" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T489" t="n">
         <v>10</v>
@@ -39560,24 +39560,24 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N490" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O490" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P490" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R490" t="inlineStr">
@@ -39586,10 +39586,10 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T490" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="491">
@@ -39640,24 +39640,24 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N491" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O491" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P491" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R491" t="inlineStr">
@@ -39666,10 +39666,10 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T491" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="492">
@@ -39720,24 +39720,24 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N492" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O492" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P492" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R492" t="inlineStr">
@@ -39746,10 +39746,10 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T492" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="493">
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E493" t="n">
         <v>5</v>
@@ -39795,29 +39795,29 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N493" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O493" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P493" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R493" t="inlineStr">
@@ -39826,10 +39826,10 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T493" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="494">
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E494" t="n">
         <v>5</v>
@@ -39875,25 +39875,25 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="N494" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O494" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P494" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T494" t="n">
         <v>10</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E495" t="n">
         <v>5</v>
@@ -39955,7 +39955,7 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
@@ -39964,20 +39964,20 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="N495" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O495" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P495" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R495" t="inlineStr">
@@ -39986,10 +39986,10 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T495" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="496">
@@ -40035,7 +40035,7 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
@@ -40044,7 +40044,7 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N496" t="n">
         <v>7000</v>
@@ -40115,7 +40115,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -40124,7 +40124,7 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="N497" t="n">
         <v>6000</v>
@@ -40195,7 +40195,7 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
@@ -40204,7 +40204,7 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="N498" t="n">
         <v>5000</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E499" t="n">
         <v>5</v>
@@ -40275,25 +40275,25 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N499" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O499" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P499" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T499" t="n">
         <v>10</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E500" t="n">
         <v>5</v>
@@ -40355,25 +40355,25 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="N500" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O500" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P500" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40386,7 +40386,7 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T500" t="n">
         <v>10</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E501" t="n">
         <v>5</v>
@@ -40440,20 +40440,20 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M501" t="n">
         <v>80</v>
       </c>
       <c r="N501" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O501" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P501" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40466,7 +40466,7 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="T501" t="n">
         <v>10</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E502" t="n">
         <v>5</v>
@@ -40515,7 +40515,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N502" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O502" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P502" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T502" t="n">
         <v>10</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E503" t="n">
         <v>5</v>
@@ -40595,7 +40595,7 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
@@ -40604,7 +40604,7 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N503" t="n">
         <v>7000</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E504" t="n">
         <v>5</v>
@@ -40675,7 +40675,7 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N504" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O504" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P504" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T504" t="n">
         <v>10</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E505" t="n">
         <v>5</v>
@@ -40755,7 +40755,7 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
@@ -40767,13 +40767,13 @@
         <v>87</v>
       </c>
       <c r="N505" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O505" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P505" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T505" t="n">
         <v>10</v>
@@ -40807,68 +40807,308 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E506" t="n">
+        <v>5</v>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G506" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I506" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J506" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M506" t="n">
+        <v>85</v>
+      </c>
+      <c r="N506" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O506" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P506" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q506" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R506" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S506" t="n">
+        <v>700</v>
+      </c>
+      <c r="T506" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>3</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D507" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E506" t="n">
-        <v>5</v>
-      </c>
-      <c r="F506" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G506" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I506" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J506" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K506" t="inlineStr">
+      <c r="E507" t="n">
+        <v>5</v>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G507" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I507" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K507" t="inlineStr">
         <is>
           <t>Murcott</t>
         </is>
       </c>
-      <c r="L506" t="inlineStr">
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M507" t="n">
+        <v>85</v>
+      </c>
+      <c r="N507" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O507" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P507" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q507" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R507" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S507" t="n">
+        <v>700</v>
+      </c>
+      <c r="T507" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>3</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D508" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E508" t="n">
+        <v>5</v>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G508" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I508" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M508" t="n">
+        <v>87</v>
+      </c>
+      <c r="N508" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O508" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P508" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q508" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R508" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S508" t="n">
+        <v>600</v>
+      </c>
+      <c r="T508" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>3</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D509" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E509" t="n">
+        <v>5</v>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G509" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I509" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L509" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M506" t="n">
+      <c r="M509" t="n">
         <v>80</v>
       </c>
-      <c r="N506" t="n">
+      <c r="N509" t="n">
         <v>5000</v>
       </c>
-      <c r="O506" t="n">
+      <c r="O509" t="n">
         <v>5000</v>
       </c>
-      <c r="P506" t="n">
+      <c r="P509" t="n">
         <v>5000</v>
       </c>
-      <c r="Q506" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R506" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="S506" t="n">
+      <c r="Q509" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R509" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S509" t="n">
         <v>500</v>
       </c>
-      <c r="T506" t="n">
+      <c r="T509" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T509"/>
+  <dimension ref="A1:T512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E339" t="n">
         <v>5</v>
@@ -27475,16 +27475,16 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N339" t="n">
         <v>7000</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E340" t="n">
         <v>5</v>
@@ -27555,16 +27555,16 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N340" t="n">
         <v>6000</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E341" t="n">
         <v>5</v>
@@ -27635,25 +27635,25 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N341" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O341" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P341" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T341" t="n">
         <v>10</v>
@@ -27715,7 +27715,7 @@
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
@@ -27724,7 +27724,7 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N342" t="n">
         <v>7000</v>
@@ -27795,7 +27795,7 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L343" t="inlineStr">
@@ -27804,7 +27804,7 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N343" t="n">
         <v>6000</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E344" t="n">
         <v>5</v>
@@ -27875,7 +27875,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N344" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O344" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P344" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T344" t="n">
         <v>10</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E345" t="n">
         <v>5</v>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N345" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O345" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P345" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T345" t="n">
         <v>10</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E346" t="n">
         <v>5</v>
@@ -28035,7 +28035,7 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N346" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O346" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P346" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T346" t="n">
         <v>10</v>
@@ -28115,7 +28115,7 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
@@ -28124,7 +28124,7 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N347" t="n">
         <v>7000</v>
@@ -28195,7 +28195,7 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -28204,7 +28204,7 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N348" t="n">
         <v>6000</v>
@@ -28275,7 +28275,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -28284,7 +28284,7 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N349" t="n">
         <v>5000</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E350" t="n">
         <v>5</v>
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N350" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O350" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P350" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T350" t="n">
         <v>10</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E351" t="n">
         <v>5</v>
@@ -28444,16 +28444,16 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N351" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O351" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P351" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T351" t="n">
         <v>10</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E352" t="n">
         <v>5</v>
@@ -28527,13 +28527,13 @@
         <v>70</v>
       </c>
       <c r="N352" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O352" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P352" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T352" t="n">
         <v>10</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E353" t="n">
         <v>5</v>
@@ -28595,7 +28595,7 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
@@ -28604,16 +28604,16 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N353" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O353" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P353" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T353" t="n">
         <v>10</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E354" t="n">
         <v>5</v>
@@ -28675,7 +28675,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -28684,16 +28684,16 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N354" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O354" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P354" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T354" t="n">
         <v>10</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E355" t="n">
         <v>5</v>
@@ -28755,25 +28755,25 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M355" t="n">
         <v>70</v>
       </c>
       <c r="N355" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O355" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P355" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28782,11 +28782,11 @@
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S355" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T355" t="n">
         <v>10</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44475</v>
+        <v>44165</v>
       </c>
       <c r="E356" t="n">
         <v>5</v>
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N356" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O356" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P356" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T356" t="n">
         <v>10</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44475</v>
+        <v>44165</v>
       </c>
       <c r="E357" t="n">
         <v>5</v>
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N357" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O357" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="P357" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T357" t="n">
         <v>10</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E358" t="n">
         <v>5</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M358" t="n">
         <v>70</v>
       </c>
       <c r="N358" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O358" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P358" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29022,11 +29022,11 @@
       </c>
       <c r="R358" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S358" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T358" t="n">
         <v>10</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E359" t="n">
         <v>5</v>
@@ -29084,7 +29084,7 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N359" t="n">
         <v>7000</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E360" t="n">
         <v>5</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E361" t="n">
         <v>5</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E362" t="n">
         <v>5</v>
@@ -29320,11 +29320,11 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="N362" t="n">
         <v>7000</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E363" t="n">
         <v>5</v>
@@ -29400,11 +29400,11 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N363" t="n">
         <v>6000</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44362</v>
+        <v>44474</v>
       </c>
       <c r="E364" t="n">
         <v>5</v>
@@ -29475,25 +29475,25 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N364" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O364" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P364" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T364" t="n">
         <v>10</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E365" t="n">
         <v>5</v>
@@ -29555,7 +29555,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="N365" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O365" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P365" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T365" t="n">
         <v>10</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44362</v>
+        <v>44252</v>
       </c>
       <c r="E366" t="n">
         <v>5</v>
@@ -29635,7 +29635,7 @@
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N366" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O366" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P366" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T366" t="n">
         <v>10</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E367" t="n">
         <v>5</v>
@@ -29715,7 +29715,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="N367" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O367" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P367" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T367" t="n">
         <v>10</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E368" t="n">
         <v>5</v>
@@ -29795,7 +29795,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -29804,16 +29804,16 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N368" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O368" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P368" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T368" t="n">
         <v>10</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E369" t="n">
         <v>5</v>
@@ -29875,7 +29875,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -29884,16 +29884,16 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N369" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O369" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P369" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T369" t="n">
         <v>10</v>
@@ -29955,25 +29955,25 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N370" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O370" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P370" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T370" t="n">
         <v>10</v>
@@ -30035,25 +30035,25 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N371" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O371" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P371" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T371" t="n">
         <v>10</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E372" t="n">
         <v>5</v>
@@ -30115,25 +30115,25 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N372" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O372" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P372" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T372" t="n">
         <v>10</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E373" t="n">
         <v>5</v>
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="N373" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O373" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P373" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T373" t="n">
         <v>10</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E374" t="n">
         <v>5</v>
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N374" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O374" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P374" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T374" t="n">
         <v>10</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E375" t="n">
         <v>5</v>
@@ -30355,7 +30355,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N375" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O375" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P375" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T375" t="n">
         <v>10</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E376" t="n">
         <v>5</v>
@@ -30435,7 +30435,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="N376" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O376" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P376" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T376" t="n">
         <v>10</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E377" t="n">
         <v>5</v>
@@ -30515,7 +30515,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N377" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O377" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P377" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T377" t="n">
         <v>10</v>
@@ -30595,7 +30595,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -30604,7 +30604,7 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N378" t="n">
         <v>8000</v>
@@ -30675,29 +30675,29 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M379" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="N379" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O379" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P379" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R379" t="inlineStr">
@@ -30706,10 +30706,10 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T379" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="380">
@@ -30755,25 +30755,25 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M380" t="n">
         <v>80</v>
       </c>
       <c r="N380" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O380" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P380" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T380" t="n">
         <v>10</v>
@@ -30840,24 +30840,24 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N381" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O381" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P381" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R381" t="inlineStr">
@@ -30866,10 +30866,10 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T381" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="382">
@@ -30920,24 +30920,24 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N382" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O382" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P382" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R382" t="inlineStr">
@@ -30946,10 +30946,10 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T382" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="383">
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E383" t="n">
         <v>5</v>
@@ -30995,25 +30995,25 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N383" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O383" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P383" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T383" t="n">
         <v>10</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E384" t="n">
         <v>5</v>
@@ -31075,25 +31075,25 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M384" t="n">
         <v>70</v>
       </c>
       <c r="N384" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O384" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P384" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T384" t="n">
         <v>15</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E385" t="n">
         <v>5</v>
@@ -31155,25 +31155,25 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="N385" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O385" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P385" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T385" t="n">
         <v>10</v>
@@ -31240,24 +31240,24 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N386" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O386" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P386" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R386" t="inlineStr">
@@ -31266,10 +31266,10 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T386" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="387">
@@ -31320,24 +31320,24 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N387" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O387" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="P387" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R387" t="inlineStr">
@@ -31346,10 +31346,10 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="T387" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="388">
@@ -31400,24 +31400,24 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="N388" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O388" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P388" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R388" t="inlineStr">
@@ -31426,10 +31426,10 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T388" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389">
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E389" t="n">
         <v>5</v>
@@ -31475,16 +31475,16 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M389" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="N389" t="n">
         <v>7000</v>
@@ -31497,7 +31497,7 @@
       </c>
       <c r="Q389" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R389" t="inlineStr">
@@ -31506,10 +31506,10 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="T389" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="390">
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E390" t="n">
         <v>5</v>
@@ -31555,25 +31555,25 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="N390" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O390" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P390" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T390" t="n">
         <v>10</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E391" t="n">
         <v>5</v>
@@ -31635,7 +31635,7 @@
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L391" t="inlineStr">
@@ -31644,20 +31644,20 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="N391" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O391" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P391" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R391" t="inlineStr">
@@ -31666,10 +31666,10 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T391" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="392">
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E392" t="n">
         <v>5</v>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -31724,7 +31724,7 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="N392" t="n">
         <v>7000</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E393" t="n">
         <v>5</v>
@@ -31795,7 +31795,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -31804,7 +31804,7 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="N393" t="n">
         <v>6000</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E394" t="n">
         <v>5</v>
@@ -31875,7 +31875,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -31884,7 +31884,7 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="N394" t="n">
         <v>5000</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E395" t="n">
         <v>5</v>
@@ -31964,7 +31964,7 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="N395" t="n">
         <v>7000</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E396" t="n">
         <v>5</v>
@@ -32044,7 +32044,7 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="N396" t="n">
         <v>6000</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E397" t="n">
         <v>5</v>
@@ -32124,7 +32124,7 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="N397" t="n">
         <v>5000</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E398" t="n">
         <v>5</v>
@@ -32195,7 +32195,7 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
@@ -32204,7 +32204,7 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="N398" t="n">
         <v>7000</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E399" t="n">
         <v>5</v>
@@ -32275,7 +32275,7 @@
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -32284,7 +32284,7 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N399" t="n">
         <v>6000</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E400" t="n">
         <v>5</v>
@@ -32355,29 +32355,29 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="N400" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O400" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P400" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R400" t="inlineStr">
@@ -32386,10 +32386,10 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T400" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="401">
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N401" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O401" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P401" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T401" t="n">
         <v>10</v>
@@ -32520,24 +32520,24 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N402" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O402" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P402" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
-          <t>$/bandeja 6 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R402" t="inlineStr">
@@ -32546,10 +32546,10 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>833</v>
+        <v>600</v>
       </c>
       <c r="T402" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="403">
@@ -32595,29 +32595,29 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>377</v>
+        <v>57</v>
       </c>
       <c r="N403" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O403" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P403" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R403" t="inlineStr">
@@ -32626,10 +32626,10 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T403" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="404">
@@ -32675,25 +32675,25 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M404" t="n">
-        <v>409</v>
+        <v>60</v>
       </c>
       <c r="N404" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O404" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P404" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T404" t="n">
         <v>10</v>
@@ -32755,7 +32755,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -32764,7 +32764,7 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>380</v>
+        <v>50</v>
       </c>
       <c r="N405" t="n">
         <v>5000</v>
@@ -32777,7 +32777,7 @@
       </c>
       <c r="Q405" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/bandeja 6 kilos</t>
         </is>
       </c>
       <c r="R405" t="inlineStr">
@@ -32786,10 +32786,10 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="T405" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="406">
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E406" t="n">
         <v>5</v>
@@ -32840,24 +32840,24 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>60</v>
+        <v>377</v>
       </c>
       <c r="N406" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O406" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P406" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R406" t="inlineStr">
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="T406" t="n">
         <v>10</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E407" t="n">
         <v>5</v>
@@ -32915,25 +32915,25 @@
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>78</v>
+        <v>409</v>
       </c>
       <c r="N407" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O407" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P407" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T407" t="n">
         <v>10</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44377</v>
+        <v>44435</v>
       </c>
       <c r="E408" t="n">
         <v>5</v>
@@ -32995,25 +32995,25 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="N408" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O408" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P408" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T408" t="n">
         <v>10</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E409" t="n">
         <v>5</v>
@@ -33075,29 +33075,29 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N409" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O409" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P409" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R409" t="inlineStr">
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="T409" t="n">
         <v>10</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E410" t="n">
         <v>5</v>
@@ -33155,7 +33155,7 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
@@ -33164,7 +33164,7 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="N410" t="n">
         <v>7000</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E411" t="n">
         <v>5</v>
@@ -33235,7 +33235,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E412" t="n">
         <v>5</v>
@@ -33315,7 +33315,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -33324,7 +33324,7 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N412" t="n">
         <v>5000</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44159</v>
+        <v>44433</v>
       </c>
       <c r="E413" t="n">
         <v>5</v>
@@ -33404,20 +33404,20 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N413" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="O413" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="P413" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R413" t="inlineStr">
@@ -33426,10 +33426,10 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>933</v>
+        <v>700</v>
       </c>
       <c r="T413" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="414">
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44159</v>
+        <v>44433</v>
       </c>
       <c r="E414" t="n">
         <v>5</v>
@@ -33484,20 +33484,20 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N414" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="O414" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="P414" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R414" t="inlineStr">
@@ -33506,10 +33506,10 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>867</v>
+        <v>600</v>
       </c>
       <c r="T414" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="415">
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44159</v>
+        <v>44433</v>
       </c>
       <c r="E415" t="n">
         <v>5</v>
@@ -33564,20 +33564,20 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N415" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="O415" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P415" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R415" t="inlineStr">
@@ -33586,10 +33586,10 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T415" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="416">
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E416" t="n">
         <v>5</v>
@@ -33644,20 +33644,20 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N416" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O416" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P416" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R416" t="inlineStr">
@@ -33666,10 +33666,10 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="T416" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="417">
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E417" t="n">
         <v>5</v>
@@ -33724,20 +33724,20 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N417" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O417" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P417" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R417" t="inlineStr">
@@ -33746,10 +33746,10 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>800</v>
+        <v>867</v>
       </c>
       <c r="T417" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="418">
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E418" t="n">
         <v>5</v>
@@ -33804,20 +33804,20 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="N418" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O418" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P418" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R418" t="inlineStr">
@@ -33826,10 +33826,10 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T418" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="419">
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E419" t="n">
         <v>5</v>
@@ -33875,7 +33875,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N419" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O419" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P419" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T419" t="n">
         <v>10</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E420" t="n">
         <v>5</v>
@@ -33955,7 +33955,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N420" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O420" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P420" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T420" t="n">
         <v>10</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E421" t="n">
         <v>5</v>
@@ -34035,7 +34035,7 @@
       </c>
       <c r="K421" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L421" t="inlineStr">
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="N421" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O421" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P421" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T421" t="n">
         <v>10</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E422" t="n">
         <v>5</v>
@@ -34115,7 +34115,7 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N422" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O422" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P422" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T422" t="n">
         <v>10</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E423" t="n">
         <v>5</v>
@@ -34195,7 +34195,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N423" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O423" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P423" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T423" t="n">
         <v>10</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E424" t="n">
         <v>5</v>
@@ -34275,7 +34275,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N424" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O424" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P424" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T424" t="n">
         <v>10</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E425" t="n">
         <v>5</v>
@@ -34364,7 +34364,7 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="N425" t="n">
         <v>7000</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E426" t="n">
         <v>5</v>
@@ -34444,7 +34444,7 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N426" t="n">
         <v>6000</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E427" t="n">
         <v>5</v>
@@ -34524,7 +34524,7 @@
         </is>
       </c>
       <c r="M427" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N427" t="n">
         <v>5000</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E428" t="n">
         <v>5</v>
@@ -34595,25 +34595,25 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N428" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O428" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P428" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T428" t="n">
         <v>10</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E429" t="n">
         <v>5</v>
@@ -34675,25 +34675,25 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M429" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N429" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O429" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P429" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T429" t="n">
         <v>10</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E430" t="n">
         <v>5</v>
@@ -34755,25 +34755,25 @@
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N430" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O430" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P430" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T430" t="n">
         <v>10</v>
@@ -34835,7 +34835,7 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L431" t="inlineStr">
@@ -34844,7 +34844,7 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="N431" t="n">
         <v>6000</v>
@@ -34915,7 +34915,7 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
@@ -34924,7 +34924,7 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N432" t="n">
         <v>5000</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E433" t="n">
         <v>5</v>
@@ -35004,7 +35004,7 @@
         </is>
       </c>
       <c r="M433" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N433" t="n">
         <v>7000</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E434" t="n">
         <v>5</v>
@@ -35084,7 +35084,7 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N434" t="n">
         <v>6000</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E435" t="n">
         <v>5</v>
@@ -35164,7 +35164,7 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N435" t="n">
         <v>5000</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E436" t="n">
         <v>5</v>
@@ -35235,25 +35235,25 @@
       </c>
       <c r="K436" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N436" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O436" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="P436" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="T436" t="n">
         <v>10</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E437" t="n">
         <v>5</v>
@@ -35315,25 +35315,25 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N437" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O437" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P437" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T437" t="n">
         <v>10</v>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E438" t="n">
         <v>5</v>
@@ -35395,25 +35395,25 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M438" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N438" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O438" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P438" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T438" t="n">
         <v>10</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E439" t="n">
         <v>5</v>
@@ -35475,25 +35475,25 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M439" t="n">
         <v>65</v>
       </c>
       <c r="N439" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="O439" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="P439" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="T439" t="n">
         <v>10</v>
@@ -35555,7 +35555,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -35564,7 +35564,7 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N440" t="n">
         <v>7000</v>
@@ -35635,7 +35635,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -35644,7 +35644,7 @@
         </is>
       </c>
       <c r="M441" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N441" t="n">
         <v>6000</v>
@@ -35715,7 +35715,7 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
@@ -35724,7 +35724,7 @@
         </is>
       </c>
       <c r="M442" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N442" t="n">
         <v>5000</v>
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E443" t="n">
         <v>5</v>
@@ -35804,7 +35804,7 @@
         </is>
       </c>
       <c r="M443" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N443" t="n">
         <v>7000</v>
@@ -35847,7 +35847,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E444" t="n">
         <v>5</v>
@@ -35884,7 +35884,7 @@
         </is>
       </c>
       <c r="M444" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N444" t="n">
         <v>6000</v>
@@ -35927,7 +35927,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E445" t="n">
         <v>5</v>
@@ -35964,7 +35964,7 @@
         </is>
       </c>
       <c r="M445" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N445" t="n">
         <v>5000</v>
@@ -36007,7 +36007,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E446" t="n">
         <v>5</v>
@@ -36035,7 +36035,7 @@
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L446" t="inlineStr">
@@ -36044,16 +36044,16 @@
         </is>
       </c>
       <c r="M446" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N446" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O446" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P446" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
@@ -36066,7 +36066,7 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T446" t="n">
         <v>10</v>
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E447" t="n">
         <v>5</v>
@@ -36115,29 +36115,29 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M447" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N447" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O447" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P447" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
@@ -36146,10 +36146,10 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T447" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="448">
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E448" t="n">
         <v>5</v>
@@ -36195,25 +36195,25 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M448" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N448" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O448" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P448" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T448" t="n">
         <v>10</v>
@@ -36280,24 +36280,24 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N449" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O449" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P449" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
@@ -36306,10 +36306,10 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T449" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="450">
@@ -36360,24 +36360,24 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M450" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N450" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O450" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P450" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R450" t="inlineStr">
@@ -36386,10 +36386,10 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T450" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="451">
@@ -36440,24 +36440,24 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M451" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N451" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O451" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P451" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R451" t="inlineStr">
@@ -36466,10 +36466,10 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T451" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="452">
@@ -36515,29 +36515,29 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M452" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N452" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O452" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P452" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R452" t="inlineStr">
@@ -36546,10 +36546,10 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T452" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="453">
@@ -36595,25 +36595,25 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M453" t="n">
         <v>68</v>
       </c>
       <c r="N453" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O453" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P453" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
@@ -36626,7 +36626,7 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T453" t="n">
         <v>10</v>
@@ -36675,7 +36675,7 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -36684,20 +36684,20 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N454" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O454" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P454" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R454" t="inlineStr">
@@ -36706,10 +36706,10 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T454" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="455">
@@ -36727,7 +36727,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E455" t="n">
         <v>5</v>
@@ -36764,16 +36764,16 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N455" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O455" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P455" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T455" t="n">
         <v>10</v>
@@ -36807,7 +36807,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E456" t="n">
         <v>5</v>
@@ -36844,16 +36844,16 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N456" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O456" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P456" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T456" t="n">
         <v>10</v>
@@ -36887,7 +36887,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E457" t="n">
         <v>5</v>
@@ -36924,16 +36924,16 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N457" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O457" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P457" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T457" t="n">
         <v>10</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E458" t="n">
         <v>5</v>
@@ -36995,25 +36995,25 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="N458" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O458" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P458" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37022,11 +37022,11 @@
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S458" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T458" t="n">
         <v>10</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44397</v>
+        <v>44328</v>
       </c>
       <c r="E459" t="n">
         <v>5</v>
@@ -37080,20 +37080,20 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M459" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="N459" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O459" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P459" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T459" t="n">
         <v>10</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44397</v>
+        <v>44328</v>
       </c>
       <c r="E460" t="n">
         <v>5</v>
@@ -37160,24 +37160,24 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M460" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N460" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O460" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P460" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
@@ -37186,10 +37186,10 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T460" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="461">
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E461" t="n">
         <v>5</v>
@@ -37235,7 +37235,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -37244,16 +37244,16 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N461" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O461" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P461" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37262,11 +37262,11 @@
       </c>
       <c r="R461" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S461" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T461" t="n">
         <v>10</v>
@@ -37320,24 +37320,24 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M462" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N462" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O462" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P462" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R462" t="inlineStr">
@@ -37346,10 +37346,10 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T462" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="463">
@@ -37400,24 +37400,24 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M463" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N463" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O463" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P463" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R463" t="inlineStr">
@@ -37426,10 +37426,10 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T463" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="464">
@@ -37480,24 +37480,24 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="N464" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O464" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P464" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R464" t="inlineStr">
@@ -37506,10 +37506,10 @@
         </is>
       </c>
       <c r="S464" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T464" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="465">
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E465" t="n">
         <v>5</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37564,20 +37564,20 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N465" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O465" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P465" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R465" t="inlineStr">
@@ -37586,10 +37586,10 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="T465" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="466">
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E466" t="n">
         <v>5</v>
@@ -37635,7 +37635,7 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -37644,7 +37644,7 @@
         </is>
       </c>
       <c r="M466" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="N466" t="n">
         <v>5000</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E467" t="n">
         <v>5</v>
@@ -37720,11 +37720,11 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N467" t="n">
         <v>7000</v>
@@ -37737,7 +37737,7 @@
       </c>
       <c r="Q467" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R467" t="inlineStr">
@@ -37746,10 +37746,10 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="T467" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="468">
@@ -37795,7 +37795,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -37804,7 +37804,7 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N468" t="n">
         <v>6000</v>
@@ -37875,7 +37875,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -37884,7 +37884,7 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="N469" t="n">
         <v>5000</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E470" t="n">
         <v>5</v>
@@ -37964,16 +37964,16 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N470" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O470" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P470" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T470" t="n">
         <v>10</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E471" t="n">
         <v>5</v>
@@ -38047,13 +38047,13 @@
         <v>80</v>
       </c>
       <c r="N471" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O471" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P471" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T471" t="n">
         <v>10</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E472" t="n">
         <v>5</v>
@@ -38127,13 +38127,13 @@
         <v>70</v>
       </c>
       <c r="N472" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O472" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P472" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T472" t="n">
         <v>10</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E473" t="n">
         <v>5</v>
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N473" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O473" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P473" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T473" t="n">
         <v>10</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E474" t="n">
         <v>5</v>
@@ -38280,24 +38280,24 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M474" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N474" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O474" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P474" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R474" t="inlineStr">
@@ -38306,10 +38306,10 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T474" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="475">
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E475" t="n">
         <v>5</v>
@@ -38360,11 +38360,11 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M475" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N475" t="n">
         <v>6000</v>
@@ -38440,24 +38440,24 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M476" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N476" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O476" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P476" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R476" t="inlineStr">
@@ -38466,10 +38466,10 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T476" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="477">
@@ -38520,24 +38520,24 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M477" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N477" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O477" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P477" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R477" t="inlineStr">
@@ -38546,10 +38546,10 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T477" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="478">
@@ -38600,24 +38600,24 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M478" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="N478" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O478" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P478" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R478" t="inlineStr">
@@ -38626,10 +38626,10 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T478" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="479">
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E479" t="n">
         <v>5</v>
@@ -38680,24 +38680,24 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M479" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N479" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O479" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P479" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R479" t="inlineStr">
@@ -38706,10 +38706,10 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T479" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="480">
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E480" t="n">
         <v>5</v>
@@ -38760,20 +38760,20 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N480" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O480" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P480" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T480" t="n">
         <v>10</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E481" t="n">
         <v>5</v>
@@ -38844,20 +38844,20 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N481" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O481" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P481" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R481" t="inlineStr">
@@ -38866,10 +38866,10 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T481" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="482">
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E482" t="n">
         <v>5</v>
@@ -38915,7 +38915,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
@@ -38924,7 +38924,7 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N482" t="n">
         <v>7000</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E483" t="n">
         <v>5</v>
@@ -38995,7 +38995,7 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
@@ -39004,7 +39004,7 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N483" t="n">
         <v>6000</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E484" t="n">
         <v>5</v>
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E485" t="n">
         <v>5</v>
@@ -39160,20 +39160,20 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M485" t="n">
         <v>75</v>
       </c>
       <c r="N485" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O485" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P485" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39182,11 +39182,11 @@
       </c>
       <c r="R485" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S485" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T485" t="n">
         <v>10</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E486" t="n">
         <v>5</v>
@@ -39240,20 +39240,20 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N486" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O486" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P486" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39262,11 +39262,11 @@
       </c>
       <c r="R486" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S486" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T486" t="n">
         <v>10</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E487" t="n">
         <v>5</v>
@@ -39320,20 +39320,20 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M487" t="n">
         <v>80</v>
       </c>
       <c r="N487" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O487" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P487" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T487" t="n">
         <v>10</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E488" t="n">
         <v>5</v>
@@ -39404,16 +39404,16 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N488" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O488" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P488" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39422,11 +39422,11 @@
       </c>
       <c r="R488" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S488" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T488" t="n">
         <v>10</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E489" t="n">
         <v>5</v>
@@ -39484,16 +39484,16 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N489" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O489" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P489" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
@@ -39502,11 +39502,11 @@
       </c>
       <c r="R489" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S489" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T489" t="n">
         <v>10</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E490" t="n">
         <v>5</v>
@@ -39564,7 +39564,7 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N490" t="n">
         <v>7000</v>
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E491" t="n">
         <v>5</v>
@@ -39640,24 +39640,24 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N491" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O491" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P491" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R491" t="inlineStr">
@@ -39666,10 +39666,10 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T491" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="492">
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E492" t="n">
         <v>5</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N492" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O492" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P492" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T492" t="n">
         <v>10</v>
@@ -39800,24 +39800,24 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N493" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O493" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P493" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R493" t="inlineStr">
@@ -39826,10 +39826,10 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T493" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="494">
@@ -39880,24 +39880,24 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N494" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O494" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P494" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R494" t="inlineStr">
@@ -39906,10 +39906,10 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T494" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="495">
@@ -39960,24 +39960,24 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N495" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O495" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P495" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R495" t="inlineStr">
@@ -39986,10 +39986,10 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T495" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="496">
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E496" t="n">
         <v>5</v>
@@ -40035,29 +40035,29 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N496" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O496" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P496" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R496" t="inlineStr">
@@ -40066,10 +40066,10 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T496" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="497">
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -40115,25 +40115,25 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="N497" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O497" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P497" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
@@ -40146,7 +40146,7 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T497" t="n">
         <v>10</v>
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E498" t="n">
         <v>5</v>
@@ -40195,7 +40195,7 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
@@ -40204,20 +40204,20 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="N498" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O498" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P498" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R498" t="inlineStr">
@@ -40226,10 +40226,10 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T498" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="499">
@@ -40275,7 +40275,7 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
@@ -40284,7 +40284,7 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N499" t="n">
         <v>7000</v>
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40364,7 +40364,7 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="N500" t="n">
         <v>6000</v>
@@ -40435,7 +40435,7 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -40444,7 +40444,7 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="N501" t="n">
         <v>5000</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E502" t="n">
         <v>5</v>
@@ -40515,25 +40515,25 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N502" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O502" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P502" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T502" t="n">
         <v>10</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E503" t="n">
         <v>5</v>
@@ -40595,25 +40595,25 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="N503" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O503" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P503" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T503" t="n">
         <v>10</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E504" t="n">
         <v>5</v>
@@ -40680,20 +40680,20 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M504" t="n">
         <v>80</v>
       </c>
       <c r="N504" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O504" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P504" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="T504" t="n">
         <v>10</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E505" t="n">
         <v>5</v>
@@ -40755,7 +40755,7 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N505" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O505" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P505" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T505" t="n">
         <v>10</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E506" t="n">
         <v>5</v>
@@ -40835,7 +40835,7 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
@@ -40844,7 +40844,7 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N506" t="n">
         <v>7000</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E507" t="n">
         <v>5</v>
@@ -40915,7 +40915,7 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N507" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O507" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P507" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T507" t="n">
         <v>10</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E508" t="n">
         <v>5</v>
@@ -40995,7 +40995,7 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
@@ -41007,13 +41007,13 @@
         <v>87</v>
       </c>
       <c r="N508" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O508" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P508" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T508" t="n">
         <v>10</v>
@@ -41047,68 +41047,308 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E509" t="n">
+        <v>5</v>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G509" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I509" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M509" t="n">
+        <v>85</v>
+      </c>
+      <c r="N509" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O509" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P509" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q509" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R509" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S509" t="n">
+        <v>700</v>
+      </c>
+      <c r="T509" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>3</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D510" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E509" t="n">
-        <v>5</v>
-      </c>
-      <c r="F509" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G509" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I509" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J509" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K509" t="inlineStr">
+      <c r="E510" t="n">
+        <v>5</v>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G510" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I510" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J510" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K510" t="inlineStr">
         <is>
           <t>Murcott</t>
         </is>
       </c>
-      <c r="L509" t="inlineStr">
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M510" t="n">
+        <v>85</v>
+      </c>
+      <c r="N510" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O510" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P510" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q510" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R510" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S510" t="n">
+        <v>700</v>
+      </c>
+      <c r="T510" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>3</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D511" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E511" t="n">
+        <v>5</v>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G511" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I511" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J511" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M511" t="n">
+        <v>87</v>
+      </c>
+      <c r="N511" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O511" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P511" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q511" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R511" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S511" t="n">
+        <v>600</v>
+      </c>
+      <c r="T511" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>3</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D512" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E512" t="n">
+        <v>5</v>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G512" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I512" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L512" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M509" t="n">
+      <c r="M512" t="n">
         <v>80</v>
       </c>
-      <c r="N509" t="n">
+      <c r="N512" t="n">
         <v>5000</v>
       </c>
-      <c r="O509" t="n">
+      <c r="O512" t="n">
         <v>5000</v>
       </c>
-      <c r="P509" t="n">
+      <c r="P512" t="n">
         <v>5000</v>
       </c>
-      <c r="Q509" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R509" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="S509" t="n">
+      <c r="Q512" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R512" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S512" t="n">
         <v>500</v>
       </c>
-      <c r="T509" t="n">
+      <c r="T512" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T515"/>
+  <dimension ref="A1:T518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44357</v>
+        <v>44491</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -36515,7 +36515,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -36524,16 +36524,16 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N452" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O452" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P452" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q452" t="inlineStr">
         <is>
@@ -36546,7 +36546,7 @@
         </is>
       </c>
       <c r="S452" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T452" t="n">
         <v>10</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44357</v>
+        <v>44491</v>
       </c>
       <c r="E453" t="n">
         <v>5</v>
@@ -36595,29 +36595,29 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M453" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N453" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O453" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="P453" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="Q453" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R453" t="inlineStr">
@@ -36626,10 +36626,10 @@
         </is>
       </c>
       <c r="S453" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T453" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="454">
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44357</v>
+        <v>44491</v>
       </c>
       <c r="E454" t="n">
         <v>5</v>
@@ -36675,25 +36675,25 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M454" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N454" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O454" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P454" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q454" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         </is>
       </c>
       <c r="S454" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T454" t="n">
         <v>10</v>
@@ -36760,24 +36760,24 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M455" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N455" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O455" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P455" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R455" t="inlineStr">
@@ -36786,10 +36786,10 @@
         </is>
       </c>
       <c r="S455" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T455" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="456">
@@ -36840,24 +36840,24 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M456" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N456" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O456" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P456" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R456" t="inlineStr">
@@ -36866,10 +36866,10 @@
         </is>
       </c>
       <c r="S456" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T456" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="457">
@@ -36920,24 +36920,24 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M457" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N457" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O457" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P457" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q457" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R457" t="inlineStr">
@@ -36946,10 +36946,10 @@
         </is>
       </c>
       <c r="S457" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T457" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="458">
@@ -36995,29 +36995,29 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M458" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N458" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O458" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P458" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R458" t="inlineStr">
@@ -37026,10 +37026,10 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>800</v>
+        <v>733</v>
       </c>
       <c r="T458" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="459">
@@ -37075,25 +37075,25 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M459" t="n">
         <v>68</v>
       </c>
       <c r="N459" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O459" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P459" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T459" t="n">
         <v>10</v>
@@ -37155,7 +37155,7 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
@@ -37164,20 +37164,20 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N460" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O460" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P460" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R460" t="inlineStr">
@@ -37186,10 +37186,10 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>600</v>
+        <v>667</v>
       </c>
       <c r="T460" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="461">
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E461" t="n">
         <v>5</v>
@@ -37244,16 +37244,16 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N461" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O461" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P461" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T461" t="n">
         <v>10</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -37324,16 +37324,16 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N462" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O462" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P462" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T462" t="n">
         <v>10</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -37404,16 +37404,16 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N463" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O463" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P463" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T463" t="n">
         <v>10</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E464" t="n">
         <v>5</v>
@@ -37475,25 +37475,25 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="N464" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O464" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P464" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q464" t="inlineStr">
         <is>
@@ -37502,11 +37502,11 @@
       </c>
       <c r="R464" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S464" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T464" t="n">
         <v>10</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44397</v>
+        <v>44328</v>
       </c>
       <c r="E465" t="n">
         <v>5</v>
@@ -37560,20 +37560,20 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="N465" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O465" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P465" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T465" t="n">
         <v>10</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44397</v>
+        <v>44328</v>
       </c>
       <c r="E466" t="n">
         <v>5</v>
@@ -37640,24 +37640,24 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N466" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O466" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P466" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R466" t="inlineStr">
@@ -37666,10 +37666,10 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T466" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="467">
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E467" t="n">
         <v>5</v>
@@ -37715,7 +37715,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -37724,16 +37724,16 @@
         </is>
       </c>
       <c r="M467" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N467" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O467" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P467" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37742,11 +37742,11 @@
       </c>
       <c r="R467" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S467" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T467" t="n">
         <v>10</v>
@@ -37800,24 +37800,24 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N468" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O468" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P468" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R468" t="inlineStr">
@@ -37826,10 +37826,10 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T468" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="469">
@@ -37880,24 +37880,24 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N469" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O469" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P469" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R469" t="inlineStr">
@@ -37906,10 +37906,10 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T469" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="470">
@@ -37960,24 +37960,24 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="N470" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O470" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P470" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R470" t="inlineStr">
@@ -37986,10 +37986,10 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T470" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="471">
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E471" t="n">
         <v>5</v>
@@ -38035,7 +38035,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -38044,20 +38044,20 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N471" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O471" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P471" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R471" t="inlineStr">
@@ -38066,10 +38066,10 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>600</v>
+        <v>533</v>
       </c>
       <c r="T471" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="472">
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E472" t="n">
         <v>5</v>
@@ -38115,7 +38115,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -38124,7 +38124,7 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="N472" t="n">
         <v>5000</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E473" t="n">
         <v>5</v>
@@ -38200,11 +38200,11 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M473" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="N473" t="n">
         <v>7000</v>
@@ -38217,7 +38217,7 @@
       </c>
       <c r="Q473" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R473" t="inlineStr">
@@ -38226,10 +38226,10 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>700</v>
+        <v>467</v>
       </c>
       <c r="T473" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="474">
@@ -38275,7 +38275,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -38284,7 +38284,7 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N474" t="n">
         <v>6000</v>
@@ -38355,7 +38355,7 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
@@ -38364,7 +38364,7 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="N475" t="n">
         <v>5000</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E476" t="n">
         <v>5</v>
@@ -38444,16 +38444,16 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N476" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O476" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P476" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T476" t="n">
         <v>10</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E477" t="n">
         <v>5</v>
@@ -38527,13 +38527,13 @@
         <v>80</v>
       </c>
       <c r="N477" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O477" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P477" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T477" t="n">
         <v>10</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E478" t="n">
         <v>5</v>
@@ -38607,13 +38607,13 @@
         <v>70</v>
       </c>
       <c r="N478" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O478" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P478" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T478" t="n">
         <v>10</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E479" t="n">
         <v>5</v>
@@ -38684,16 +38684,16 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N479" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O479" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P479" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T479" t="n">
         <v>10</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E480" t="n">
         <v>5</v>
@@ -38760,24 +38760,24 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M480" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N480" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O480" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P480" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R480" t="inlineStr">
@@ -38786,10 +38786,10 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T480" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="481">
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E481" t="n">
         <v>5</v>
@@ -38840,11 +38840,11 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M481" t="n">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N481" t="n">
         <v>6000</v>
@@ -38920,24 +38920,24 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M482" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N482" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O482" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P482" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R482" t="inlineStr">
@@ -38946,10 +38946,10 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T482" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="483">
@@ -39000,24 +39000,24 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M483" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N483" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O483" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P483" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R483" t="inlineStr">
@@ -39026,10 +39026,10 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T483" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="484">
@@ -39080,24 +39080,24 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M484" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="N484" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O484" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P484" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R484" t="inlineStr">
@@ -39106,10 +39106,10 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T484" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="485">
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E485" t="n">
         <v>5</v>
@@ -39160,24 +39160,24 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M485" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N485" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O485" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P485" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R485" t="inlineStr">
@@ -39186,10 +39186,10 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T485" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="486">
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E486" t="n">
         <v>5</v>
@@ -39240,20 +39240,20 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M486" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N486" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O486" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P486" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T486" t="n">
         <v>10</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E487" t="n">
         <v>5</v>
@@ -39324,20 +39324,20 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N487" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O487" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P487" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R487" t="inlineStr">
@@ -39346,10 +39346,10 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T487" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="488">
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E488" t="n">
         <v>5</v>
@@ -39395,7 +39395,7 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -39404,7 +39404,7 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N488" t="n">
         <v>7000</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E489" t="n">
         <v>5</v>
@@ -39475,7 +39475,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -39484,7 +39484,7 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N489" t="n">
         <v>6000</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E490" t="n">
         <v>5</v>
@@ -39555,7 +39555,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E491" t="n">
         <v>5</v>
@@ -39640,20 +39640,20 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M491" t="n">
         <v>75</v>
       </c>
       <c r="N491" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O491" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P491" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
@@ -39662,11 +39662,11 @@
       </c>
       <c r="R491" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S491" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T491" t="n">
         <v>10</v>
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E492" t="n">
         <v>5</v>
@@ -39720,20 +39720,20 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N492" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O492" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P492" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
@@ -39742,11 +39742,11 @@
       </c>
       <c r="R492" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S492" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T492" t="n">
         <v>10</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44438</v>
+        <v>44466</v>
       </c>
       <c r="E493" t="n">
         <v>5</v>
@@ -39800,20 +39800,20 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M493" t="n">
         <v>80</v>
       </c>
       <c r="N493" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O493" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P493" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T493" t="n">
         <v>10</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E494" t="n">
         <v>5</v>
@@ -39884,16 +39884,16 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N494" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O494" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P494" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
@@ -39902,11 +39902,11 @@
       </c>
       <c r="R494" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S494" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T494" t="n">
         <v>10</v>
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E495" t="n">
         <v>5</v>
@@ -39964,16 +39964,16 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N495" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O495" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P495" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
@@ -39982,11 +39982,11 @@
       </c>
       <c r="R495" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S495" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T495" t="n">
         <v>10</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E496" t="n">
         <v>5</v>
@@ -40044,7 +40044,7 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N496" t="n">
         <v>7000</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -40120,24 +40120,24 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="N497" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O497" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P497" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R497" t="inlineStr">
@@ -40146,10 +40146,10 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T497" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="498">
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E498" t="n">
         <v>5</v>
@@ -40200,20 +40200,20 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M498" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N498" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O498" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P498" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40226,7 +40226,7 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T498" t="n">
         <v>10</v>
@@ -40280,24 +40280,24 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M499" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N499" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O499" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P499" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R499" t="inlineStr">
@@ -40306,10 +40306,10 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T499" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="500">
@@ -40360,24 +40360,24 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M500" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N500" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="O500" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="P500" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R500" t="inlineStr">
@@ -40386,10 +40386,10 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="T500" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="501">
@@ -40440,24 +40440,24 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M501" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N501" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O501" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P501" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R501" t="inlineStr">
@@ -40466,10 +40466,10 @@
         </is>
       </c>
       <c r="S501" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T501" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="502">
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E502" t="n">
         <v>5</v>
@@ -40515,29 +40515,29 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M502" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N502" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O502" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P502" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R502" t="inlineStr">
@@ -40546,10 +40546,10 @@
         </is>
       </c>
       <c r="S502" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T502" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="503">
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E503" t="n">
         <v>5</v>
@@ -40595,25 +40595,25 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M503" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="N503" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O503" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P503" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40626,7 +40626,7 @@
         </is>
       </c>
       <c r="S503" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T503" t="n">
         <v>10</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44389</v>
+        <v>44461</v>
       </c>
       <c r="E504" t="n">
         <v>5</v>
@@ -40675,7 +40675,7 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
@@ -40684,20 +40684,20 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="N504" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O504" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P504" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R504" t="inlineStr">
@@ -40706,10 +40706,10 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T504" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="505">
@@ -40755,7 +40755,7 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
@@ -40764,7 +40764,7 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="N505" t="n">
         <v>7000</v>
@@ -40835,7 +40835,7 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
@@ -40844,7 +40844,7 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="N506" t="n">
         <v>6000</v>
@@ -40915,7 +40915,7 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
@@ -40924,7 +40924,7 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="N507" t="n">
         <v>5000</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E508" t="n">
         <v>5</v>
@@ -40995,25 +40995,25 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M508" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N508" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O508" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P508" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="T508" t="n">
         <v>10</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E509" t="n">
         <v>5</v>
@@ -41075,25 +41075,25 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M509" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="N509" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O509" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P509" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T509" t="n">
         <v>10</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -41160,20 +41160,20 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M510" t="n">
         <v>80</v>
       </c>
       <c r="N510" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O510" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P510" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="T510" t="n">
         <v>10</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E511" t="n">
         <v>5</v>
@@ -41235,7 +41235,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -41244,16 +41244,16 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="N511" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O511" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P511" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T511" t="n">
         <v>10</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E512" t="n">
         <v>5</v>
@@ -41315,7 +41315,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -41324,7 +41324,7 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N512" t="n">
         <v>7000</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E513" t="n">
         <v>5</v>
@@ -41395,7 +41395,7 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
@@ -41404,16 +41404,16 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N513" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O513" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="P513" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T513" t="n">
         <v>10</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -41487,13 +41487,13 @@
         <v>87</v>
       </c>
       <c r="N514" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O514" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P514" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T514" t="n">
         <v>10</v>
@@ -41527,68 +41527,308 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E515" t="n">
+        <v>5</v>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G515" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I515" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>Clemenuless</t>
+        </is>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M515" t="n">
+        <v>85</v>
+      </c>
+      <c r="N515" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O515" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P515" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q515" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R515" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S515" t="n">
+        <v>700</v>
+      </c>
+      <c r="T515" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>3</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D516" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E515" t="n">
-        <v>5</v>
-      </c>
-      <c r="F515" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G515" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I515" t="n">
-        <v>100102004</v>
-      </c>
-      <c r="J515" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="K515" t="inlineStr">
+      <c r="E516" t="n">
+        <v>5</v>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G516" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I516" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J516" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K516" t="inlineStr">
         <is>
           <t>Murcott</t>
         </is>
       </c>
-      <c r="L515" t="inlineStr">
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M516" t="n">
+        <v>85</v>
+      </c>
+      <c r="N516" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O516" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P516" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q516" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R516" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S516" t="n">
+        <v>700</v>
+      </c>
+      <c r="T516" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>3</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D517" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E517" t="n">
+        <v>5</v>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G517" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I517" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M517" t="n">
+        <v>87</v>
+      </c>
+      <c r="N517" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O517" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P517" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q517" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R517" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S517" t="n">
+        <v>600</v>
+      </c>
+      <c r="T517" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>3</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D518" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E518" t="n">
+        <v>5</v>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G518" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I518" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L518" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M515" t="n">
+      <c r="M518" t="n">
         <v>80</v>
       </c>
-      <c r="N515" t="n">
+      <c r="N518" t="n">
         <v>5000</v>
       </c>
-      <c r="O515" t="n">
+      <c r="O518" t="n">
         <v>5000</v>
       </c>
-      <c r="P515" t="n">
+      <c r="P518" t="n">
         <v>5000</v>
       </c>
-      <c r="Q515" t="inlineStr">
-        <is>
-          <t>$/bandeja 10 kilos</t>
-        </is>
-      </c>
-      <c r="R515" t="inlineStr">
-        <is>
-          <t>Provincia de Quillota</t>
-        </is>
-      </c>
-      <c r="S515" t="n">
+      <c r="Q518" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R518" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S518" t="n">
         <v>500</v>
       </c>
-      <c r="T515" t="n">
+      <c r="T518" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T536"/>
+  <dimension ref="A1:T539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E458" t="n">
         <v>5</v>
@@ -37004,16 +37004,16 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N458" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O458" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P458" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T458" t="n">
         <v>10</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E459" t="n">
         <v>5</v>
@@ -37084,16 +37084,16 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N459" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O459" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P459" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T459" t="n">
         <v>10</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E460" t="n">
         <v>5</v>
@@ -37164,16 +37164,16 @@
         </is>
       </c>
       <c r="M460" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N460" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O460" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P460" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T460" t="n">
         <v>10</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E461" t="n">
         <v>5</v>
@@ -37235,7 +37235,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -37244,7 +37244,7 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="N461" t="n">
         <v>7000</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -37315,7 +37315,7 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L462" t="inlineStr">
@@ -37324,7 +37324,7 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N462" t="n">
         <v>6000</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -37395,7 +37395,7 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E464" t="n">
         <v>5</v>
@@ -37475,16 +37475,16 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M464" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N464" t="n">
         <v>7000</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E465" t="n">
         <v>5</v>
@@ -37555,25 +37555,25 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M465" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="N465" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O465" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P465" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q465" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="S465" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T465" t="n">
         <v>10</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E466" t="n">
         <v>5</v>
@@ -37635,25 +37635,25 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M466" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N466" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O466" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P466" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q466" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
         </is>
       </c>
       <c r="S466" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T466" t="n">
         <v>10</v>
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E467" t="n">
         <v>5</v>
@@ -37720,20 +37720,20 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N467" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O467" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P467" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q467" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         </is>
       </c>
       <c r="S467" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T467" t="n">
         <v>10</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E468" t="n">
         <v>5</v>
@@ -37795,7 +37795,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -37804,16 +37804,16 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="N468" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O468" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P468" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T468" t="n">
         <v>10</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E469" t="n">
         <v>5</v>
@@ -37875,7 +37875,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -37884,16 +37884,16 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N469" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O469" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P469" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T469" t="n">
         <v>10</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E470" t="n">
         <v>5</v>
@@ -37955,7 +37955,7 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L470" t="inlineStr">
@@ -37964,16 +37964,16 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="N470" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O470" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P470" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T470" t="n">
         <v>10</v>
@@ -38035,7 +38035,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -38044,7 +38044,7 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="N471" t="n">
         <v>8000</v>
@@ -38115,7 +38115,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -38124,7 +38124,7 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N472" t="n">
         <v>7000</v>
@@ -38195,7 +38195,7 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -38204,7 +38204,7 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N473" t="n">
         <v>6000</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E474" t="n">
         <v>5</v>
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N474" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O474" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P474" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T474" t="n">
         <v>10</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E475" t="n">
         <v>5</v>
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N475" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O475" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P475" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T475" t="n">
         <v>10</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E476" t="n">
         <v>5</v>
@@ -38444,16 +38444,16 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N476" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O476" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P476" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T476" t="n">
         <v>10</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E477" t="n">
         <v>5</v>
@@ -38515,7 +38515,7 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
@@ -38524,16 +38524,16 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N477" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O477" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P477" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T477" t="n">
         <v>10</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E478" t="n">
         <v>5</v>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N478" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O478" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P478" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T478" t="n">
         <v>10</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E479" t="n">
         <v>5</v>
@@ -38675,7 +38675,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -38684,16 +38684,16 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N479" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O479" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P479" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T479" t="n">
         <v>10</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E480" t="n">
         <v>5</v>
@@ -38764,16 +38764,16 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N480" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O480" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P480" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T480" t="n">
         <v>10</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E481" t="n">
         <v>5</v>
@@ -38844,16 +38844,16 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="N481" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O481" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P481" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="T481" t="n">
         <v>10</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E482" t="n">
         <v>5</v>
@@ -38924,16 +38924,16 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="N482" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O482" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P482" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T482" t="n">
         <v>10</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E483" t="n">
         <v>5</v>
@@ -38995,7 +38995,7 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
@@ -39004,7 +39004,7 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N483" t="n">
         <v>10000</v>
@@ -39017,7 +39017,7 @@
       </c>
       <c r="Q483" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R483" t="inlineStr">
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E484" t="n">
         <v>5</v>
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39084,7 +39084,7 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N484" t="n">
         <v>9000</v>
@@ -39097,7 +39097,7 @@
       </c>
       <c r="Q484" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R484" t="inlineStr">
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E485" t="n">
         <v>5</v>
@@ -39155,7 +39155,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
@@ -39164,7 +39164,7 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="N485" t="n">
         <v>8000</v>
@@ -39177,7 +39177,7 @@
       </c>
       <c r="Q485" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R485" t="inlineStr">
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E486" t="n">
         <v>5</v>
@@ -39235,7 +39235,7 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
@@ -39244,20 +39244,20 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N486" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O486" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P486" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R486" t="inlineStr">
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T486" t="n">
         <v>10</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E487" t="n">
         <v>5</v>
@@ -39315,16 +39315,16 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M487" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N487" t="n">
         <v>9000</v>
@@ -39337,7 +39337,7 @@
       </c>
       <c r="Q487" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R487" t="inlineStr">
@@ -39346,10 +39346,10 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T487" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="488">
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E488" t="n">
         <v>5</v>
@@ -39395,29 +39395,29 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M488" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N488" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O488" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P488" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R488" t="inlineStr">
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T488" t="n">
         <v>10</v>
@@ -39480,24 +39480,24 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M489" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N489" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O489" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P489" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R489" t="inlineStr">
@@ -39506,10 +39506,10 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T489" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="490">
@@ -39560,24 +39560,24 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N490" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O490" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P490" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q490" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R490" t="inlineStr">
@@ -39586,10 +39586,10 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T490" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="491">
@@ -39640,24 +39640,24 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="N491" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O491" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P491" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R491" t="inlineStr">
@@ -39666,10 +39666,10 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T491" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="492">
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E492" t="n">
         <v>5</v>
@@ -39715,29 +39715,29 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M492" t="n">
         <v>67</v>
       </c>
       <c r="N492" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O492" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P492" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R492" t="inlineStr">
@@ -39746,10 +39746,10 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T492" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="493">
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E493" t="n">
         <v>5</v>
@@ -39795,25 +39795,25 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M493" t="n">
         <v>80</v>
       </c>
       <c r="N493" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O493" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P493" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T493" t="n">
         <v>10</v>
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E494" t="n">
         <v>5</v>
@@ -39875,7 +39875,7 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
@@ -39884,20 +39884,20 @@
         </is>
       </c>
       <c r="M494" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N494" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O494" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P494" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R494" t="inlineStr">
@@ -39906,10 +39906,10 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T494" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="495">
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E495" t="n">
         <v>5</v>
@@ -39955,7 +39955,7 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
@@ -39964,7 +39964,7 @@
         </is>
       </c>
       <c r="M495" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N495" t="n">
         <v>7000</v>
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E496" t="n">
         <v>5</v>
@@ -40035,7 +40035,7 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
@@ -40044,7 +40044,7 @@
         </is>
       </c>
       <c r="M496" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N496" t="n">
         <v>6000</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -40115,7 +40115,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -40124,7 +40124,7 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N497" t="n">
         <v>5000</v>
@@ -40195,7 +40195,7 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
@@ -40204,16 +40204,16 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N498" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O498" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P498" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
@@ -40222,11 +40222,11 @@
       </c>
       <c r="R498" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S498" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T498" t="n">
         <v>10</v>
@@ -40275,7 +40275,7 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
@@ -40284,16 +40284,16 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N499" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O499" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P499" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40302,11 +40302,11 @@
       </c>
       <c r="R499" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S499" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T499" t="n">
         <v>10</v>
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40364,16 +40364,16 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N500" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O500" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P500" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
@@ -40382,11 +40382,11 @@
       </c>
       <c r="R500" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S500" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T500" t="n">
         <v>10</v>
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E501" t="n">
         <v>5</v>
@@ -40444,16 +40444,16 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="N501" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O501" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P501" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40462,11 +40462,11 @@
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S501" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T501" t="n">
         <v>10</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E502" t="n">
         <v>5</v>
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N502" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O502" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P502" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40542,11 +40542,11 @@
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S502" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T502" t="n">
         <v>10</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E503" t="n">
         <v>5</v>
@@ -40604,16 +40604,16 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N503" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O503" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P503" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40622,11 +40622,11 @@
       </c>
       <c r="R503" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S503" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T503" t="n">
         <v>10</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E504" t="n">
         <v>5</v>
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="N504" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O504" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P504" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         </is>
       </c>
       <c r="S504" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T504" t="n">
         <v>10</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E505" t="n">
         <v>5</v>
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N505" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O505" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P505" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40786,7 +40786,7 @@
         </is>
       </c>
       <c r="S505" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T505" t="n">
         <v>10</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E506" t="n">
         <v>5</v>
@@ -40844,16 +40844,16 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N506" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O506" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P506" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40866,7 +40866,7 @@
         </is>
       </c>
       <c r="S506" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T506" t="n">
         <v>10</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E507" t="n">
         <v>5</v>
@@ -40915,7 +40915,7 @@
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L507" t="inlineStr">
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="N507" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O507" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P507" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T507" t="n">
         <v>10</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E508" t="n">
         <v>5</v>
@@ -40995,7 +40995,7 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N508" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O508" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P508" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T508" t="n">
         <v>10</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E509" t="n">
         <v>5</v>
@@ -41075,7 +41075,7 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
@@ -41084,16 +41084,16 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N509" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O509" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P509" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T509" t="n">
         <v>10</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -41155,7 +41155,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
@@ -41164,16 +41164,16 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N510" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O510" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P510" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T510" t="n">
         <v>10</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E511" t="n">
         <v>5</v>
@@ -41235,7 +41235,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -41244,16 +41244,16 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="N511" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O511" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P511" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T511" t="n">
         <v>10</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E512" t="n">
         <v>5</v>
@@ -41315,7 +41315,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N512" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O512" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P512" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T512" t="n">
         <v>10</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E513" t="n">
         <v>5</v>
@@ -41395,7 +41395,7 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
@@ -41404,16 +41404,16 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N513" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O513" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P513" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T513" t="n">
         <v>10</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -41484,16 +41484,16 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N514" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O514" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P514" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T514" t="n">
         <v>10</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E515" t="n">
         <v>5</v>
@@ -41555,7 +41555,7 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
@@ -41564,16 +41564,16 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N515" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O515" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P515" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T515" t="n">
         <v>10</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E516" t="n">
         <v>5</v>
@@ -41640,20 +41640,20 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M516" t="n">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="N516" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O516" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P516" t="n">
-        <v>7456</v>
+        <v>9000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>746</v>
+        <v>900</v>
       </c>
       <c r="T516" t="n">
         <v>10</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E517" t="n">
         <v>5</v>
@@ -41720,20 +41720,20 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M517" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="N517" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O517" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P517" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T517" t="n">
         <v>10</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44270</v>
+        <v>44328</v>
       </c>
       <c r="E518" t="n">
         <v>5</v>
@@ -41795,25 +41795,25 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M518" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N518" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O518" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P518" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41822,11 +41822,11 @@
       </c>
       <c r="R518" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S518" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T518" t="n">
         <v>10</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E519" t="n">
         <v>5</v>
@@ -41875,25 +41875,25 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="N519" t="n">
         <v>7000</v>
       </c>
       <c r="O519" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P519" t="n">
-        <v>7000</v>
+        <v>7456</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41902,11 +41902,11 @@
       </c>
       <c r="R519" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S519" t="n">
-        <v>700</v>
+        <v>746</v>
       </c>
       <c r="T519" t="n">
         <v>10</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44421</v>
+        <v>44330</v>
       </c>
       <c r="E520" t="n">
         <v>5</v>
@@ -41960,20 +41960,20 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="N520" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O520" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P520" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T520" t="n">
         <v>10</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44421</v>
+        <v>44270</v>
       </c>
       <c r="E521" t="n">
         <v>5</v>
@@ -42035,7 +42035,7 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="N521" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O521" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P521" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42062,11 +42062,11 @@
       </c>
       <c r="R521" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S521" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T521" t="n">
         <v>10</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44421</v>
+        <v>44270</v>
       </c>
       <c r="E522" t="n">
         <v>5</v>
@@ -42115,7 +42115,7 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
@@ -42124,16 +42124,16 @@
         </is>
       </c>
       <c r="M522" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N522" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O522" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P522" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42142,11 +42142,11 @@
       </c>
       <c r="R522" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S522" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T522" t="n">
         <v>10</v>
@@ -42195,7 +42195,7 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
@@ -42204,16 +42204,16 @@
         </is>
       </c>
       <c r="M523" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N523" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O523" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P523" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T523" t="n">
         <v>10</v>
@@ -42275,7 +42275,7 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
@@ -42287,13 +42287,13 @@
         <v>58</v>
       </c>
       <c r="N524" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O524" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P524" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         </is>
       </c>
       <c r="S524" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T524" t="n">
         <v>10</v>
@@ -42355,7 +42355,7 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
@@ -42364,16 +42364,16 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N525" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O525" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P525" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42386,7 +42386,7 @@
         </is>
       </c>
       <c r="S525" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T525" t="n">
         <v>10</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E526" t="n">
         <v>5</v>
@@ -42435,7 +42435,7 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
@@ -42444,16 +42444,16 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N526" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O526" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P526" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T526" t="n">
         <v>10</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E527" t="n">
         <v>5</v>
@@ -42515,7 +42515,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
@@ -42524,16 +42524,16 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="N527" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O527" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P527" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T527" t="n">
         <v>10</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E528" t="n">
         <v>5</v>
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N528" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O528" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P528" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T528" t="n">
         <v>10</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E529" t="n">
         <v>5</v>
@@ -42675,25 +42675,25 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M529" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N529" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O529" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P529" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42702,11 +42702,11 @@
       </c>
       <c r="R529" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S529" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T529" t="n">
         <v>10</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E530" t="n">
         <v>5</v>
@@ -42755,25 +42755,25 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M530" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N530" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O530" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P530" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42782,11 +42782,11 @@
       </c>
       <c r="R530" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S530" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T530" t="n">
         <v>10</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E531" t="n">
         <v>5</v>
@@ -42835,25 +42835,25 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M531" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N531" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O531" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P531" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T531" t="n">
         <v>10</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E532" t="n">
         <v>5</v>
@@ -42924,16 +42924,16 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N532" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O532" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P532" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42942,11 +42942,11 @@
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S532" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T532" t="n">
         <v>10</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E533" t="n">
         <v>5</v>
@@ -43004,16 +43004,16 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N533" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O533" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P533" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43022,11 +43022,11 @@
       </c>
       <c r="R533" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S533" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T533" t="n">
         <v>10</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E534" t="n">
         <v>5</v>
@@ -43084,7 +43084,7 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N534" t="n">
         <v>7000</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E535" t="n">
         <v>5</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E536" t="n">
         <v>5</v>
@@ -43244,7 +43244,7 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N536" t="n">
         <v>5000</v>
@@ -43269,6 +43269,246 @@
         <v>500</v>
       </c>
       <c r="T536" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>3</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D537" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E537" t="n">
+        <v>5</v>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G537" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I537" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M537" t="n">
+        <v>75</v>
+      </c>
+      <c r="N537" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O537" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P537" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q537" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R537" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S537" t="n">
+        <v>700</v>
+      </c>
+      <c r="T537" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>3</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D538" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E538" t="n">
+        <v>5</v>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G538" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I538" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M538" t="n">
+        <v>80</v>
+      </c>
+      <c r="N538" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O538" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P538" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q538" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R538" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S538" t="n">
+        <v>600</v>
+      </c>
+      <c r="T538" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>3</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D539" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E539" t="n">
+        <v>5</v>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G539" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I539" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J539" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M539" t="n">
+        <v>60</v>
+      </c>
+      <c r="N539" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O539" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P539" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q539" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R539" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S539" t="n">
+        <v>500</v>
+      </c>
+      <c r="T539" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T539"/>
+  <dimension ref="A1:T542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E468" t="n">
         <v>5</v>
@@ -37804,16 +37804,16 @@
         </is>
       </c>
       <c r="M468" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N468" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O468" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P468" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q468" t="inlineStr">
         <is>
@@ -37826,7 +37826,7 @@
         </is>
       </c>
       <c r="S468" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T468" t="n">
         <v>10</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E469" t="n">
         <v>5</v>
@@ -37884,16 +37884,16 @@
         </is>
       </c>
       <c r="M469" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N469" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O469" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P469" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q469" t="inlineStr">
         <is>
@@ -37906,7 +37906,7 @@
         </is>
       </c>
       <c r="S469" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T469" t="n">
         <v>10</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E470" t="n">
         <v>5</v>
@@ -37964,16 +37964,16 @@
         </is>
       </c>
       <c r="M470" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N470" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O470" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P470" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T470" t="n">
         <v>10</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E471" t="n">
         <v>5</v>
@@ -38035,7 +38035,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="N471" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O471" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P471" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T471" t="n">
         <v>10</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E472" t="n">
         <v>5</v>
@@ -38115,7 +38115,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N472" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O472" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P472" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T472" t="n">
         <v>10</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E473" t="n">
         <v>5</v>
@@ -38195,7 +38195,7 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="N473" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O473" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P473" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T473" t="n">
         <v>10</v>
@@ -38275,7 +38275,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -38284,7 +38284,7 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="N474" t="n">
         <v>8000</v>
@@ -38355,7 +38355,7 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
@@ -38364,7 +38364,7 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N475" t="n">
         <v>7000</v>
@@ -38435,7 +38435,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -38444,7 +38444,7 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N476" t="n">
         <v>6000</v>
@@ -38487,7 +38487,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E477" t="n">
         <v>5</v>
@@ -38524,16 +38524,16 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N477" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O477" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P477" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q477" t="inlineStr">
         <is>
@@ -38546,7 +38546,7 @@
         </is>
       </c>
       <c r="S477" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T477" t="n">
         <v>10</v>
@@ -38567,7 +38567,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E478" t="n">
         <v>5</v>
@@ -38604,16 +38604,16 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N478" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O478" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P478" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q478" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         </is>
       </c>
       <c r="S478" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T478" t="n">
         <v>10</v>
@@ -38647,7 +38647,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E479" t="n">
         <v>5</v>
@@ -38684,16 +38684,16 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N479" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O479" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P479" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q479" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         </is>
       </c>
       <c r="S479" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T479" t="n">
         <v>10</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E480" t="n">
         <v>5</v>
@@ -38755,7 +38755,7 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
@@ -38764,16 +38764,16 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N480" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O480" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P480" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T480" t="n">
         <v>10</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E481" t="n">
         <v>5</v>
@@ -38835,7 +38835,7 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -38844,16 +38844,16 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N481" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O481" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P481" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T481" t="n">
         <v>10</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E482" t="n">
         <v>5</v>
@@ -38915,7 +38915,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
@@ -38924,16 +38924,16 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N482" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O482" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P482" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T482" t="n">
         <v>10</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E483" t="n">
         <v>5</v>
@@ -39004,16 +39004,16 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N483" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O483" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P483" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T483" t="n">
         <v>10</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E484" t="n">
         <v>5</v>
@@ -39084,16 +39084,16 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="N484" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O484" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P484" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="T484" t="n">
         <v>10</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E485" t="n">
         <v>5</v>
@@ -39164,16 +39164,16 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="N485" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O485" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P485" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T485" t="n">
         <v>10</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E486" t="n">
         <v>5</v>
@@ -39235,7 +39235,7 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
@@ -39244,7 +39244,7 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N486" t="n">
         <v>10000</v>
@@ -39257,7 +39257,7 @@
       </c>
       <c r="Q486" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R486" t="inlineStr">
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E487" t="n">
         <v>5</v>
@@ -39315,7 +39315,7 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -39324,7 +39324,7 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N487" t="n">
         <v>9000</v>
@@ -39337,7 +39337,7 @@
       </c>
       <c r="Q487" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R487" t="inlineStr">
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E488" t="n">
         <v>5</v>
@@ -39395,7 +39395,7 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -39404,7 +39404,7 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="N488" t="n">
         <v>8000</v>
@@ -39417,7 +39417,7 @@
       </c>
       <c r="Q488" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R488" t="inlineStr">
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E489" t="n">
         <v>5</v>
@@ -39475,7 +39475,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -39484,20 +39484,20 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N489" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O489" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P489" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q489" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R489" t="inlineStr">
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="S489" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T489" t="n">
         <v>10</v>
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E490" t="n">
         <v>5</v>
@@ -39555,16 +39555,16 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M490" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N490" t="n">
         <v>9000</v>
@@ -39577,7 +39577,7 @@
       </c>
       <c r="Q490" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R490" t="inlineStr">
@@ -39586,10 +39586,10 @@
         </is>
       </c>
       <c r="S490" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T490" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="491">
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E491" t="n">
         <v>5</v>
@@ -39635,29 +39635,29 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M491" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N491" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O491" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P491" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q491" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R491" t="inlineStr">
@@ -39666,7 +39666,7 @@
         </is>
       </c>
       <c r="S491" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T491" t="n">
         <v>10</v>
@@ -39720,24 +39720,24 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M492" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N492" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O492" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P492" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R492" t="inlineStr">
@@ -39746,10 +39746,10 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T492" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="493">
@@ -39800,24 +39800,24 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N493" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O493" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P493" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q493" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R493" t="inlineStr">
@@ -39826,10 +39826,10 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T493" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="494">
@@ -39880,24 +39880,24 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="N494" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O494" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P494" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R494" t="inlineStr">
@@ -39906,10 +39906,10 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T494" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="495">
@@ -39927,7 +39927,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E495" t="n">
         <v>5</v>
@@ -39955,29 +39955,29 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M495" t="n">
         <v>67</v>
       </c>
       <c r="N495" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O495" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P495" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R495" t="inlineStr">
@@ -39986,10 +39986,10 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T495" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="496">
@@ -40007,7 +40007,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E496" t="n">
         <v>5</v>
@@ -40035,25 +40035,25 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M496" t="n">
         <v>80</v>
       </c>
       <c r="N496" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O496" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P496" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T496" t="n">
         <v>10</v>
@@ -40087,7 +40087,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E497" t="n">
         <v>5</v>
@@ -40115,7 +40115,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -40124,20 +40124,20 @@
         </is>
       </c>
       <c r="M497" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N497" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O497" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P497" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R497" t="inlineStr">
@@ -40146,10 +40146,10 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T497" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="498">
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E498" t="n">
         <v>5</v>
@@ -40195,7 +40195,7 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
@@ -40204,7 +40204,7 @@
         </is>
       </c>
       <c r="M498" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N498" t="n">
         <v>7000</v>
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E499" t="n">
         <v>5</v>
@@ -40275,7 +40275,7 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
@@ -40284,7 +40284,7 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N499" t="n">
         <v>6000</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E500" t="n">
         <v>5</v>
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40364,7 +40364,7 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N500" t="n">
         <v>5000</v>
@@ -40435,7 +40435,7 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -40444,16 +40444,16 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N501" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O501" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P501" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q501" t="inlineStr">
         <is>
@@ -40462,11 +40462,11 @@
       </c>
       <c r="R501" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S501" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T501" t="n">
         <v>10</v>
@@ -40515,7 +40515,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -40524,16 +40524,16 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N502" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O502" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P502" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q502" t="inlineStr">
         <is>
@@ -40542,11 +40542,11 @@
       </c>
       <c r="R502" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S502" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T502" t="n">
         <v>10</v>
@@ -40595,7 +40595,7 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
@@ -40604,16 +40604,16 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N503" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O503" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P503" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q503" t="inlineStr">
         <is>
@@ -40622,11 +40622,11 @@
       </c>
       <c r="R503" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S503" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T503" t="n">
         <v>10</v>
@@ -40647,7 +40647,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E504" t="n">
         <v>5</v>
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="N504" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O504" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P504" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40702,11 +40702,11 @@
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S504" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T504" t="n">
         <v>10</v>
@@ -40727,7 +40727,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E505" t="n">
         <v>5</v>
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N505" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O505" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P505" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40782,11 +40782,11 @@
       </c>
       <c r="R505" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S505" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T505" t="n">
         <v>10</v>
@@ -40807,7 +40807,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E506" t="n">
         <v>5</v>
@@ -40844,16 +40844,16 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N506" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O506" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P506" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40862,11 +40862,11 @@
       </c>
       <c r="R506" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S506" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T506" t="n">
         <v>10</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E507" t="n">
         <v>5</v>
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="N507" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O507" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P507" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40946,7 +40946,7 @@
         </is>
       </c>
       <c r="S507" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T507" t="n">
         <v>10</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E508" t="n">
         <v>5</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N508" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O508" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P508" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41026,7 +41026,7 @@
         </is>
       </c>
       <c r="S508" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T508" t="n">
         <v>10</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E509" t="n">
         <v>5</v>
@@ -41084,16 +41084,16 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N509" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O509" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P509" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41106,7 +41106,7 @@
         </is>
       </c>
       <c r="S509" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T509" t="n">
         <v>10</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -41155,7 +41155,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
@@ -41164,16 +41164,16 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="N510" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O510" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P510" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T510" t="n">
         <v>10</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E511" t="n">
         <v>5</v>
@@ -41235,7 +41235,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -41244,16 +41244,16 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N511" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O511" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P511" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T511" t="n">
         <v>10</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E512" t="n">
         <v>5</v>
@@ -41315,7 +41315,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N512" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O512" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P512" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T512" t="n">
         <v>10</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E513" t="n">
         <v>5</v>
@@ -41395,7 +41395,7 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
@@ -41404,16 +41404,16 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N513" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O513" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P513" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T513" t="n">
         <v>10</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -41484,16 +41484,16 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="N514" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O514" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P514" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T514" t="n">
         <v>10</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E515" t="n">
         <v>5</v>
@@ -41555,7 +41555,7 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
@@ -41564,16 +41564,16 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N515" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O515" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P515" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T515" t="n">
         <v>10</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E516" t="n">
         <v>5</v>
@@ -41635,7 +41635,7 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
@@ -41644,16 +41644,16 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N516" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O516" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P516" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T516" t="n">
         <v>10</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E517" t="n">
         <v>5</v>
@@ -41715,7 +41715,7 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N517" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O517" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P517" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T517" t="n">
         <v>10</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E518" t="n">
         <v>5</v>
@@ -41795,7 +41795,7 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N518" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O518" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P518" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T518" t="n">
         <v>10</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E519" t="n">
         <v>5</v>
@@ -41880,20 +41880,20 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M519" t="n">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="N519" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O519" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P519" t="n">
-        <v>7456</v>
+        <v>9000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>746</v>
+        <v>900</v>
       </c>
       <c r="T519" t="n">
         <v>10</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E520" t="n">
         <v>5</v>
@@ -41960,20 +41960,20 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M520" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="N520" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O520" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P520" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T520" t="n">
         <v>10</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44270</v>
+        <v>44328</v>
       </c>
       <c r="E521" t="n">
         <v>5</v>
@@ -42035,25 +42035,25 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M521" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N521" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O521" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P521" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42062,11 +42062,11 @@
       </c>
       <c r="R521" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S521" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T521" t="n">
         <v>10</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E522" t="n">
         <v>5</v>
@@ -42115,25 +42115,25 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="N522" t="n">
         <v>7000</v>
       </c>
       <c r="O522" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P522" t="n">
-        <v>7000</v>
+        <v>7456</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42142,11 +42142,11 @@
       </c>
       <c r="R522" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S522" t="n">
-        <v>700</v>
+        <v>746</v>
       </c>
       <c r="T522" t="n">
         <v>10</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44421</v>
+        <v>44330</v>
       </c>
       <c r="E523" t="n">
         <v>5</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="N523" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O523" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P523" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T523" t="n">
         <v>10</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44421</v>
+        <v>44270</v>
       </c>
       <c r="E524" t="n">
         <v>5</v>
@@ -42275,7 +42275,7 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
@@ -42284,16 +42284,16 @@
         </is>
       </c>
       <c r="M524" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="N524" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O524" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P524" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42302,11 +42302,11 @@
       </c>
       <c r="R524" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S524" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T524" t="n">
         <v>10</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44421</v>
+        <v>44270</v>
       </c>
       <c r="E525" t="n">
         <v>5</v>
@@ -42355,7 +42355,7 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
@@ -42364,16 +42364,16 @@
         </is>
       </c>
       <c r="M525" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N525" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O525" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P525" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42382,11 +42382,11 @@
       </c>
       <c r="R525" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S525" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T525" t="n">
         <v>10</v>
@@ -42435,7 +42435,7 @@
       </c>
       <c r="K526" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L526" t="inlineStr">
@@ -42444,16 +42444,16 @@
         </is>
       </c>
       <c r="M526" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N526" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O526" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P526" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T526" t="n">
         <v>10</v>
@@ -42515,7 +42515,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
@@ -42527,13 +42527,13 @@
         <v>58</v>
       </c>
       <c r="N527" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O527" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P527" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         </is>
       </c>
       <c r="S527" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T527" t="n">
         <v>10</v>
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N528" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O528" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P528" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42626,7 +42626,7 @@
         </is>
       </c>
       <c r="S528" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T528" t="n">
         <v>10</v>
@@ -42647,7 +42647,7 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E529" t="n">
         <v>5</v>
@@ -42675,7 +42675,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -42684,16 +42684,16 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N529" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O529" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P529" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T529" t="n">
         <v>10</v>
@@ -42727,7 +42727,7 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E530" t="n">
         <v>5</v>
@@ -42755,7 +42755,7 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
@@ -42764,16 +42764,16 @@
         </is>
       </c>
       <c r="M530" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="N530" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O530" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P530" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T530" t="n">
         <v>10</v>
@@ -42807,7 +42807,7 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E531" t="n">
         <v>5</v>
@@ -42835,7 +42835,7 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
@@ -42844,16 +42844,16 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N531" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O531" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P531" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T531" t="n">
         <v>10</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E532" t="n">
         <v>5</v>
@@ -42915,25 +42915,25 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M532" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N532" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O532" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P532" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42942,11 +42942,11 @@
       </c>
       <c r="R532" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S532" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T532" t="n">
         <v>10</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E533" t="n">
         <v>5</v>
@@ -42995,25 +42995,25 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M533" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N533" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O533" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P533" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43022,11 +43022,11 @@
       </c>
       <c r="R533" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S533" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T533" t="n">
         <v>10</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E534" t="n">
         <v>5</v>
@@ -43075,25 +43075,25 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M534" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N534" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O534" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P534" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T534" t="n">
         <v>10</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E535" t="n">
         <v>5</v>
@@ -43164,16 +43164,16 @@
         </is>
       </c>
       <c r="M535" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N535" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O535" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P535" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43182,11 +43182,11 @@
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S535" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T535" t="n">
         <v>10</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E536" t="n">
         <v>5</v>
@@ -43244,16 +43244,16 @@
         </is>
       </c>
       <c r="M536" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N536" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O536" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P536" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43262,11 +43262,11 @@
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S536" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T536" t="n">
         <v>10</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E537" t="n">
         <v>5</v>
@@ -43324,7 +43324,7 @@
         </is>
       </c>
       <c r="M537" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N537" t="n">
         <v>7000</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E538" t="n">
         <v>5</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E539" t="n">
         <v>5</v>
@@ -43484,7 +43484,7 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N539" t="n">
         <v>5000</v>
@@ -43509,6 +43509,246 @@
         <v>500</v>
       </c>
       <c r="T539" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>3</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D540" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E540" t="n">
+        <v>5</v>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G540" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I540" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M540" t="n">
+        <v>75</v>
+      </c>
+      <c r="N540" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O540" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P540" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q540" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R540" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S540" t="n">
+        <v>700</v>
+      </c>
+      <c r="T540" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>3</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D541" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E541" t="n">
+        <v>5</v>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G541" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I541" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J541" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M541" t="n">
+        <v>80</v>
+      </c>
+      <c r="N541" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O541" t="n">
+        <v>6000</v>
+      </c>
+      <c r="P541" t="n">
+        <v>6000</v>
+      </c>
+      <c r="Q541" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R541" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S541" t="n">
+        <v>600</v>
+      </c>
+      <c r="T541" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>3</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D542" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E542" t="n">
+        <v>5</v>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G542" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I542" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J542" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M542" t="n">
+        <v>60</v>
+      </c>
+      <c r="N542" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O542" t="n">
+        <v>5000</v>
+      </c>
+      <c r="P542" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q542" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R542" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S542" t="n">
+        <v>500</v>
+      </c>
+      <c r="T542" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Femacal de La Calera - Mandarina.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T542"/>
+  <dimension ref="A1:T545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35367,7 +35367,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E438" t="n">
         <v>5</v>
@@ -35395,7 +35395,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -35404,16 +35404,16 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N438" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O438" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P438" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         </is>
       </c>
       <c r="S438" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T438" t="n">
         <v>10</v>
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E439" t="n">
         <v>5</v>
@@ -35475,7 +35475,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -35484,16 +35484,16 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N439" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O439" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P439" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
         </is>
       </c>
       <c r="S439" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T439" t="n">
         <v>10</v>
@@ -35527,7 +35527,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E440" t="n">
         <v>5</v>
@@ -35555,7 +35555,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -35564,16 +35564,16 @@
         </is>
       </c>
       <c r="M440" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N440" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O440" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P440" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -35586,7 +35586,7 @@
         </is>
       </c>
       <c r="S440" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T440" t="n">
         <v>10</v>
@@ -35607,7 +35607,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E441" t="n">
         <v>5</v>
@@ -35635,7 +35635,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E442" t="n">
         <v>5</v>
@@ -35715,29 +35715,29 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M442" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N442" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O442" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P442" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="Q442" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R442" t="inlineStr">
@@ -35746,10 +35746,10 @@
         </is>
       </c>
       <c r="S442" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T442" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="443">
@@ -35767,7 +35767,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E443" t="n">
         <v>5</v>
@@ -35795,25 +35795,25 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M443" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N443" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O443" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P443" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q443" t="inlineStr">
         <is>
@@ -35826,7 +35826,7 @@
         </is>
       </c>
       <c r="S443" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T443" t="n">
         <v>10</v>
@@ -35880,24 +35880,24 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M444" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N444" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O444" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P444" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R444" t="inlineStr">
@@ -35906,10 +35906,10 @@
         </is>
       </c>
       <c r="S444" t="n">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="T444" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="445">
@@ -35960,24 +35960,24 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M445" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N445" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O445" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="P445" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R445" t="inlineStr">
@@ -35986,10 +35986,10 @@
         </is>
       </c>
       <c r="S445" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T445" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="446">
@@ -36040,24 +36040,24 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M446" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N446" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O446" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P446" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q446" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R446" t="inlineStr">
@@ -36066,10 +36066,10 @@
         </is>
       </c>
       <c r="S446" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="T446" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="447">
@@ -36087,7 +36087,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E447" t="n">
         <v>5</v>
@@ -36115,7 +36115,7 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
@@ -36124,20 +36124,20 @@
         </is>
       </c>
       <c r="M447" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N447" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="O447" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P447" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R447" t="inlineStr">
@@ -36146,10 +36146,10 @@
         </is>
       </c>
       <c r="S447" t="n">
-        <v>1000</v>
+        <v>733</v>
       </c>
       <c r="T447" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="448">
@@ -36167,7 +36167,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E448" t="n">
         <v>5</v>
@@ -36195,7 +36195,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -36204,16 +36204,16 @@
         </is>
       </c>
       <c r="M448" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N448" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O448" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P448" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q448" t="inlineStr">
         <is>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="S448" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T448" t="n">
         <v>10</v>
@@ -36247,7 +36247,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44469</v>
+        <v>44356</v>
       </c>
       <c r="E449" t="n">
         <v>5</v>
@@ -36275,29 +36275,29 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M449" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N449" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O449" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P449" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q449" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R449" t="inlineStr">
@@ -36306,10 +36306,10 @@
         </is>
       </c>
       <c r="S449" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="T449" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="450">
@@ -36327,7 +36327,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44469</v>
+        <v>44323</v>
       </c>
       <c r="E450" t="n">
         <v>5</v>
@@ -36355,7 +36355,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -36364,16 +36364,16 @@
         </is>
       </c>
       <c r="M450" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N450" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="O450" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="P450" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="Q450" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         </is>
       </c>
       <c r="S450" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T450" t="n">
         <v>10</v>
@@ -36407,7 +36407,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44469</v>
+        <v>44323</v>
       </c>
       <c r="E451" t="n">
         <v>5</v>
@@ -36435,7 +36435,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -36444,16 +36444,16 @@
         </is>
       </c>
       <c r="M451" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N451" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O451" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P451" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q451" t="inlineStr">
         <is>
@@ -36466,7 +36466,7 @@
         </is>
       </c>
       <c r="S451" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T451" t="n">
         <v>10</v>
@@ -36487,7 +36487,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E452" t="n">
         <v>5</v>
@@ -36515,7 +36515,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -36524,7 +36524,7 @@
         </is>
       </c>
       <c r="M452" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N452" t="n">
         <v>7000</v>
@@ -36567,7 +36567,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E453" t="n">
         <v>5</v>
@@ -36595,7 +36595,7 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
@@ -36604,7 +36604,7 @@
         </is>
       </c>
       <c r="M453" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N453" t="n">
         <v>6000</v>
@@ -36647,7 +36647,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E454" t="n">
         <v>5</v>
@@ -36675,7 +36675,7 @@
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
@@ -36684,7 +36684,7 @@
         </is>
       </c>
       <c r="M454" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="N454" t="n">
         <v>5000</v>
@@ -36755,7 +36755,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -36764,7 +36764,7 @@
         </is>
       </c>
       <c r="M455" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N455" t="n">
         <v>7000</v>
@@ -36835,7 +36835,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
@@ -36844,7 +36844,7 @@
         </is>
       </c>
       <c r="M456" t="n">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="N456" t="n">
         <v>6000</v>
@@ -36915,7 +36915,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -36924,7 +36924,7 @@
         </is>
       </c>
       <c r="M457" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="N457" t="n">
         <v>5000</v>
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E458" t="n">
         <v>5</v>
@@ -36995,7 +36995,7 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
@@ -37004,16 +37004,16 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N458" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O458" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P458" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q458" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         </is>
       </c>
       <c r="S458" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T458" t="n">
         <v>10</v>
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E459" t="n">
         <v>5</v>
@@ -37075,7 +37075,7 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -37087,13 +37087,13 @@
         <v>85</v>
       </c>
       <c r="N459" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O459" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P459" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q459" t="inlineStr">
         <is>
@@ -37106,7 +37106,7 @@
         </is>
       </c>
       <c r="S459" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T459" t="n">
         <v>10</v>
@@ -37127,7 +37127,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E460" t="n">
         <v>5</v>
@@ -37155,7 +37155,7 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
@@ -37167,13 +37167,13 @@
         <v>80</v>
       </c>
       <c r="N460" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O460" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P460" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q460" t="inlineStr">
         <is>
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="S460" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T460" t="n">
         <v>10</v>
@@ -37207,7 +37207,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E461" t="n">
         <v>5</v>
@@ -37244,16 +37244,16 @@
         </is>
       </c>
       <c r="M461" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N461" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O461" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P461" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q461" t="inlineStr">
         <is>
@@ -37266,7 +37266,7 @@
         </is>
       </c>
       <c r="S461" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T461" t="n">
         <v>10</v>
@@ -37287,7 +37287,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E462" t="n">
         <v>5</v>
@@ -37324,16 +37324,16 @@
         </is>
       </c>
       <c r="M462" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N462" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O462" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P462" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q462" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         </is>
       </c>
       <c r="S462" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T462" t="n">
         <v>10</v>
@@ -37367,7 +37367,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
@@ -37404,16 +37404,16 @@
         </is>
       </c>
       <c r="M463" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N463" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O463" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P463" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q463" t="inlineStr">
         <is>
@@ -37426,7 +37426,7 @@
         </is>
       </c>
       <c r="S463" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T463" t="n">
         <v>10</v>
@@ -37447,7 +37447,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E464" t="n">
         <v>5</v>
@@ -37475,7 +37475,7 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
@@ -37484,7 +37484,7 @@
         </is>
       </c>
       <c r="M464" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="N464" t="n">
         <v>7000</v>
@@ -37527,7 +37527,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E465" t="n">
         <v>5</v>
@@ -37555,7 +37555,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -37564,7 +37564,7 @@
         </is>
       </c>
       <c r="M465" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N465" t="n">
         <v>6000</v>
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E466" t="n">
         <v>5</v>
@@ -37635,7 +37635,7 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -37687,7 +37687,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E467" t="n">
         <v>5</v>
@@ -37715,16 +37715,16 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M467" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="N467" t="n">
         <v>7000</v>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E468" t="n">
         <v>5</v>
@@ -37795,16 +37795,16 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M468" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N468" t="n">
         <v>6000</v>
@@ -37847,7 +37847,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E469" t="n">
         <v>5</v>
@@ -37875,16 +37875,16 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M469" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N469" t="n">
         <v>5000</v>
@@ -37927,7 +37927,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E470" t="n">
         <v>5</v>
@@ -37960,20 +37960,20 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M470" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N470" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="O470" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="P470" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="Q470" t="inlineStr">
         <is>
@@ -37986,7 +37986,7 @@
         </is>
       </c>
       <c r="S470" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="T470" t="n">
         <v>10</v>
@@ -38007,7 +38007,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E471" t="n">
         <v>5</v>
@@ -38044,16 +38044,16 @@
         </is>
       </c>
       <c r="M471" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N471" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O471" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P471" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q471" t="inlineStr">
         <is>
@@ -38066,7 +38066,7 @@
         </is>
       </c>
       <c r="S471" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T471" t="n">
         <v>10</v>
@@ -38087,7 +38087,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E472" t="n">
         <v>5</v>
@@ -38124,16 +38124,16 @@
         </is>
       </c>
       <c r="M472" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N472" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O472" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P472" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q472" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         </is>
       </c>
       <c r="S472" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T472" t="n">
         <v>10</v>
@@ -38167,7 +38167,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E473" t="n">
         <v>5</v>
@@ -38204,16 +38204,16 @@
         </is>
       </c>
       <c r="M473" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N473" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="O473" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="P473" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="Q473" t="inlineStr">
         <is>
@@ -38226,7 +38226,7 @@
         </is>
       </c>
       <c r="S473" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T473" t="n">
         <v>10</v>
@@ -38247,7 +38247,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E474" t="n">
         <v>5</v>
@@ -38275,7 +38275,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -38284,16 +38284,16 @@
         </is>
       </c>
       <c r="M474" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="N474" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O474" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P474" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q474" t="inlineStr">
         <is>
@@ -38306,7 +38306,7 @@
         </is>
       </c>
       <c r="S474" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T474" t="n">
         <v>10</v>
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E475" t="n">
         <v>5</v>
@@ -38355,7 +38355,7 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
@@ -38364,16 +38364,16 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N475" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O475" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P475" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q475" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         </is>
       </c>
       <c r="S475" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T475" t="n">
         <v>10</v>
@@ -38407,7 +38407,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E476" t="n">
         <v>5</v>
@@ -38435,7 +38435,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -38444,16 +38444,16 @@
         </is>
       </c>
       <c r="M476" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="N476" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O476" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P476" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q476" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="S476" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T476" t="n">
         <v>10</v>
@@ -38515,7 +38515,7 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L477" t="inlineStr">
@@ -38524,7 +38524,7 @@
         </is>
       </c>
       <c r="M477" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="N477" t="n">
         <v>8000</v>
@@ -38595,7 +38595,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -38604,7 +38604,7 @@
         </is>
       </c>
       <c r="M478" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N478" t="n">
         <v>7000</v>
@@ -38675,7 +38675,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -38684,7 +38684,7 @@
         </is>
       </c>
       <c r="M479" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="N479" t="n">
         <v>6000</v>
@@ -38727,7 +38727,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E480" t="n">
         <v>5</v>
@@ -38764,16 +38764,16 @@
         </is>
       </c>
       <c r="M480" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N480" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O480" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P480" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q480" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         </is>
       </c>
       <c r="S480" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T480" t="n">
         <v>10</v>
@@ -38807,7 +38807,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E481" t="n">
         <v>5</v>
@@ -38844,16 +38844,16 @@
         </is>
       </c>
       <c r="M481" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N481" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O481" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P481" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q481" t="inlineStr">
         <is>
@@ -38866,7 +38866,7 @@
         </is>
       </c>
       <c r="S481" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T481" t="n">
         <v>10</v>
@@ -38887,7 +38887,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E482" t="n">
         <v>5</v>
@@ -38924,16 +38924,16 @@
         </is>
       </c>
       <c r="M482" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="N482" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O482" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P482" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q482" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         </is>
       </c>
       <c r="S482" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T482" t="n">
         <v>10</v>
@@ -38967,7 +38967,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E483" t="n">
         <v>5</v>
@@ -38995,7 +38995,7 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
@@ -39004,16 +39004,16 @@
         </is>
       </c>
       <c r="M483" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="N483" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O483" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P483" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q483" t="inlineStr">
         <is>
@@ -39026,7 +39026,7 @@
         </is>
       </c>
       <c r="S483" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T483" t="n">
         <v>10</v>
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E484" t="n">
         <v>5</v>
@@ -39075,7 +39075,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -39084,16 +39084,16 @@
         </is>
       </c>
       <c r="M484" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="N484" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O484" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P484" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q484" t="inlineStr">
         <is>
@@ -39106,7 +39106,7 @@
         </is>
       </c>
       <c r="S484" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T484" t="n">
         <v>10</v>
@@ -39127,7 +39127,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E485" t="n">
         <v>5</v>
@@ -39155,7 +39155,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
@@ -39164,16 +39164,16 @@
         </is>
       </c>
       <c r="M485" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N485" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O485" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P485" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q485" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         </is>
       </c>
       <c r="S485" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T485" t="n">
         <v>10</v>
@@ -39207,7 +39207,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E486" t="n">
         <v>5</v>
@@ -39244,16 +39244,16 @@
         </is>
       </c>
       <c r="M486" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N486" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O486" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="P486" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="Q486" t="inlineStr">
         <is>
@@ -39266,7 +39266,7 @@
         </is>
       </c>
       <c r="S486" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="T486" t="n">
         <v>10</v>
@@ -39287,7 +39287,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E487" t="n">
         <v>5</v>
@@ -39324,16 +39324,16 @@
         </is>
       </c>
       <c r="M487" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="N487" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O487" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="P487" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="Q487" t="inlineStr">
         <is>
@@ -39346,7 +39346,7 @@
         </is>
       </c>
       <c r="S487" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="T487" t="n">
         <v>10</v>
@@ -39367,7 +39367,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E488" t="n">
         <v>5</v>
@@ -39404,16 +39404,16 @@
         </is>
       </c>
       <c r="M488" t="n">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="N488" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O488" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P488" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Q488" t="inlineStr">
         <is>
@@ -39426,7 +39426,7 @@
         </is>
       </c>
       <c r="S488" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="T488" t="n">
         <v>10</v>
@@ -39447,7 +39447,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E489" t="n">
         <v>5</v>
@@ -39475,7 +39475,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -39484,7 +39484,7 @@
         </is>
       </c>
       <c r="M489" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N489" t="n">
         <v>10000</v>
@@ -39497,7 +39497,7 @@
       </c>
       <c r="Q489" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R489" t="inlineStr">
@@ -39527,7 +39527,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E490" t="n">
         <v>5</v>
@@ -39555,7 +39555,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -39564,7 +39564,7 @@
         </is>
       </c>
       <c r="M490" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N490" t="n">
         <v>9000</v>
@@ -39577,7 +39577,7 @@
       </c>
       <c r="Q490" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R490" t="inlineStr">
@@ -39607,7 +39607,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E491" t="n">
         <v>5</v>
@@ -39635,7 +39635,7 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -39644,7 +39644,7 @@
         </is>
       </c>
       <c r="M491" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="N491" t="n">
         <v>8000</v>
@@ -39657,7 +39657,7 @@
       </c>
       <c r="Q491" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R491" t="inlineStr">
@@ -39687,7 +39687,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E492" t="n">
         <v>5</v>
@@ -39715,7 +39715,7 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L492" t="inlineStr">
@@ -39724,20 +39724,20 @@
         </is>
       </c>
       <c r="M492" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N492" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="O492" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P492" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q492" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R492" t="inlineStr">
@@ -39746,7 +39746,7 @@
         </is>
       </c>
       <c r="S492" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="T492" t="n">
         <v>10</v>
@@ -39767,7 +39767,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E493" t="n">
         <v>5</v>
@@ -39795,16 +39795,16 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M493" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="N493" t="n">
         <v>9000</v>
@@ -39817,7 +39817,7 @@
       </c>
       <c r="Q493" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R493" t="inlineStr">
@@ -39826,10 +39826,10 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="T493" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="494">
@@ -39847,7 +39847,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E494" t="n">
         <v>5</v>
@@ -39875,29 +39875,29 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M494" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="N494" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O494" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P494" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q494" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R494" t="inlineStr">
@@ -39906,7 +39906,7 @@
         </is>
       </c>
       <c r="S494" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T494" t="n">
         <v>10</v>
@@ -39960,24 +39960,24 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M495" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="N495" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O495" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P495" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q495" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R495" t="inlineStr">
@@ -39986,10 +39986,10 @@
         </is>
       </c>
       <c r="S495" t="n">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="T495" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="496">
@@ -40040,24 +40040,24 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M496" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N496" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="O496" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="P496" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="Q496" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R496" t="inlineStr">
@@ -40066,10 +40066,10 @@
         </is>
       </c>
       <c r="S496" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T496" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="497">
@@ -40120,24 +40120,24 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M497" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="N497" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O497" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P497" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q497" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R497" t="inlineStr">
@@ -40146,10 +40146,10 @@
         </is>
       </c>
       <c r="S497" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="T497" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="498">
@@ -40167,7 +40167,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E498" t="n">
         <v>5</v>
@@ -40195,29 +40195,29 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M498" t="n">
         <v>67</v>
       </c>
       <c r="N498" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O498" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P498" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q498" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R498" t="inlineStr">
@@ -40226,10 +40226,10 @@
         </is>
       </c>
       <c r="S498" t="n">
-        <v>700</v>
+        <v>533</v>
       </c>
       <c r="T498" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="499">
@@ -40247,7 +40247,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E499" t="n">
         <v>5</v>
@@ -40275,25 +40275,25 @@
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M499" t="n">
         <v>80</v>
       </c>
       <c r="N499" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O499" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P499" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q499" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         </is>
       </c>
       <c r="S499" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T499" t="n">
         <v>10</v>
@@ -40327,7 +40327,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E500" t="n">
         <v>5</v>
@@ -40355,7 +40355,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L500" t="inlineStr">
@@ -40364,20 +40364,20 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N500" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O500" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P500" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q500" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="R500" t="inlineStr">
@@ -40386,10 +40386,10 @@
         </is>
       </c>
       <c r="S500" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="T500" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="501">
@@ -40407,7 +40407,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E501" t="n">
         <v>5</v>
@@ -40435,7 +40435,7 @@
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -40444,7 +40444,7 @@
         </is>
       </c>
       <c r="M501" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N501" t="n">
         <v>7000</v>
@@ -40487,7 +40487,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E502" t="n">
         <v>5</v>
@@ -40515,7 +40515,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -40524,7 +40524,7 @@
         </is>
       </c>
       <c r="M502" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N502" t="n">
         <v>6000</v>
@@ -40567,7 +40567,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E503" t="n">
         <v>5</v>
@@ -40595,7 +40595,7 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
@@ -40604,7 +40604,7 @@
         </is>
       </c>
       <c r="M503" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N503" t="n">
         <v>5000</v>
@@ -40675,7 +40675,7 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
@@ -40684,16 +40684,16 @@
         </is>
       </c>
       <c r="M504" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="N504" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O504" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P504" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q504" t="inlineStr">
         <is>
@@ -40702,11 +40702,11 @@
       </c>
       <c r="R504" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S504" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T504" t="n">
         <v>10</v>
@@ -40755,7 +40755,7 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
@@ -40764,16 +40764,16 @@
         </is>
       </c>
       <c r="M505" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="N505" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O505" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P505" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q505" t="inlineStr">
         <is>
@@ -40782,11 +40782,11 @@
       </c>
       <c r="R505" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S505" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T505" t="n">
         <v>10</v>
@@ -40835,7 +40835,7 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
@@ -40844,16 +40844,16 @@
         </is>
       </c>
       <c r="M506" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N506" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O506" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P506" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q506" t="inlineStr">
         <is>
@@ -40862,11 +40862,11 @@
       </c>
       <c r="R506" t="inlineStr">
         <is>
-          <t>Provincia de San Felipe de Aconcagua</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S506" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T506" t="n">
         <v>10</v>
@@ -40887,7 +40887,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E507" t="n">
         <v>5</v>
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="M507" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="N507" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O507" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P507" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q507" t="inlineStr">
         <is>
@@ -40942,11 +40942,11 @@
       </c>
       <c r="R507" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S507" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T507" t="n">
         <v>10</v>
@@ -40967,7 +40967,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E508" t="n">
         <v>5</v>
@@ -41004,16 +41004,16 @@
         </is>
       </c>
       <c r="M508" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N508" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O508" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P508" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q508" t="inlineStr">
         <is>
@@ -41022,11 +41022,11 @@
       </c>
       <c r="R508" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S508" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T508" t="n">
         <v>10</v>
@@ -41047,7 +41047,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E509" t="n">
         <v>5</v>
@@ -41084,16 +41084,16 @@
         </is>
       </c>
       <c r="M509" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="N509" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O509" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P509" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q509" t="inlineStr">
         <is>
@@ -41102,11 +41102,11 @@
       </c>
       <c r="R509" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de San Felipe de Aconcagua</t>
         </is>
       </c>
       <c r="S509" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T509" t="n">
         <v>10</v>
@@ -41127,7 +41127,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E510" t="n">
         <v>5</v>
@@ -41164,16 +41164,16 @@
         </is>
       </c>
       <c r="M510" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="N510" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O510" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P510" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q510" t="inlineStr">
         <is>
@@ -41186,7 +41186,7 @@
         </is>
       </c>
       <c r="S510" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T510" t="n">
         <v>10</v>
@@ -41207,7 +41207,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E511" t="n">
         <v>5</v>
@@ -41244,16 +41244,16 @@
         </is>
       </c>
       <c r="M511" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N511" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O511" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P511" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q511" t="inlineStr">
         <is>
@@ -41266,7 +41266,7 @@
         </is>
       </c>
       <c r="S511" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T511" t="n">
         <v>10</v>
@@ -41287,7 +41287,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E512" t="n">
         <v>5</v>
@@ -41324,16 +41324,16 @@
         </is>
       </c>
       <c r="M512" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N512" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="O512" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="P512" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="Q512" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         </is>
       </c>
       <c r="S512" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T512" t="n">
         <v>10</v>
@@ -41367,7 +41367,7 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E513" t="n">
         <v>5</v>
@@ -41395,7 +41395,7 @@
       </c>
       <c r="K513" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L513" t="inlineStr">
@@ -41404,16 +41404,16 @@
         </is>
       </c>
       <c r="M513" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="N513" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="O513" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="P513" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="Q513" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         </is>
       </c>
       <c r="S513" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="T513" t="n">
         <v>10</v>
@@ -41447,7 +41447,7 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E514" t="n">
         <v>5</v>
@@ -41475,7 +41475,7 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
@@ -41484,16 +41484,16 @@
         </is>
       </c>
       <c r="M514" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N514" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O514" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P514" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q514" t="inlineStr">
         <is>
@@ -41506,7 +41506,7 @@
         </is>
       </c>
       <c r="S514" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T514" t="n">
         <v>10</v>
@@ -41527,7 +41527,7 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E515" t="n">
         <v>5</v>
@@ -41555,7 +41555,7 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>Clementina</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
@@ -41564,16 +41564,16 @@
         </is>
       </c>
       <c r="M515" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N515" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="O515" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="P515" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="Q515" t="inlineStr">
         <is>
@@ -41586,7 +41586,7 @@
         </is>
       </c>
       <c r="S515" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T515" t="n">
         <v>10</v>
@@ -41607,7 +41607,7 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E516" t="n">
         <v>5</v>
@@ -41635,7 +41635,7 @@
       </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L516" t="inlineStr">
@@ -41644,16 +41644,16 @@
         </is>
       </c>
       <c r="M516" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N516" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O516" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P516" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q516" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         </is>
       </c>
       <c r="S516" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T516" t="n">
         <v>10</v>
@@ -41687,7 +41687,7 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E517" t="n">
         <v>5</v>
@@ -41715,7 +41715,7 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
@@ -41724,16 +41724,16 @@
         </is>
       </c>
       <c r="M517" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="N517" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O517" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P517" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q517" t="inlineStr">
         <is>
@@ -41746,7 +41746,7 @@
         </is>
       </c>
       <c r="S517" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T517" t="n">
         <v>10</v>
@@ -41767,7 +41767,7 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E518" t="n">
         <v>5</v>
@@ -41795,7 +41795,7 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clementina</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
@@ -41804,16 +41804,16 @@
         </is>
       </c>
       <c r="M518" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N518" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O518" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="P518" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="Q518" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         </is>
       </c>
       <c r="S518" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T518" t="n">
         <v>10</v>
@@ -41847,7 +41847,7 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E519" t="n">
         <v>5</v>
@@ -41875,7 +41875,7 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
@@ -41884,16 +41884,16 @@
         </is>
       </c>
       <c r="M519" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N519" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O519" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="P519" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="Q519" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         </is>
       </c>
       <c r="S519" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="T519" t="n">
         <v>10</v>
@@ -41927,7 +41927,7 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E520" t="n">
         <v>5</v>
@@ -41955,7 +41955,7 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L520" t="inlineStr">
@@ -41964,16 +41964,16 @@
         </is>
       </c>
       <c r="M520" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N520" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O520" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="P520" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="Q520" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
         </is>
       </c>
       <c r="S520" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="T520" t="n">
         <v>10</v>
@@ -42007,7 +42007,7 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E521" t="n">
         <v>5</v>
@@ -42035,7 +42035,7 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
@@ -42044,16 +42044,16 @@
         </is>
       </c>
       <c r="M521" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N521" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="O521" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="P521" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="Q521" t="inlineStr">
         <is>
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="S521" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="T521" t="n">
         <v>10</v>
@@ -42087,7 +42087,7 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E522" t="n">
         <v>5</v>
@@ -42120,20 +42120,20 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M522" t="n">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="N522" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O522" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P522" t="n">
-        <v>7456</v>
+        <v>9000</v>
       </c>
       <c r="Q522" t="inlineStr">
         <is>
@@ -42146,7 +42146,7 @@
         </is>
       </c>
       <c r="S522" t="n">
-        <v>746</v>
+        <v>900</v>
       </c>
       <c r="T522" t="n">
         <v>10</v>
@@ -42167,7 +42167,7 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E523" t="n">
         <v>5</v>
@@ -42200,20 +42200,20 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M523" t="n">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="N523" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O523" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P523" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q523" t="inlineStr">
         <is>
@@ -42226,7 +42226,7 @@
         </is>
       </c>
       <c r="S523" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T523" t="n">
         <v>10</v>
@@ -42247,7 +42247,7 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44270</v>
+        <v>44328</v>
       </c>
       <c r="E524" t="n">
         <v>5</v>
@@ -42275,25 +42275,25 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M524" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N524" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O524" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P524" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q524" t="inlineStr">
         <is>
@@ -42302,11 +42302,11 @@
       </c>
       <c r="R524" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S524" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T524" t="n">
         <v>10</v>
@@ -42327,7 +42327,7 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E525" t="n">
         <v>5</v>
@@ -42355,25 +42355,25 @@
       </c>
       <c r="K525" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M525" t="n">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="N525" t="n">
         <v>7000</v>
       </c>
       <c r="O525" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P525" t="n">
-        <v>7000</v>
+        <v>7456</v>
       </c>
       <c r="Q525" t="inlineStr">
         <is>
@@ -42382,11 +42382,11 @@
       </c>
       <c r="R525" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S525" t="n">
-        <v>700</v>
+        <v>746</v>
       </c>
       <c r="T525" t="n">
         <v>10</v>
@@ -42407,7 +42407,7 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44421</v>
+        <v>44330</v>
       </c>
       <c r="E526" t="n">
         <v>5</v>
@@ -42440,20 +42440,20 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M526" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="N526" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O526" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P526" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q526" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         </is>
       </c>
       <c r="S526" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T526" t="n">
         <v>10</v>
@@ -42487,7 +42487,7 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44421</v>
+        <v>44270</v>
       </c>
       <c r="E527" t="n">
         <v>5</v>
@@ -42515,7 +42515,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
@@ -42524,16 +42524,16 @@
         </is>
       </c>
       <c r="M527" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="N527" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O527" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P527" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q527" t="inlineStr">
         <is>
@@ -42542,11 +42542,11 @@
       </c>
       <c r="R527" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S527" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T527" t="n">
         <v>10</v>
@@ -42567,7 +42567,7 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44421</v>
+        <v>44270</v>
       </c>
       <c r="E528" t="n">
         <v>5</v>
@@ -42595,7 +42595,7 @@
       </c>
       <c r="K528" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L528" t="inlineStr">
@@ -42604,16 +42604,16 @@
         </is>
       </c>
       <c r="M528" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N528" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O528" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P528" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q528" t="inlineStr">
         <is>
@@ -42622,11 +42622,11 @@
       </c>
       <c r="R528" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S528" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T528" t="n">
         <v>10</v>
@@ -42675,7 +42675,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -42684,16 +42684,16 @@
         </is>
       </c>
       <c r="M529" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N529" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O529" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P529" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q529" t="inlineStr">
         <is>
@@ -42706,7 +42706,7 @@
         </is>
       </c>
       <c r="S529" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T529" t="n">
         <v>10</v>
@@ -42755,7 +42755,7 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
@@ -42767,13 +42767,13 @@
         <v>58</v>
       </c>
       <c r="N530" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O530" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P530" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q530" t="inlineStr">
         <is>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="S530" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T530" t="n">
         <v>10</v>
@@ -42835,7 +42835,7 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
@@ -42844,16 +42844,16 @@
         </is>
       </c>
       <c r="M531" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N531" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="O531" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="P531" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="Q531" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         </is>
       </c>
       <c r="S531" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T531" t="n">
         <v>10</v>
@@ -42887,7 +42887,7 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E532" t="n">
         <v>5</v>
@@ -42915,7 +42915,7 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
@@ -42924,16 +42924,16 @@
         </is>
       </c>
       <c r="M532" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N532" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O532" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P532" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q532" t="inlineStr">
         <is>
@@ -42946,7 +42946,7 @@
         </is>
       </c>
       <c r="S532" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T532" t="n">
         <v>10</v>
@@ -42967,7 +42967,7 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E533" t="n">
         <v>5</v>
@@ -42995,7 +42995,7 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
@@ -43004,16 +43004,16 @@
         </is>
       </c>
       <c r="M533" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="N533" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="O533" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="P533" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="Q533" t="inlineStr">
         <is>
@@ -43026,7 +43026,7 @@
         </is>
       </c>
       <c r="S533" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="T533" t="n">
         <v>10</v>
@@ -43047,7 +43047,7 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E534" t="n">
         <v>5</v>
@@ -43075,7 +43075,7 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>Clemenuless</t>
+          <t>Murcott</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
@@ -43084,16 +43084,16 @@
         </is>
       </c>
       <c r="M534" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N534" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="O534" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="P534" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q534" t="inlineStr">
         <is>
@@ -43106,7 +43106,7 @@
         </is>
       </c>
       <c r="S534" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T534" t="n">
         <v>10</v>
@@ -43127,7 +43127,7 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E535" t="n">
         <v>5</v>
@@ -43155,25 +43155,25 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M535" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N535" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O535" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P535" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q535" t="inlineStr">
         <is>
@@ -43182,11 +43182,11 @@
       </c>
       <c r="R535" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S535" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T535" t="n">
         <v>10</v>
@@ -43207,7 +43207,7 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44273</v>
+        <v>44383</v>
       </c>
       <c r="E536" t="n">
         <v>5</v>
@@ -43235,25 +43235,25 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M536" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="N536" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="O536" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="P536" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="Q536" t="inlineStr">
         <is>
@@ -43262,11 +43262,11 @@
       </c>
       <c r="R536" t="inlineStr">
         <is>
-          <t>Cabildo</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="S536" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T536" t="n">
         <v>10</v>
@@ -43287,7 +43287,7 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44433</v>
+        <v>44383</v>
       </c>
       <c r="E537" t="n">
         <v>5</v>
@@ -43315,25 +43315,25 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>Murcott</t>
+          <t>Clemenuless</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M537" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N537" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="O537" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="P537" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="Q537" t="inlineStr">
         <is>
@@ -43346,7 +43346,7 @@
         </is>
       </c>
       <c r="S537" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="T537" t="n">
         <v>10</v>
@@ -43367,7 +43367,7 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E538" t="n">
         <v>5</v>
@@ -43404,16 +43404,16 @@
         </is>
       </c>
       <c r="M538" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N538" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O538" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="P538" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="Q538" t="inlineStr">
         <is>
@@ -43422,11 +43422,11 @@
       </c>
       <c r="R538" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S538" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T538" t="n">
         <v>10</v>
@@ -43447,7 +43447,7 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E539" t="n">
         <v>5</v>
@@ -43484,16 +43484,16 @@
         </is>
       </c>
       <c r="M539" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N539" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="O539" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="P539" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q539" t="inlineStr">
         <is>
@@ -43502,11 +43502,11 @@
       </c>
       <c r="R539" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="S539" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T539" t="n">
         <v>10</v>
@@ -43527,7 +43527,7 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E540" t="n">
         <v>5</v>
@@ -43564,7 +43564,7 @@
         </is>
       </c>
       <c r="M540" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N540" t="n">
         <v>7000</v>
@@ -43607,7 +43607,7 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E541" t="n">
         <v>5</v>
@@ -43687,7 +43687,7 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44491</v>
+        <v>44433</v>
       </c>
       <c r="E542" t="n">
         <v>5</v>
@@ -43724,7 +43724,7 @@
         </is>
       </c>
       <c r="M542" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N542" t="n">
         <v>5000</v>
@@ -43749,6 +43749,246 @@
         <v>500</v>
       </c>
       <c r="T542" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>3</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D543" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E543" t="n">
+        <v>5</v>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G543" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I543" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J543" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M543" t="n">
+        <v>75</v>
+      </c>
+      <c r="N543" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O543" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P543" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q543" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R543" t="inlineStr">
+        <is>
+          <t>Provincia de Quillota</t>
+        </is>
+      </c>
+      <c r="S543" t="n">
+        <v>700</v>
+      </c>
+      <c r="T543" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>3</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D544" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E544" t="n">
+        <v>5</v>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G544" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I544" t="n">
+        <v>100102004</v>
+      </c>
+      <c r="J544" t="inlineStr">
+        <is>
+          <t>Mandarina</t>
+        </is>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>Murcott</t>
+        </is>
+      </c>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M544" t="n">
+        <v>80</v>
+      </c>
+      <c r="N544" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O544" t="n">
+        <v>6000